--- a/faculty_unique_mesh_terms.xlsx
+++ b/faculty_unique_mesh_terms.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Faculty_Full_Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -453,14 +453,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adaptation, Physiological; Australia; Authorship; Bacteria; Biodegradation, Environmental; Biological Evolution; Biomass; California; Carbon; Carbon Cycle; Climate; Climate Change; Communication; Conservation of Natural Resources; Coral Reefs; Curriculum; Drought Resistance; Droughts; Ecological and Environmental Phenomena; Ecosystem; Education, Graduate; Environmental Justice; Environmental Microbiology; Environmental Science; Enzymes; Extreme Weather; Financial Management; Forests; Genomics; Grassland; Greenhouse Gases; Humanities; Interdisciplinary Communication; Introduced Species; Isoptera; Life History Traits; Loma; Metagenome; Metagenomics; Methane; Microbial Interactions; Microbiota; Mutation; Nitrification; Nitrogen; Phylogeny; Plant Leaves; Plants; Policy; Policy Making; Program Evaluation; Resilience, Psychological; Skin Pigmentation; Social Sciences; Soil; Soil Microbiology; Sphingomonas; Stress, Physiological; Temperature; Trees; Tropical Climate; Uncertainty; Water; Wildfires; Wood; Workforce; Writing</t>
+          <t>Adaptation, Physiological; Australia; Authorship; Bacteria; Biodegradation, Environmental; Biological Evolution; Biomass; California; Carbon; Carbon Cycle; Climate; Climate Change; Communication; Conservation of Natural Resources; Coral Reefs; Curriculum; Drought Resistance; Droughts; Ecological and Environmental Phenomena; Ecosystem; Education, Graduate; Environmental Justice; Environmental Microbiology; Environmental Science; Enzymes; Extreme Weather; Financial Management; Forests; Genomics; Grassland; Greenhouse Gases; Humanities; Interdisciplinary Communication; Introduced Species; Isoptera; Life History Traits; Loma; Metagenome; Metagenomics; Methane; Microbial Interactions; Microbiota; Mutation; Nitrification; Nitrogen; Phylogeny; Plant Leaves; Plants; Policy; Policy Making; Program Evaluation; Resilience, Psychological; Skin Pigmentation; Social Sciences; Soil; Soil Microbiology; Sphingomonas; Stress, Physiological; Temperature; Trees; Tropical Climate; Uncertainty; Water; Wildfires; Wood; Workforce; Writing; nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arora, K</t>
+          <t>Arora, Kavita</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Algorithms; Allografts; Antineoplastic Agents; Binding Sites; Bioprinting; Brain; Carcinogenesis; Carcinoma, Basal Cell; Carcinoma, Basosquamous; Cell Communication; Cell Differentiation; Cell Line, Tumor; Cell Lineage; Cell Nucleus; Cell Proliferation; Cells, Cultured; Chromatin; Chromatography, Liquid; Clone Cells; Computer Simulation; Conserved Sequence; DNA, Neoplasm; DNA-Binding Proteins; Dermis; Drug Resistance; Drug Resistance, Neoplasm; Ecosystem; Epidermal Cells; Epidermis; Epithelial Cells; Everolimus; Extracellular Matrix; Extrude; Foreskin; Gene Expression Profiling; Gene Expression Regulation; Gene Ontology; Gene Regulatory Networks; Genes, Suppressor; Genetic Techniques; Guanine Nucleotide Exchange Factors; Hair Follicle; Hedgehog Proteins; Hedgehogs; HhAntag691; Homeostasis; Hyperplasia; Imidazoles; Imiquimod; Immune System; Immunity; Immunohistochemistry; Immunotherapy; Infant, Newborn; Interleukin-1alpha; Keratinocytes; Lung Neoplasms; MAP Kinase Signaling System; Microphysiological Systems; Mitogen-Activated Protein Kinase 1; Molecular Biology; Multiomics; Mutation; NIH 3T3 Cells; Neoplasm Proteins; Neoplasms; Neutrophil Activation; Neutrophils; Nucleosides; Organ Culture Techniques; Organoids; Patched-1 Receptor; Phosphorylation; Phosphotransferases; Pluripotent Stem Cells; Prostate; Protein Binding; Protein Kinase C; Psoriasis; RNA; RNA-Seq; Repressor Proteins; Sebaceous Glands; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Sirolimus; Skin; Skin Diseases; Skin Neoplasms; Skin Physiological Phenomena; Smad3 Protein; Small Cell Lung Carcinoma; Stem Cells; T-Lymphocytes; TOR Serine-Threonine Kinases; Tandem Mass Spectrometry; Tissue Engineering; Trans-Activators; Transcription Factor AP-1; Transcription Factors; Transcriptome; Transforming Growth Factor beta; Triazines; Tumor Microenvironment; Up-Regulation; Zinc Finger Protein GLI1; cemiplimab</t>
+          <t>Algorithms; Allografts; Binding Sites; Bioprinting; Brain; CRISPR-Cas Systems; Carcinogenesis; Carcinoma, Basal Cell; Carcinoma, Basosquamous; Cell Communication; Cell Differentiation; Cell Line, Tumor; Cell Proliferation; Cells, Cultured; Chromatography, Liquid; Clone Cells; Clustered Regularly Interspaced Short Palindromic Repeats; Computer Simulation; Conserved Sequence; Dermis; Drug Resistance; Ecosystem; Epidermal Cells; Epidermis; Epithelial Cells; Extrude; Gene Expression Profiling; Gene Regulatory Networks; Genes, Suppressor; Genetic Techniques; Hair Follicle; Hedgehog Proteins; Hedgehogs; HhAntag691; Immune System; Immunity; Immunotherapy; Intercellular Signaling Peptides and Proteins; Keratinocytes; Lung Neoplasms; MAP Kinase Signaling System; Membrane Proteins; Microphysiological Systems; Mitogen-Activated Protein Kinase 1; Molecular Biology; Multiomics; Mutation; Neoplasms; Neutrophil Activation; Neutrophils; Nucleosides; Organoids; Phosphorylation; Phosphotransferases; Pluripotent Stem Cells; Prostate; Protein Binding; Protein Kinase C; RNA; Repressor Proteins; Sebaceous Glands; Secretome; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Skin; Skin Neoplasms; Small Cell Lung Carcinoma; Stem Cells; T-Lymphocytes; Tandem Mass Spectrometry; Tissue Engineering; Transcription Factors; Transcriptome; Tumor Microenvironment; Wnt Signaling Pathway; Zinc Finger Protein GLI1; cemiplimab</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Achilles Tendon; Aging; Alligators and Crocodiles; Anura; Biocompatible Materials; Biomechanical Phenomena; Biomimetic Materials; Bite Force; Bufo marinus; Connective Tissue; Conservation of Energy Resources; Courtship; Elasticity; Elastomers; Electromyography; Environment; Exercise; Extremities; Forelimb; Gait; Galliformes; Hindlimb; Isometric Contraction; Jaw; Lizards; Locomotion; Lower Extremity; Masticatory Muscles; Motor Activity; Movement; Muscle Contraction; Muscle Fibers, Skeletal; Muscle Spindles; Muscle, Skeletal; Physics; Poaceae; Robotic Surgical Procedures; Robotics; Running; Sand; Sexual Behavior, Animal; Stress, Mechanical; Swimming; Temperature; Tendons; Torque; Trees; Virtual Reality; Viscosity; Walking</t>
+          <t>Achilles Tendon; Aging; Alligators and Crocodiles; Anura; Biocompatible Materials; Biomechanical Phenomena; Biomimetic Materials; Bufo marinus; Connective Tissue; Conservation of Energy Resources; Elasticity; Elastomers; Electromyography; Environment; Exercise; Extremities; Forelimb; Gait; Galliformes; Hindlimb; Isometric Contraction; Locomotion; Lower Extremity; Motor Activity; Movement; Muscle Contraction; Muscle Fibers, Skeletal; Muscle Spindles; Muscle, Skeletal; Physics; Poaceae; Robotic Surgical Procedures; Robotics; Running; Sand; Stress, Mechanical; Swimming; Temperature; Tendons; Torque; Trees; Virtual Reality; Viscosity; Walking</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Baker, Nicholas E</t>
+          <t>Baker, Nicholas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amino Acid Sequence; Anemia, Diamond-Blackfan; Aneuploidy; Base Sequence; Basic Helix-Loop-Helix Transcription Factors; Carrier Proteins; Caspases; Cell Communication; Cell Competition; Cell Differentiation; Cell Survival; Compound Eye, Arthropod; Cullin Proteins; DNA-Binding Proteins; Drosophila Proteins; Drosophila melanogaster; Erythropoiesis; Eukaryotic Initiation Factor-2; Eye; Gene Dosage; Gene Expression Regulation, Developmental; Genes, Essential; Haploinsufficiency; Hematopoietic Stem Cells; Imaginal Discs; Larva; Liver; Mutation; Neoplasms; Nuclear Proteins; Oncogenes; Pancytopenia; Phosphorylation; Photoreceptor Cells, Invertebrate; Protein Binding; Protein Biosynthesis; Proto-Oncogene Proteins; Puromycin; Receptors, Notch; Repressor Proteins; Ribosomal Proteins; Ribosomes; Sequence Alignment; Shelterin Complex; Signal Transduction; Telomere-Binding Proteins; Transcription Factors; Transcriptome; Tumor Suppressor Protein p53; Ubiquitin-Protein Ligases; Up-Regulation; Wnt1 Protein</t>
+          <t>Anemia, Diamond-Blackfan; Aneuploidy; Basic Helix-Loop-Helix Transcription Factors; Carrier Proteins; Caspases; Cell Competition; Cullin Proteins; DNA-Binding Proteins; Drosophila Proteins; Drosophila melanogaster; Erythropoiesis; Eukaryotic Initiation Factor-2; Eye; Gene Expression Regulation, Developmental; Genes, Essential; Haploinsufficiency; Hematopoietic Stem Cells; Imaginal Discs; Larva; Mutation; Oncogenes; Pancytopenia; Phosphorylation; Photoreceptor Cells, Invertebrate; Protein Binding; Protein Biosynthesis; Proto-Oncogene Proteins; Puromycin; Receptors, Notch; Repressor Proteins; Ribosomal Proteins; Ribosomes; Shelterin Complex; Signal Transduction; Telomere-Binding Proteins; Transcription Factors; Tumor Suppressor Protein p53; Ubiquitin-Protein Ligases; Wnt1 Protein</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alleles; Binding Sites; CDC2 Protein Kinase; Cadmium; Caenorhabditis elegans; Caenorhabditis elegans Proteins; Cdc20 Proteins; Cell Line, Tumor; Cells, Cultured; Child; Clinical Relevance; Comprehension; Congenital Hypothyroidism; Conserved Sequence; Cyclin B; Cyclin B1; Cyclin B2; DNA; DNA-Binding Proteins; Developmental Disabilities; Diabetes Mellitus; Embryo, Nonmammalian; Energy Metabolism; Evidence Gaps; Extracellular Signal-Regulated MAP Kinases; Gene Expression Regulation; Greig cephalopolysyndactyly syndrome; HEK293 Cells; HeLa Cells; Hedgehog Proteins; Hippo Signaling Pathway; Homeostasis; Inactivation, Metabolic; Infant, Newborn; Ligands; MAP Kinase Signaling System; Mitogen-Activated Protein Kinase 1; Mitogen-Activated Protein Kinases; Mitosis; Mutation; Neoplasms; Nuclear Matrix-Associated Proteins; Phosphatidylinositol 3-Kinases; Phosphorylation; Protein Binding; Protein Conformation; Protein Kinases; Protein Processing, Post-Translational; Protein Serine-Threonine Kinases; Protein Subunits; Proteins; Repressor Proteins; Saccharomyces cerevisiae; Schizophrenia; Signal Transduction; Stress, Physiological; Thermodynamics; Transcription Factor MTF-1; Transcription Factors; Transcription, Genetic; Transcriptional Activation; Tumor Suppressor Proteins; Zinc; Zinc Finger Protein GLI1; ras GTPase-Activating Proteins</t>
+          <t>Alleles; Binding Sites; CDC2 Protein Kinase; Cadmium; Caenorhabditis elegans; Caenorhabditis elegans Proteins; Cdc20 Proteins; Cell Line, Tumor; Cells, Cultured; Child; Clinical Relevance; Comprehension; Congenital Hypothyroidism; Conserved Sequence; Cyclin B; Cyclin B1; Cyclin B2; DNA; DNA-Binding Proteins; Developmental Disabilities; Diabetes Mellitus; Embryo, Nonmammalian; Evidence Gaps; Extracellular Signal-Regulated MAP Kinases; Gene Expression Regulation; Greig cephalopolysyndactyly syndrome; HEK293 Cells; HeLa Cells; Hedgehog Proteins; Hippo Signaling Pathway; Homeostasis; Inactivation, Metabolic; Infant, Newborn; Ligands; MAP Kinase Signaling System; Mitogen-Activated Protein Kinase 1; Mitogen-Activated Protein Kinases; Mitosis; Mutation; Neoplasms; Nuclear Matrix-Associated Proteins; Phosphatidylinositol 3-Kinases; Phosphorylation; Protein Binding; Protein Kinases; Protein Serine-Threonine Kinases; Repressor Proteins; Saccharomyces cerevisiae; Schizophrenia; Signal Transduction; Stress, Physiological; Transcription Factor MTF-1; Transcription Factors; Transcription, Genetic; Transcriptional Activation; Tumor Suppressor Proteins; Zinc; Zinc Finger Protein GLI1; ras GTPase-Activating Proteins</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3T3-L1 Cells; Adipocytes; Adipogenesis; Adipose Tissue; Adolescent; Autism Spectrum Disorder; Autistic Disorder; Benzamides; Bone and Bones; Caenorhabditis elegans; Cannabidiol; Cell Differentiation; Cell Line, Transformed; Child; Child, Preschool; Chromatin; Consensus; DNA; DNA Methylation; Diabetes Mellitus; Diabetes Mellitus, Type 2; Diet, Fat-Restricted; Diet, High-Fat; Diet, Western; Dietary Fats; Drinking Water; Endocrine Disruptors; Environmental Exposure; Environmental Pollutants; Epidemiologic Studies; Epigenesis, Genetic; Epigenomics; Fasting; Fluorocarbons; Flutamide; Gastrointestinal Microbiome; Genetic Predisposition to Disease; Genetics; Germ Cells; Histones; Inheritance Patterns; Insulin Resistance; Insulysin; Leptin; Lipids; Lipogenesis; Lipolysis; Liver; Mesenchymal Stem Cells; Metabolic Diseases; Methylation; MicroRNAs; Multiomics; Mutation; Noncommunicable Diseases; Obesity; Oxazoles; PPAR gamma; Pandemics; Pesticides; Phenotype; Pregnancy; Pregnane X Receptor; Prenatal Exposure Delayed Effects; Protein Binding; Pyridines; Receptors, Cytoplasmic and Nuclear; Receptors, Steroid; Retinoid X Receptors; Rosiglitazone; Spermatozoa; Sweetening Agents; Trialkyltin Compounds; Weight Gain; Xenobiotics; Zebrafish; vinclozolin</t>
+          <t>3T3-L1 Cells; Adipocytes; Adipogenesis; Adipose Tissue; Adolescent; Autism Spectrum Disorder; Autistic Disorder; Benzamides; Caenorhabditis elegans; Cannabidiol; Cell Differentiation; Cell Line, Transformed; Child; Child, Preschool; Chromatin; Consensus; DNA; DNA Methylation; Diabetes Mellitus; Diabetes Mellitus, Type 2; Diet, Fat-Restricted; Diet, High-Fat; Diet, Western; Dietary Fats; Drinking Water; Endocrine Disruptors; Energy Metabolism; Environmental Exposure; Epidemiologic Studies; Epigenesis, Genetic; Epigenomics; Fasting; Flutamide; Genetic Predisposition to Disease; Genetics; Germ Cells; Histones; Inheritance Patterns; Insulin Resistance; Insulysin; Leptin; Lipids; Lipogenesis; Lipolysis; Liver; Mesenchymal Stem Cells; Metabolic Diseases; Methylation; MicroRNAs; Multiomics; Mutation; Noncommunicable Diseases; Obesity; Oxazoles; PPAR gamma; Pandemics; Pesticides; Phenotype; Pregnancy; Pregnane X Receptor; Prenatal Exposure Delayed Effects; Pyridines; Receptors, Cytoplasmic and Nuclear; Receptors, Steroid; Retinoid X Receptors; Rosiglitazone; Spermatozoa; Trialkyltin Compounds; Weight Gain; Xenobiotics; Zebrafish; vinclozolin</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Acetylation; Administration, Inhalation; Aged; Aging; Alleles; Alzheimer Disease; Amino Acid Sequence; Amyloid beta-Peptides; Amyloidogenic Proteins; Amyloidosis; Apolipoprotein E3; Apolipoprotein E4; Apolipoproteins E; Astrocytes; Biomarkers; Blood-Brain Barrier; Brain; Brain Injuries, Traumatic; Brain Neoplasms; Breast Neoplasms; C9orf72 Protein; Calcinosis; Calcium; Calcium Signaling; Caregivers; Cell Death; Cell Movement; Cell- and Tissue-Based Therapy; Cells, Cultured; Chemokines; Chemotaxis; Chimera; Cholesterol; Chromatin; Chromatin Immunoprecipitation Sequencing; Coculture Techniques; Cognition; Cognitive Dysfunction; Complement C1q; Contusions; Cyclic AMP; Cytokines; Dementia; Diabetes Mellitus; Disease Progression; Drug Development; Endoplasmic Reticulum; Endosomal Sorting Complexes Required for Transport; Endothelial Cells; Epigenesis, Genetic; Ferroptosis; Frontal Lobe; Frontotemporal Dementia; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genome-Wide Association Study; Genomics; Gliosis; Grassland; Histones; Homeostasis; Housing Quality; Induced Pluripotent Stem Cells; Infant; Infant, Newborn; Inflammation; Injections, Intraperitoneal; Interferon-gamma; Interferons; Interleukin-17; Interleukin-1beta; Intermediate Filaments; Intracranial Hemorrhages; Isothiocyanates; Leukoencephalopathies; Lipid Metabolism; Lipid Peroxidation; Lipopolysaccharides; Liver Diseases; Lysosomes; Macrophage Colony-Stimulating Factor; Macrophages; Microglia; Microscopy; Microtubules; Mitochondria; Monocytes; Multiple Sclerosis; Mutation; Mycoses; Myelin Basic Protein; Myelin Sheath; Myeloid Cells; NF-E2-Related Factor 2; Nervous System Diseases; Nervous System Malformations; Neurites; Neurodegenerative Diseases; Neurofibrillary Tangles; Neuroinflammatory Diseases; Neurons; Neutrophils; Nucleotide Motifs; Obesity; Organelles; Organic Chemicals; Organoids; Oxidative Stress; Parkinson Disease; Patient Advocacy; Phagocytosis; Phenotype; Phosphorylation; Physicians; Pick Disease of the Brain; Plaque, Amyloid; Pluripotent Stem Cells; Point Mutation; Presenilin-1; Prosencephalon; Protein Isoforms; Quantitative Trait Loci; RNA; Rare Diseases; Receptor, Macrophage Colony-Stimulating Factor; Receptors, Granulocyte-Macrophage Colony-Stimulating Factor; Research Report; Resilience, Psychological; Risk Factors; Schizophrenia; Sex Factors; Single-Cell Gene Expression Analysis; Social Cohesion; Stem Cell Research; Stem Cells; Sulfoxides; Tauopathies; Thalamus; Tissue Distribution; Toll-Like Receptor 4; Transcription Factors; Transcriptional Activation; Transcriptome; Transplantation, Heterologous; Treatment Outcome; Twins, Monozygotic; White Matter; Whole Genome Sequencing; Xenon; heparin proteoglycan; peptide A; tau Proteins</t>
+          <t>Acetylation; Administration, Inhalation; Aged; Aging; Alleles; Alzheimer Disease; Amino Acid Sequence; Amyloid beta-Peptides; Amyloidogenic Proteins; Amyloidosis; Antibodies; Antibodies, Monoclonal; Apolipoprotein E3; Apolipoprotein E4; Apolipoproteins E; Astrocytes; Autoimmune Diseases; Biomarkers; Blood-Brain Barrier; Brain; Brain Injuries, Traumatic; Brain Neoplasms; Breast Neoplasms; C9orf72 Protein; Calcinosis; Calcium; Calcium Signaling; Caregivers; Cell Death; Cell Movement; Cell- and Tissue-Based Therapy; Cells, Cultured; Chemokines; Chemotaxis; Chimera; Cholesterol; Chromatin; Chromatin Immunoprecipitation Sequencing; Coculture Techniques; Cognition; Cognitive Dysfunction; Complement C1q; Contusions; Cyclic AMP; Cytokines; Dementia; Diabetes Mellitus; Diet; Disease Progression; Drug Development; Endoplasmic Reticulum; Endosomal Sorting Complexes Required for Transport; Endothelial Cells; Epigenesis, Genetic; Ferroptosis; Frontal Lobe; Frontotemporal Dementia; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genome-Wide Association Study; Genomics; Gliosis; Grassland; Hippocampus; Histones; Homeostasis; Housing Quality; Immunohistochemistry; Immunotherapy; Induced Pluripotent Stem Cells; Infant; Infant, Newborn; Inflammation; Inflammation Mediators; Injections, Intraperitoneal; Interferon-gamma; Interferons; Interleukin-17; Interleukin-1beta; Intermediate Filaments; Intracranial Hemorrhages; Isothiocyanates; Leukoencephalopathies; Lipid Metabolism; Lipid Peroxidation; Lipopolysaccharides; Liver Diseases; Lysosomes; Macrophage Colony-Stimulating Factor; Macrophages; Microglia; Microscopy; Microtubules; Mitochondria; Monocytes; Multiple Sclerosis; Mutation; Mycoses; Myelin Basic Protein; Myelin Sheath; Myeloid Cells; NF-E2-Related Factor 2; Nervous System Diseases; Nervous System Malformations; Neurites; Neurodegenerative Diseases; Neurofibrillary Tangles; Neuroinflammatory Diseases; Neurons; Neutrophils; Nucleotide Motifs; Obesity; Organelles; Organic Chemicals; Organoids; Outcome Assessment, Health Care; Oxidative Stress; Parkinson Disease; Patient Advocacy; Phagocytosis; Phenotype; Phosphorylation; Physicians; Pick Disease of the Brain; Plaque, Amyloid; Pluripotent Stem Cells; Presenilin-1; Prosencephalon; Protein Isoforms; Proteomics; Quantitative Trait Loci; RNA; Rare Diseases; Receptor, Macrophage Colony-Stimulating Factor; Receptors, Chimeric Antigen; Receptors, Granulocyte-Macrophage Colony-Stimulating Factor; Research Report; Resilience, Psychological; Risk Factors; Schizophrenia; Sequence Analysis, RNA; Sex Factors; Single-Cell Gene Expression Analysis; Social Cohesion; Stem Cell Research; Stem Cells; Sulfoxides; Synaptophysin; Tauopathies; Thalamus; Tissue Distribution; Toll-Like Receptor 4; Transcription Factors; Transcriptional Activation; Transcriptome; Transplantation, Heterologous; Treatment Outcome; Twins, Monozygotic; Weaning; White Matter; Whole Genome Sequencing; Xenon; anti-synaptophysin; heparin proteoglycan; peptide A; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alaska; Ammonium Compounds; Biodiversity; Biological Evolution; Biomass; California; Carbon; Carbon Dioxide; Chondrus; Climate Change; Conservation of Natural Resources; Curriculum; Diet; Ecological and Environmental Phenomena; Ecosystem; Environment; Extinction, Biological; Food Chain; Fucus; Hydrogen-Ion Concentration; Kelp; Macrocystis; Marine Biology; Microalgae; Mollusca; Mytilus; New Zealand; Nitrates; Nitrogen; Oceans and Seas; Oxygen; Phenotype; Photosynthesis; Physiological Phenomena; Plants; Portugal; Sea Anemones; Seawater; Seaweed; Stress, Physiological; Symbiosis; Urea</t>
+          <t>Alaska; Ammonium Compounds; Biodiversity; Biomass; California; Carbon Dioxide; Climate Change; Conservation of Natural Resources; Curriculum; Ecological and Environmental Phenomena; Ecosystem; Extinction, Biological; Food Chain; Hydrogen-Ion Concentration; Kelp; Macrocystis; Marine Biology; Mollusca; Nitrates; Nitrogen; Oceans and Seas; Oxygen; Physiological Phenomena; Portugal; Seawater; Seaweed; Urea</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Acclimatization; Aged, 80 and over; American Indian or Alaska Native; Antibody Specificity; Bees; Binding Sites; Biological Evolution; Biological Mimicry; Birds; Blotting, Western; Body Temperature Regulation; Butterflies; Carrier Proteins; Central Nervous System; Chromosomes; Clustered Regularly Interspaced Short Palindromic Repeats; Colombia; Color; Color Vision; Colorado; Communication; Computational Biology; Costa Rica; Crystallization; Drosophila melanogaster; Ecology; Ecosystem; Ecuador; Electrophysiology; Evolution, Molecular; Exons; Eye; Farms; Florida; Forests; Gardening; Gene Duplication; Gene Editing; Gene Expression Profiling; Genetic Introgression; Genome, Insect; Genomics; Genotype; Guyana; Haplotypes; Heating; Heredity; Immunohistochemistry; In Situ Hybridization; Infrared Rays; Insecta; Iridescence; Mating Preference, Animal; Mexican Americans; Mexico; Microscopy, Confocal; Mutation; North America; Opsins; Optical Phenomena; Perception; Phenotype; Photoreceptor Cells; Phylogeny; Phylogeography; Pigmentation; Polymerase Chain Reaction; Polymorphism, Single Nucleotide; Pupa; RNA, Messenger; RNA-Seq; Reproduction; Research Personnel; Retina; Retinal Pigments; Rhodopsin; Rod Opsins; Selection, Genetic; Sequence Analysis, DNA; Sex Characteristics; Sexual Behavior, Animal; Sexual Selection; Spectrum Analysis; Sunlight; Technology; Temperature; Transcriptome; Translocation, Genetic; Trees; Ultraviolet Rays; Wings, Animal; Writing; long-wavelength opsin; ommochrome; short-wavelength opsin</t>
+          <t>American Indian or Alaska Native; Antibody Specificity; Bees; Binding Sites; Biological Mimicry; Blotting, Western; Butterflies; Carrier Proteins; Central Nervous System; Chromosomes; Clustered Regularly Interspaced Short Palindromic Repeats; Colombia; Color; Color Vision; Communication; Costa Rica; Crystallization; Drosophila melanogaster; Ecology; Ecosystem; Electrophysiology; Evolution, Molecular; Eye; Farms; Forests; Gardening; Gene Duplication; Gene Editing; Gene Expression Profiling; Genomics; Guyana; Heating; Heredity; Immunohistochemistry; In Situ Hybridization; Insecta; Iridescence; Mating Preference, Animal; Mexican Americans; Microscopy, Confocal; Opsins; Perception; Photoreceptor Cells; Phylogeny; Pigmentation; Pupa; RNA, Messenger; RNA-Seq; Reproduction; Retina; Retinal Pigments; Rhodopsin; Rod Opsins; Sex Characteristics; Sexual Behavior, Animal; Sexual Selection; Technology; Transcriptome; Translocation, Genetic; Trees; Ultraviolet Rays; Wings, Animal; Writing; long-wavelength opsin; ommochrome; short-wavelength opsin</t>
         </is>
       </c>
     </row>
@@ -571,11 +571,7 @@
           <t>Burley, Nancy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Adolescent; Educational Measurement; Perception; Problem-Based Learning</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -585,7 +581,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Action Potentials; Adolescent; Aged; Aging; Alzheimer Disease; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Analgesics; Anhedonia; Antiviral Agents; Anxiety; Apathy; Atrophy; Basal Forebrain; Benzazepines; Biomarkers; Biomedical Research; Blood-Brain Barrier; Body Fluids; Brain; COVID-19; Cancer Pain; Catenins; Cells, Cultured; Cellular Senescence; Checklist; Child; Child, Preschool; Cholinergic Agents; Chromosomes, Human, Pair 21; Cognition; Cognitive Dysfunction; Cross-Sectional Studies; Cytokines; Defense Mechanisms; Delta Catenin; Delusions; Depression; Diagnostic Errors; Disease Progression; Down Syndrome; Drug Evaluation, Preclinical; Drug Repositioning; Encephalitis; Extracellular Vesicles; Fetus; Gene Expression Profiling; Gene Expression Regulation; Glycogen Synthase Kinase 3 beta; Guanosine Triphosphate; Hallucinations; Hippocampus; Human Genetics; Incidence; Indoles; Infant; Infant, Newborn; Inflammation; Interferons; Leadership; Live Birth; Longevity; Longitudinal Studies; Membrane Proteins; Memory Disorders; Microglia; Mitochondria; Models, Genetic; Molecular Biology; Mutation; Nerve Degeneration; Nerve Growth Factor; Nervous System Diseases; Neuralgia; Neurodegenerative Diseases; Neurofibrillary Tangles; Neuroinflammatory Diseases; Neurons; New York; Oxidative Stress; Peptides; Pharmaceutical Preparations; Plaque, Amyloid; Precision Medicine; Pregnancy; Probability; Proteomics; Psychiatrists; Quality of Life; RNA, Viral; Schizophrenia; Spain; Spinal Cord Dorsal Horn; Spinal Puncture; Symporters; Synaptic Transmission; Tauopathies; Transcription Factors; Trisomy; United States Food and Drug Administration; Vulnerable Populations; Young Adult; gamma-Aminobutyric Acid; tau Proteins</t>
+          <t>Aged; Aging; Alzheimer Disease; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Anhedonia; Antiviral Agents; Anxiety; Apathy; Atrophy; Basal Forebrain; Biomarkers; Biomedical Research; Blood-Brain Barrier; Body Fluids; Brain; COVID-19; Cellular Senescence; Checklist; Child; Cholinergic Agents; Chromosomes, Human, Pair 21; Cognition; Cognitive Dysfunction; Defense Mechanisms; Delusions; Depression; Diagnostic Errors; Down Syndrome; Extracellular Vesicles; Fetus; Gene Expression Profiling; Guanosine Triphosphate; Hallucinations; Human Genetics; Incidence; Inflammation; Interferons; Leadership; Live Birth; Longitudinal Studies; Membrane Proteins; Memory Disorders; Microglia; Mitochondria; Models, Genetic; Molecular Biology; Mutation; Nerve Degeneration; Nerve Growth Factor; Nervous System Diseases; Neurodegenerative Diseases; Neurofibrillary Tangles; Neuroinflammatory Diseases; Neurons; New York; Oxidative Stress; Peptides; Pharmaceutical Preparations; Plaque, Amyloid; Precision Medicine; Pregnancy; Probability; Protein Precursors; Proteomics; Psychiatrists; Quality of Life; RNA, Viral; Schizophrenia; Spain; Spinal Puncture; Tetraspanin 28; Trisomy; United States Food and Drug Administration; Vulnerable Populations; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -597,7 +593,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Administration, Intranasal; Bias; Cognition; Double-Blind Method; Emotions; Estradiol; Magnetic Resonance Imaging; Memory, Episodic; Oxytocin; Sex Characteristics; Tomography, Emission-Computed, Single-Photon</t>
+          <t>Administration, Intranasal; Double-Blind Method; Emotions; Estradiol; Magnetic Resonance Imaging; Memory, Episodic; Oxytocin; Sex Characteristics</t>
         </is>
       </c>
     </row>
@@ -609,7 +605,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Acetylation; Biological Phenomena; Blastocyst; Blastula; Cadmium; Caenorhabditis elegans; Cell Differentiation; Cell Line, Tumor; Cell Lineage; Cells, Cultured; Central Nervous System; Chromatin; Chromatin Immunoprecipitation; Computational Biology; Congenital Abnormalities; Consensus Sequence; Curriculum; DNA; DNA-Binding Proteins; Developmental Biology; Ectoderm; Embryo, Mammalian; Embryo, Nonmammalian; Embryonic Development; Embryonic Structures; Endoderm; Endodermal Sinus Tumor; Epidermis; Epigenesis, Genetic; Epigenomics; Fatty Liver; Fertilization; Fetus; Fibroblast Growth Factors; Forkhead Transcription Factors; Gastrula; Gastrulation; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Regulatory Networks; Genes, Developmental; Genes, Mitochondrial; Genome; Genomics; Germ Layers; HEK293 Cells; HeLa Cells; High-Throughput Nucleotide Sequencing; Hippo Signaling Pathway; Histone Deacetylase 1; Histone Deacetylase 2; Histone Deacetylases; Histone Demethylases; Histones; Homeostasis; Inactivation, Metabolic; Liver; Lysine; Maternal Inheritance; Mesoderm; Multiomics; Mutation; N-Myc Proto-Oncogene Protein; Nervous System; Neural Tube; Neurulation; Nutrients; Oogenesis; Phenotype; Phosphorylation; Pregnancy Complications; Preimplantation Diagnosis; Protein Binding; Protein Serine-Threonine Kinases; Proteomics; RNA; Regenerative Medicine; SOXB1 Transcription Factors; SOXF Transcription Factors; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Stem Cell Research; Stress, Physiological; Thinking; Transcription Factor MTF-1; Transcription Factors; Transcription, Genetic; Transcriptome; Tumor Suppressor Proteins; Uterus; Wnt Proteins; Wnt Signaling Pathway; Xenopus; Xenopus Proteins; Xenopus laevis; Zinc; Zygote; animal cap; beta Catenin</t>
+          <t>Acetylation; Biological Phenomena; Blastocyst; Blastula; Cadmium; Caenorhabditis elegans; Cell Differentiation; Cell Line, Tumor; Cell Lineage; Central Nervous System; Chromatin; Computational Biology; Congenital Abnormalities; Consensus Sequence; Curriculum; DNA; DNA-Binding Proteins; Developmental Biology; Ectoderm; Embryonic Development; Embryonic Structures; Endoderm; Endodermal Sinus Tumor; Epidermis; Epigenesis, Genetic; Epigenomics; Fertilization; Fetus; Forkhead Transcription Factors; Gastrula; Gastrulation; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Regulatory Networks; Genes, Developmental; Genome; Genomics; Germ Layers; HEK293 Cells; HeLa Cells; Hippo Signaling Pathway; Histone Deacetylase 1; Histone Deacetylase 2; Histone Deacetylases; Histones; Homeostasis; Inactivation, Metabolic; Lysine; Mesoderm; Multiomics; Mutation; N-Myc Proto-Oncogene Protein; Nervous System; Neural Tube; Neurulation; Nutrients; Phenotype; Phosphorylation; Pregnancy Complications; Preimplantation Diagnosis; Protein Binding; Protein Serine-Threonine Kinases; Proteomics; RNA; Regenerative Medicine; SOXB1 Transcription Factors; Sequence Analysis, RNA; Signal Transduction; Stem Cell Research; Stress, Physiological; Thinking; Transcription Factor MTF-1; Transcription Factors; Transcription, Genetic; Tumor Suppressor Proteins; Uterus; Xenopus; Xenopus Proteins; Xenopus laevis; Zinc; Zygote; animal cap</t>
         </is>
       </c>
     </row>
@@ -621,7 +617,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adolescent; Aged; Alzheimer Disease; Artificial Intelligence; Brain; Cerebral Cortex; Cognition; Cognitive Neuroscience; Cognitive Science; Computer Simulation; Confusion; Cues; Depression; Diffusion Magnetic Resonance Imaging; Figural Aftereffect; Functional Laterality; Functional Neuroimaging; Gestures; Gray Matter; Gyrus Cinguli; Hand; Head; Hippocampus; Imagination; Individuality; Interpersonal Relations; Judgment; Learning; Magnetic Resonance Imaging; Maze Learning; Memory; Memory, Episodic; Menopause; Motion; Motion Perception; Neuroimaging; Neurons; Organ Size; Parietal Lobe; Pregnancy; Proprioception; Reaction Time; Rotation; Space Perception; Spatial Learning; Spatial Memory; Spatial Navigation; Temporal Lobe; Theta Rhythm; Virtual Reality; White Matter; Young Adult</t>
+          <t>Adolescent; Alzheimer Disease; Artificial Intelligence; Brain; Cerebral Cortex; Cognition; Cognitive Neuroscience; Cognitive Science; Computer Simulation; Confusion; Depression; Diffusion Magnetic Resonance Imaging; Figural Aftereffect; Functional Neuroimaging; Gray Matter; Gyrus Cinguli; Head; Hippocampus; Individuality; Interpersonal Relations; Judgment; Learning; Magnetic Resonance Imaging; Maze Learning; Memory; Memory, Episodic; Menopause; Motion; Motion Perception; Neuroimaging; Neurons; Organ Size; Parietal Lobe; Pregnancy; Spatial Learning; Spatial Memory; Spatial Navigation; Temporal Lobe; Theta Rhythm; Virtual Reality; White Matter; Young Adult</t>
         </is>
       </c>
     </row>
@@ -633,7 +629,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aging; Artificial Intelligence; Caenorhabditis elegans; Caenorhabditis elegans Proteins; Cell Line; Chromatin Immunoprecipitation; Computational Biology; DNA Damage; Databases, Factual; Genomics; Germ Cells; Information Storage and Retrieval; Language; Liquid Biopsy; Medicine; Mutation; Neoplasms; Noninvasive Prenatal Testing; Programming Languages; Software; Stem Cell Niche; Stem Cells; Systems Biology</t>
+          <t>Aging; Artificial Intelligence; Cell Line; Chromatin Immunoprecipitation; Computational Biology; DNA Damage; Databases, Factual; Generative Artificial Intelligence; Genomics; Language; Large Language Models; Liquid Biopsy; Medicine; Mutation; Neoplasms; Noninvasive Prenatal Testing; Programming Languages; Software; Systems Biology; nan</t>
         </is>
       </c>
     </row>
@@ -645,7 +641,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adjuvants, Immunologic; Amino Acids; Amino Sugars; Anemia, Sickle Cell; Antibodies, Bacterial; Arabidopsis; Bacteria; Bacterial Outer Membrane Proteins; Bacterial Vaccines; Basic Helix-Loop-Helix Transcription Factors; Biological Products; Biological Science Disciplines; Brain; Cannabidiol; Cannabinoids; Cannabis; Carcinogens; Cell Adhesion; Cell Membrane; Cellular Senescence; Cerebral Hemorrhage; Chlamydia Infections; Chlamydia muridarum; Chromatography, High Pressure Liquid; DNA, Satellite; Dronabinol; Drug Development; Drug Resistance, Microbial; Employment; Epigenesis, Genetic; Erythrocytes; Ethanol; Fertilizers; Flavonoids; Furunculosis; Gas Chromatography-Mass Spectrometry; Genomics; Genotype; Heinz Bodies; Helium; Hemoglobinopathies; Hemoglobins; Herbicides; Hispanic or Latino; Hydrogen; Hydrogen-Ion Concentration; Imidazoles; Information Sources; Isotopes; Kinetics; Ligands; Lipids; Magnetic Resonance Imaging; Magnetic Resonance Spectroscopy; Magnets; Marijuana Use; Medical Marijuana; Membrane Proteins; Metabolome; Mice, Inbred BALB C; Microbiota; Molecular Dynamics Simulation; Molecular Structure; Mutation; Myoglobin; Natural Science Disciplines; Neoplasms; Oligodeoxyribonucleotides; Oryza; Oxides; Oxygen; Pesticides; Plant Extracts; Protein Binding; Protein Interaction Maps; Proteins; Recombinant Proteins; Seasons; Seeds; Sugars; Temperature; Terpenes; Water; beta-myrcene; caryophyllene oxide; voxelotor</t>
+          <t>Amino Acids; Amino Sugars; Anemia, Sickle Cell; Arabidopsis; Bacteria; Basic Helix-Loop-Helix Transcription Factors; Biological Products; Biological Science Disciplines; Brain; Cannabidiol; Cannabinoids; Cannabis; Carcinogens; Cell Adhesion; Cell Membrane; Cellular Senescence; Cerebral Hemorrhage; Chromatography, High Pressure Liquid; DNA, Satellite; Dronabinol; Drug Development; Drug Resistance, Microbial; Employment; Epigenesis, Genetic; Erythrocytes; Ethanol; Fertilizers; Flavonoids; Furunculosis; Gas Chromatography-Mass Spectrometry; Genomics; Genotype; Heinz Bodies; Helium; Hemoglobinopathies; Hemoglobins; Herbicides; Hispanic or Latino; Hydrogen; Hydrogen-Ion Concentration; Information Sources; Isotopes; Kinetics; Ligands; Lipids; Magnetic Resonance Imaging; Magnetic Resonance Spectroscopy; Magnets; Marijuana Use; Medical Marijuana; Membrane Proteins; Metabolome; Microbiota; Molecular Dynamics Simulation; Molecular Structure; Mutation; Myoglobin; Natural Science Disciplines; Neoplasms; Oryza; Oxides; Oxygen; Pesticides; Plant Extracts; Protein Binding; Protein Interaction Maps; Proteins; Recombinant Proteins; Seasons; Seeds; Sugars; Temperature; Terpenes; Water; beta-myrcene; caryophyllene oxide; voxelotor</t>
         </is>
       </c>
     </row>
@@ -657,7 +653,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amphibians; Axons; Cell Adhesion Molecules; Cell Differentiation; Cell Tracking; Dendrites; Gene Expression; Kinetics; Larva; Luminescent Proteins; Microscopy, Confocal; Neurogenesis; Retina; Retinal Ganglion Cells; Superior Colliculi; Synapses; Visual Pathways; Xenopus Proteins; Xenopus laevis</t>
+          <t>Amphibians; Axons; Cell Adhesion Molecules; Cell Tracking; Dendrites; Neurogenesis; Retina; Superior Colliculi; Synapses; Visual Pathways; Xenopus Proteins; Xenopus laevis</t>
         </is>
       </c>
     </row>
@@ -669,7 +665,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Academies and Institutes; Acclimatization; Amylases; Anaerobiosis; Cellulase; Cold Temperature; Diet; Ecosystem; Enzyme Assays; Gene Expression; Heat-Shock Response; Homeostasis; Hot Temperature; Metabolome; Metabolomics; Microplastics; Mytilus; Mytilus edulis; Oxygen; Protein Denaturation; Respiration; Starch; Temperature; Toxicity Tests, Subacute; Water Pollutants, Chemical</t>
+          <t>Academies and Institutes; Acclimatization; Amylases; Anaerobiosis; Cellulase; Cold Temperature; Diet; Ecosystem; Gene Expression; Heat-Shock Response; Homeostasis; Hot Temperature; Metabolome; Metabolomics; Mytilus; Oxygen; Respiration; Temperature</t>
         </is>
       </c>
     </row>
@@ -681,7 +677,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Acoustics; Apoptosis; Astrocytes; Auditory Pathways; Auditory Perception; Autism Spectrum Disorder; Axon Guidance; Axons; Biological Evolution; Brain; Brain Stem; CX3C Chemokine Receptor 1; Caspase 3; Caspases; Cell Death; Ceramides; Cochlear Nerve; Cysteine; Deafness; Dendrites; Diet, High-Fat; Embryonic Development; Endopeptidases; Evoked Potentials, Auditory, Brain Stem; Exosomes; Fragile X Syndrome; Gene Expression; Gene Expression Regulation; Gene Ontology; Hearing; Insulin Resistance; Microglia; Mitochondrial Dynamics; Mutation; Myelin Sheath; Nervous System; Neurodevelopmental Disorders; Neuroglia; Neuronal Plasticity; Neurons; Obesity; Oligodendroglia; Peptide Hydrolases; Phylogeny; Presynaptic Terminals; Proteomics; RNA, Long Noncoding; Reaction Time; Receptors, Granulocyte-Macrophage Colony-Stimulating Factor; Sphingolipids; Synapses; Synaptic Transmission; Tandem Mass Spectrometry; Transcriptome; Trapezoid Body</t>
+          <t>Acoustics; Apoptosis; Astrocytes; Auditory Pathways; Axon Guidance; Axons; Biological Evolution; Brain; Brain Stem; Caspase 3; Caspases; Cell Death; Cochlear Nerve; Cysteine; Deafness; Dendrites; Embryonic Development; Endopeptidases; Evoked Potentials, Auditory, Brain Stem; Exosomes; Gene Expression Regulation; Gene Ontology; Hearing; Microglia; Myelin Sheath; Nervous System; Neurodevelopmental Disorders; Neuroglia; Neuronal Plasticity; Neurons; Oligodendroglia; Peptide Hydrolases; Phylogeny; Presynaptic Terminals; Proteomics; RNA, Long Noncoding; Synapses; Synaptic Transmission; Tandem Mass Spectrometry; Transcriptome; Trapezoid Body; nan</t>
         </is>
       </c>
     </row>
@@ -693,7 +689,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Air; Aircraft; Algorithms; Artificial Limbs; Avatar; Awards and Prizes; Behavior, Animal; Bioengineering; Biomechanical Phenomena; Biomimetics; Biophysics; Biotechnology; Birds; Chick Embryo; Chickens; Cognition; Communication; Computer Simulation; Connective Tissue; Conservation of Energy Resources; Cross-Sectional Studies; Dancing; Dog Diseases; Dogs; Elasticity; Elastomers; Electromyography; Environment; Epilepsy; Exoskeleton Device; Extremities; Feedback, Sensory; Fellowships and Scholarships; Financial Management; Flight, Animal; Forecasting; Gait; Galliformes; Genomics; History, 20th Century; History, 21st Century; Information Dissemination; Interdisciplinary Research; Interneurons; Invertebrates; Isometric Contraction; Leadership; Leg; Locomotion; Lumbosacral Region; Motion; Motor Activity; Movement; Muscle Contraction; Muscle Proteins; Muscle, Skeletal; Muscles; Neuromuscular Diseases; Ownership; Precipitating Factors; Proprioception; Prostheses and Implants; Rats, Sprague-Dawley; Reflex; Resilience, Psychological; Robotic Surgical Procedures; Robotics; Running; Schools; Seizures; Self-Help Devices; Social Cohesion; Social Media; Spinal Cord; Spinocerebellar Tracts; Sports; Stress, Mechanical; Surveys and Questionnaires; Synapses; Tendons; Vertebrates; Viscosity; Walking; Wearable Electronic Devices; Wings, Animal; X-Ray Diffraction</t>
+          <t>Air; Aircraft; Algorithms; Artificial Limbs; Avatar; Awards and Prizes; Behavior, Animal; Bioengineering; Biomechanical Phenomena; Biomimetics; Biophysics; Biotechnology; Birds; Cognition; Communication; Computer Simulation; Connective Tissue; Conservation of Energy Resources; Dancing; Elasticity; Elastomers; Electromyography; Environment; Exoskeleton Device; Extremities; Fellowships and Scholarships; Financial Management; Flight, Animal; Gait; Galliformes; Genomics; History, 20th Century; History, 21st Century; Information Dissemination; Interdisciplinary Research; Invertebrates; Isometric Contraction; Leadership; Leg; Locomotion; Motion; Motor Activity; Movement; Muscle Contraction; Muscle Proteins; Muscle, Skeletal; Muscles; Neuromuscular Diseases; Prostheses and Implants; Rats, Sprague-Dawley; Resilience, Psychological; Robotic Surgical Procedures; Robotics; Running; Schools; Self-Help Devices; Social Cohesion; Social Media; Spinal Cord; Sports; Stress, Mechanical; Tendons; Vertebrates; Viscosity; Walking; Wearable Electronic Devices; Wings, Animal; X-Ray Diffraction</t>
         </is>
       </c>
     </row>
@@ -705,7 +701,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Academia; Cell Line; Chromatin; Communication; DNA Transposable Elements; Developmental Biology; Dystonia; Embryology; History, 20th Century; History, 21st Century; Human Embryonic Stem Cells; Leadership; Mutation; Neurobiology; Neurodegenerative Diseases; Neurons; Parkinsonian Disorders; Personnel Selection; Pluripotent Stem Cells; Protein Binding; Retroelements; Stem Cells; Transcription Factor 7-Like 1 Protein; Wnt Signaling Pathway</t>
+          <t>Academia; Cell Line; Chromatin; Communication; DNA Transposable Elements; Developmental Biology; Dystonia; Embryology; Human Embryonic Stem Cells; Leadership; Mutation; Neurobiology; Neurodegenerative Diseases; Neurons; Parkinsonian Disorders; Personnel Selection; Protein Binding; Retroelements; Stem Cells; Transcription Factor 7-Like 1 Protein; Wnt Signaling Pathway</t>
         </is>
       </c>
     </row>
@@ -717,7 +713,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Acyclovir; Antiviral Agents; Blister; COVID-19; Cell Culture Techniques; Cell Line; Cell Nucleus; Chlorocebus aethiops; Cidofovir; Clustered Regularly Interspaced Short Palindromic Repeats; Cytomegalovirus; DNA Replication; DNA, Viral; DNA-Directed DNA Polymerase; Decitabine; Drug Repositioning; Drug Resistance, Viral; Drug Synergism; Encephalitis, Herpes Simplex; Epithelial Cells; Eukaryotic Cells; Fibroblasts; Ficus; Foscarnet; Gene Expression; Gene Expression Regulation; Gene Expression Regulation, Viral; Genes, Tumor Suppressor; Genome, Viral; HEK293 Cells; Hepatitis C, Chronic; Herpes Labialis; Herpes Simplex; Herpesviridae; Herpesviridae Infections; Herpesvirus 1, Equid; Herpesvirus 1, Human; Homeodomain Proteins; Host Microbial Interactions; Host-Pathogen Interactions; Immunocompromised Host; Infant, Newborn; Interferons; Kaposi Varicelliform Eruption; Keratinocytes; Keratitis, Herpetic; Life Cycle Stages; Machine Learning; Merkel cell polyomavirus; Methylation; Microfluidics; Mutation; Myelodysplastic Syndromes; National Institute of Allergy and Infectious Diseases (U.S.); Organoids; Orthomyxoviridae; Pandemics; Phenotype; Prevalence; Protein Interaction Mapping; RNA; SARS-CoV-2; Sequence Analysis, RNA; Serial Passage; Simplexvirus; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Skin Diseases, Viral; Surgery, Plastic; Systems Biology; Thymidine Kinase; Transferases; Ulcer; Vero Cells; Viral Proteins; Virology; Virus Diseases; Virus Replication; Viruses; Zygote</t>
+          <t>Acyclovir; Antiviral Agents; Blister; COVID-19; CRISPR-Cas Systems; Cell Culture Techniques; Cell Line; Cell Nucleus; Chlorocebus aethiops; Cidofovir; Clustered Regularly Interspaced Short Palindromic Repeats; Cytomegalovirus; DNA Replication; DNA, Viral; DNA-Directed DNA Polymerase; Decitabine; Drug Repositioning; Drug Resistance, Viral; Drug Synergism; Encephalitis, Herpes Simplex; Epithelial Cells; Eukaryotic Cells; Fibroblasts; Ficus; Foscarnet; Gene Expression; Gene Expression Regulation; Gene Expression Regulation, Viral; Genes, Tumor Suppressor; Genome, Viral; HEK293 Cells; Hepatitis C, Chronic; Herpes Labialis; Herpes Simplex; Herpesviridae; Herpesviridae Infections; Herpesvirus 1, Equid; Herpesvirus 1, Human; Homeodomain Proteins; Host Microbial Interactions; Host-Pathogen Interactions; Immunocompromised Host; Infant, Newborn; Interferons; Kaposi Varicelliform Eruption; Keratinocytes; Keratitis, Herpetic; Life Cycle Stages; Machine Learning; Methylation; Microfluidics; Mutation; Myelodysplastic Syndromes; National Institute of Allergy and Infectious Diseases (U.S.); Organoids; Orthomyxoviridae; Pandemics; Phenotype; Prevalence; Protein Interaction Mapping; RNA; SARS-CoV-2; Sequence Analysis, RNA; Serial Passage; Simplexvirus; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Skin Diseases, Viral; Surgery, Plastic; Systems Biology; Thymidine Kinase; Transcription, Genetic; Transferases; Ulcer; Vero Cells; Viral Proteins; Virology; Virus Diseases; Virus Replication; Viruses; Zygote</t>
         </is>
       </c>
     </row>
@@ -729,19 +725,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Acetals; Alleles; Allergy and Immunology; Amiloride; Aminopyridines; Antimetabolites, Antineoplastic; Antineoplastic Agents; Asialoglycoprotein Receptor; Autophagy; Base Pairing; Biocompatible Materials; Biological Transport; Breast Neoplasms; COVID-19; COVID-19 Vaccines; CRISPR-Cas Systems; Cell Line, Tumor; Cell Membrane; Cell Proliferation; Ceramides; Class III Phosphatidylinositol 3-Kinases; Codon, Nonsense; Codon, Terminator; Cultural Diversity; Cytoplasm; Cytosol; Diet, High-Fat; Drug Resistance; Drug Resistance, Neoplasm; Endocytosis; Endosomes; ErbB Receptors; Fatty Acid Synthases; Feasibility Studies; Ficus; Fingolimod Hydrochloride; Fluorouracil; Genomics; HeLa Cells; Hepatocytes; Heterocyclic Compounds, 3-Ring; Hot Temperature; Hydrogen-Ion Concentration; Insulin Resistance; Intercellular Signaling Peptides and Proteins; Karyopherins; Kidney; Kidney Glomerulus; Leukemia; Ligands; Lipid Nanoparticles; Liver; Lung; Lung Neoplasms; Lysosomes; Metabolic Flux Analysis; Metabolism; Microfilament Proteins; Minority Groups; Mitochondria; Mitochondrial Dynamics; Morpholines; Mutation; Neoplasms; Nucleotides; Nutrients; Obesity; Oligonucleotides; Oligonucleotides, Antisense; Oncogenes; PTEN Phosphohydrolase; Phosphatidylinositol 3-Kinases; Phosphatidylinositols; Phosphorylation; Pinocytosis; Plague; Podocytes; Polyethylene Glycols; Polypharmacology; Proof of Concept Study; Prostatic Neoplasms; Protein Phosphatase 2; Proto-Oncogene Proteins B-raf; Proto-Oncogene Proteins p21(ras); RNA, Small Interfering; Ribosomes; Saccharomyces cerevisiae; Schools; Sodium-Hydrogen Exchangers; Sphingolipids; Sphingosine; Transcription Factors; Tumor Microenvironment; Vacuolar Proton-Translocating ATPases; Vacuoles; patisiran</t>
+          <t>Alleles; Allergy and Immunology; Amiloride; Aminopyridines; Asialoglycoprotein Receptor; Autophagy; Base Pairing; Biological Transport; COVID-19; COVID-19 Vaccines; CRISPR-Cas Systems; Cell Line, Tumor; Cell Membrane; Cell Proliferation; Class III Phosphatidylinositol 3-Kinases; Codon, Nonsense; Codon, Terminator; Cultural Diversity; Cytoplasm; Cytosol; Diet, High-Fat; Drug Resistance; Endocytosis; Endosomes; ErbB Receptors; Feasibility Studies; Ficus; Genomics; HeLa Cells; Hepatocytes; Heterocyclic Compounds, 3-Ring; Hot Temperature; Intercellular Signaling Peptides and Proteins; Karyopherins; Kidney; Kidney Glomerulus; Ligands; Lipid Nanoparticles; Liver; Lung; Lung Neoplasms; Lysosomes; Metabolism; Minority Groups; Mitochondria; Morpholines; Neoplasms; Nucleotides; Nutrients; Obesity; Oligonucleotides; Oligonucleotides, Antisense; Oncogenes; PTEN Phosphohydrolase; Phosphatidylinositol 3-Kinases; Phosphatidylinositols; Pinocytosis; Plague; Podocytes; Polypharmacology; Proof of Concept Study; Prostatic Neoplasms; Protein Phosphatase 2; Proto-Oncogene Proteins B-raf; Proto-Oncogene Proteins p21(ras); RNA, Small Interfering; Ribosomes; Saccharomyces cerevisiae; Schools; Sodium-Hydrogen Exchangers; Sphingolipids; Sphingosine; Transcription Factors; Tumor Microenvironment; Vacuolar Proton-Translocating ATPases; Vacuoles; patisiran</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Emerson, JJ</t>
+          <t>Emerson, J.J.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Adaptation, Biological; Adaptation, Physiological; Alleles; Anopheles; Biological Evolution; Butterflies; CRISPR-Associated Protein 9; Chromatin; Chromatin Assembly and Disassembly; Color Vision; Cues; DNA Copy Number Variations; DNA Transposable Elements; DNA, Satellite; Diet; Digestion; Domestication; Drosophila Proteins; Drosophila melanogaster; Drosophila simulans; Enhancer Elements, Genetic; Evolution, Molecular; Eye; Fishes; Fruit; Gene Duplication; Gene Expression; Gene Expression Profiling; Gene Frequency; Gene Regulatory Networks; Genes, Duplicate; Genetics, Population; Genome; Genome, Insect; Genome, Plant; Genome-Wide Association Study; Genomic Structural Variation; Genomics; Green Fluorescent Proteins; Herbivory; Heterochromatin; Heterozygote; High-Throughput Nucleotide Sequencing; Inheritance Patterns; Insecticide Resistance; Introduced Species; Kynurenine 3-Monooxygenase; Malaria; Models, Genetic; Molecular Conformation; Mosaicism; Mosquito Vectors; Mutation; Opsins; Oryza; Oviposition; Phenotype; Phylogeny; RNA, Guide, CRISPR-Cas Systems; Rhodopsin; Selection, Genetic; Sensation; Sensory Receptor Cells; Software; Species Specificity</t>
+          <t>Alleles; Butterflies; Chromatin; Chromatin Assembly and Disassembly; Color Vision; Cost-Benefit Analysis; Drosophila Proteins; Drosophila melanogaster; Enhancer Elements, Genetic; Evolution, Molecular; Eye; Gene Duplication; Gene Frequency; Gene Regulatory Networks; Genes, Duplicate; Genome; Genome, Insect; Genome-Wide Association Study; Genomics; Genotype; Heterochromatin; High-Throughput Nucleotide Sequencing; Molecular Conformation; Mutation; Opsins; Pesticides; Phenotype; Plants; Repetitive Sequences, Nucleic Acid; Reverse Genetics; Rhodopsin; Selection, Genetic; Software; Telomere; Uncertainty; Whole Genome Sequencing</t>
         </is>
       </c>
     </row>
@@ -753,7 +749,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Biological Transport; Cell Communication; Cell Shape; Cell Surface Extensions; Connexins; Cytoplasmic Vesicles; Diffusion; Drosophila Proteins; Drosophila melanogaster; Endoderm; Extracellular Vesicles; Insulin-Like Growth Factor Binding Proteins; Keratinocytes; Macrophages; Matrix Metalloproteinase 9; Muscles; Neoplasm Proteins; Neoplasms, Experimental; Organ Specificity; Pigments, Biological; Pseudopodia; Signal Transduction; Wnt Signaling Pathway; Wnt1 Protein; Zebrafish</t>
+          <t>Cell Communication; Cell Surface Extensions; Connexins; Diffusion; Drosophila Proteins; Endoderm; Extracellular Vesicles; Keratinocytes; Macrophages; Matrix Metalloproteinase 9; Muscles; Pigments, Biological; Pseudopodia; Signal Transduction; Zebrafish</t>
         </is>
       </c>
     </row>
@@ -765,7 +761,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Acer; Acyclic Monoterpenes; Aerosols; Air Pollutants; Air Pollution; Alabama; Artemisia; Atmosphere; Bicyclic Monoterpenes; Carbon; Carbon Dioxide; China; Cities; Citizen Science; Climate Change; Colorado; Computer Simulation; Crops, Agricultural; Curriculum; Dehydration; Demography; Drought Resistance; Droughts; Ecological and Environmental Phenomena; Ecosystem; Endophytes; Environmental Justice; Environmental Monitoring; Environmental Pollutants; Forests; Fossil Fuels; Greenhouse Gases; Hot Temperature; Humans; Internship and Residency; Isomerism; Liquidambar; Literacy; Los Angeles; Metabolomics; Models, Chemical; Monoterpenes; Mortality, Premature; Mycorrhizae; Oxidation-Reduction; Oxygen; Ozone; Pacific Ocean; Photochemical Processes; Photosynthesis; Pilot Projects; Plant Leaves; Plant Physiological Phenomena; Plants; Poaceae; Prognosis; Quercus; Radiation Injuries; Remote Sensing Technology; Resilience, Psychological; Rhizosphere; Schools; Seasons; Sesquiterpenes; Social Conditions; Soil; Temperature; Terpenes; Trees; Volatile Organic Compounds; Wettability</t>
+          <t>Acer; Acyclic Monoterpenes; Aerosols; Air Pollutants; Air Pollution; Alabama; Artemisia; Atmosphere; Bicyclic Monoterpenes; Carbon; Carbon Dioxide; Cities; Citizen Science; Climate Change; Colorado; Computer Simulation; Crops, Agricultural; Curriculum; Dehydration; Demography; Drought Resistance; Droughts; Ecological and Environmental Phenomena; Ecosystem; Endophytes; Environmental Justice; Environmental Monitoring; Environmental Pollutants; Forests; Fossil Fuels; Greenhouse Gases; Hot Temperature; Humans; Internship and Residency; Isomerism; Liquidambar; Literacy; Los Angeles; Metabolomics; Models, Chemical; Monoterpenes; Mortality, Premature; Mycorrhizae; Oxidation-Reduction; Oxygen; Ozone; Pacific Ocean; Photochemical Processes; Photosynthesis; Pilot Projects; Plant Leaves; Plant Physiological Phenomena; Plants; Poaceae; Prognosis; Quercus; Radiation Injuries; Remote Sensing Technology; Resilience, Psychological; Rhizosphere; Schools; Seasons; Sesquiterpenes; Social Conditions; Soil; Temperature; Terpenes; Trees; Volatile Organic Compounds; Wettability</t>
         </is>
       </c>
     </row>
@@ -777,7 +773,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Academia; Acoustic Stimulation; Algorithms; Auditory Perception; Behavior; Brain; CA1 Region, Hippocampal; Cluster Analysis; Cognition; Computer Simulation; Computers; Decision Making; Electrodes, Implanted; Electrophysiology; Government; Hippocampus; Image Processing, Computer-Assisted; Leadership; Machine Learning; Memory; Memory, Episodic; Nerve Net; Normal Distribution; Odorants; Olfactory Perception; Planning Techniques; Prefrontal Cortex; Stereotaxic Techniques; Substance-Related Disorders; Technology; Theta Rhythm; Time; Time Factors</t>
+          <t>Academia; Acoustic Stimulation; Algorithms; Auditory Perception; Behavior; Brain; CA1 Region, Hippocampal; Cognition; Computers; Decision Making; Electrodes, Implanted; Electrophysiology; Government; Hippocampus; Leadership; Machine Learning; Memory; Memory, Episodic; Nerve Net; Odorants; Olfactory Perception; Planning Techniques; Prefrontal Cortex; Stereotaxic Techniques; Substance-Related Disorders; Technology; Theta Rhythm; Time; Time Factors</t>
         </is>
       </c>
     </row>
@@ -789,7 +785,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adenosine Triphosphate; Administration, Inhalation; Adolescent; Aerosols; Alcohol Drinking; Alcoholism; Allosteric Regulation; Analgesics, Opioid; Angiotensin-Converting Enzyme 2; Antineoplastic Agents; Apoptosis; Behavior; Behavior, Animal; Biomedical Research; Brain; Brain-Derived Neurotrophic Factor; COVID-19; Cannabidiol; Cannabis; Cell Line, Tumor; Cell Movement; Cell Proliferation; Cerebellar Neoplasms; Child; Cholinergic Neurons; Chromatin; Clustered Regularly Interspaced Short Palindromic Repeats; Cocaine; Cognition; Consummatory Behavior; Craving; Cytoplasmic Granules; DNA Helicases; DNA, Complementary; DNA-Binding Proteins; Dopamine; Dopaminergic Neurons; Dronabinol; E-Cigarette Vapor; Eating; Electronic Nicotine Delivery Systems; Electrophysiology; Epigenesis, Genetic; Ethanol; Extracellular Vesicles; Eye Diseases; Genomics; Habenula; Hippocampus; Huntington Disease; Hydrocarbons, Brominated; In Situ Hybridization, Fluorescence; Indole Alkaloids; Interpeduncular Nucleus; Isoxazoles; Learning; Lung; Lynx; Marketing; Mass Spectrometry; Medulloblastoma; Memory; Menthol; Mice; MicroRNAs; Microscopy; National Eye Institute (U.S.); Neurons; Nicotine; Nicotinic Agonists; Nucleus Accumbens; Poly-ADP-Ribose Binding Proteins; Prefrontal Cortex; Pregnancy; Prenatal Exposure Delayed Effects; Protein Isoforms; Protein Transport; Proteomics; Pyrazoles; Quality of Life; RNA Helicases; RNA Recognition Motif Proteins; Rats, Sprague-Dawley; Receptor, Cannabinoid, CB1; Receptors, Nicotinic; Receptors, Purinergic P2; Recurrence; Rodentia; Self Administration; Sex Characteristics; Signal Transduction; Smoking; Smoking Cessation; Social Behavior; Social Environment; Substance Withdrawal Syndrome; Substance-Related Disorders; Synaptic Transmission; Therapeutics; Tobacco Products; Tobacco Use; Tobacco Use Cessation Devices; Tobacco Use Disorder; Vaping; Ventral Tegmental Area; Vision, Ocular; Xenograft Model Antitumor Assays; alpha7 Nicotinic Acetylcholine Receptor</t>
+          <t>Adenosine Triphosphate; Administration, Inhalation; Adolescent; Aerosols; Alcohol Drinking; Alcoholism; Analgesics, Opioid; Antineoplastic Agents; Apoptosis; Behavior; Biomedical Research; Brain; Brain-Derived Neurotrophic Factor; Cannabidiol; Cannabis; Cell Line, Tumor; Cell Movement; Cell Proliferation; Cerebellar Neoplasms; Child; Cholinergic Neurons; Chromatin; Clustered Regularly Interspaced Short Palindromic Repeats; Cocaine; Cognition; Consummatory Behavior; Craving; Dopamine; Dopaminergic Neurons; Dronabinol; E-Cigarette Vapor; Eating; Electronic Nicotine Delivery Systems; Electrophysiology; Epigenesis, Genetic; Ethanol; Extracellular Vesicles; Eye Diseases; Genomics; Habenula; Learning; Lynx; Marketing; Mass Spectrometry; Medulloblastoma; Memory; Menthol; Mice; Microscopy; National Eye Institute (U.S.); Nicotine; Nicotinic Agonists; Nucleus Accumbens; Pregnancy; Prenatal Exposure Delayed Effects; Proteomics; Quality of Life; Rats, Sprague-Dawley; Receptor, Cannabinoid, CB1; Receptors, Nicotinic; Receptors, Purinergic P2; Recurrence; Rodentia; Self Administration; Sex Characteristics; Signal Transduction; Smoking; Smoking Cessation; Social Behavior; Social Environment; Substance Withdrawal Syndrome; Substance-Related Disorders; Synaptic Transmission; Therapeutics; Tobacco Products; Tobacco Use; Tobacco Use Cessation Devices; Tobacco Use Disorder; Ventral Tegmental Area; Vision, Ocular; Xenograft Model Antitumor Assays</t>
         </is>
       </c>
     </row>
@@ -801,7 +797,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Access to Information; Artificial Intelligence; Bacteria; Biological Evolution; Cell Biology; Communicable Diseases; Computational Biology; Computer Simulation; Disease; Ecological and Environmental Phenomena; Ecosystem; Epigenesis, Genetic; Ergonomics; Evolution, Molecular; Gene Expression; Genetic Drift; Genetics; Genetics, Population; Genotype; Host-Parasite Interactions; Inheritance Patterns; Life History Traits; Logic; Microbiota; Models, Genetic; Molecular Epidemiology; Mutation; Neoplasms; Neurobiology; Phenotype; Public Health; Selection, Genetic; Social Evolution; Software; Systems Biology</t>
+          <t>Access to Information; Artificial Intelligence; Bacteria; Biological Evolution; Cell Biology; Communicable Diseases; Computational Biology; Computer Simulation; Disease; Ecological and Environmental Phenomena; Epigenesis, Genetic; Ergonomics; Evolution, Molecular; Gene Expression; Genetic Drift; Genetics; Genetics, Population; Genotype; Host-Parasite Interactions; Inheritance Patterns; Life History Traits; Logic; Microbiota; Models, Genetic; Molecular Epidemiology; Mutation; Neoplasms; Neurobiology; Phenotype; Public Health; Selection, Genetic; Social Evolution; Software; Systems Biology</t>
         </is>
       </c>
     </row>
@@ -813,7 +809,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Action Potentials; Algorithms; Anesthetics; Astrocytes; Behavior, Animal; Biosensing Techniques; Brain; Brain Diseases, Metabolic; Brain Ischemia; Cerebral Cortex; Cerebrovascular Circulation; Cluster Analysis; Computer Simulation; Diagnostic Imaging; Electric Stimulation; Electroencephalography; Electrophysiology; Glutamic Acid; Head; Histology; Image Processing, Computer-Assisted; Infarction, Middle Cerebral Artery; Ischemic Attack, Transient; Ischemic Stroke; Lactic Acid; Magnetic Resonance Imaging; Metabolism; Microelectrodes; Middle Cerebral Artery; Neural Conduction; Neuroimaging; Neuronal Plasticity; Neurons; Neuroprotection; Neurotransmitter Agents; Normal Distribution; Pharmacology; Rodentia; Sense Organs; Social Isolation; Spatio-Temporal Analysis; Stroke; Wakefulness; gamma-Aminobutyric Acid</t>
+          <t>Action Potentials; Anesthetics; Astrocytes; Behavior, Animal; Biosensing Techniques; Brain; Brain Diseases, Metabolic; Brain Ischemia; Cerebral Cortex; Cerebrovascular Circulation; Diagnostic Imaging; Electric Stimulation; Electrophysiology; Glutamic Acid; Head; Histology; Infarction, Middle Cerebral Artery; Ischemic Attack, Transient; Ischemic Stroke; Lactic Acid; Magnetic Resonance Imaging; Metabolism; Microelectrodes; Middle Cerebral Artery; Neural Conduction; Neuroimaging; Neuronal Plasticity; Neurons; Neuroprotection; Neurotransmitter Agents; Pharmacology; Rodentia; Sense Organs; Social Isolation; Stroke; Wakefulness; gamma-Aminobutyric Acid</t>
         </is>
       </c>
     </row>
@@ -825,7 +821,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AMP-Activated Protein Kinases; Adolescent; Alkyl and Aryl Transferases; Antineoplastic Agents; Antineoplastic Combined Chemotherapy Protocols; Apoptosis; Apoptosis Regulatory Proteins; Biological Transport; Biomarkers; Biosynthetic Pathways; Blast Crisis; Bridged Bicyclo Compounds, Heterocyclic; Catalysis; Cell Cycle Checkpoints; Cell Death; Cell Differentiation; Cell Line; Cell Line, Tumor; Cell Membrane; Cell Proliferation; Cell Survival; Child; Cholesterol; Chromatin Immunoprecipitation; Clustered Regularly Interspaced Short Palindromic Repeats; Cobalt; Communicable Diseases; Cytokines; DNA Adducts; DNA Methylation; Dasatinib; Data Interpretation, Statistical; Datasets as Topic; Diet; Dietary Supplements; Diterpenes; Doxorubicin; Drug Delivery Systems; Drug Repositioning; Drug Resistance, Neoplasm; Drug Synergism; Efficiency; Endocytosis; Endosomes; Enhancer of Zeste Homolog 2 Protein; Epigenesis, Genetic; Eukaryotic Initiation Factor-4E; Eukaryotic Initiation Factor-4F; Exome Sequencing; Extracellular Matrix; Farnesyltranstransferase; Fasting; Feeding Behavior; Food-Drug Interactions; Fusion Proteins, bcr-abl; GTP Phosphohydrolases; Gene Dosage; Gene Expression; Gene Expression Regulation, Leukemic; Gene Ontology; Glutamine; Guanosine Triphosphate; Health Inequities; Heart Diseases; Hematologic Neoplasms; Heterografts; High-Throughput Nucleotide Sequencing; Hispanic or Latino; Histones; Hydroxymethylglutaryl-CoA Reductase Inhibitors; Imatinib Mesylate; Immunosuppressive Agents; Inflammation; Interinstitutional Relations; Janus Kinases; Lactams; Leukemia; Leukemia, Lymphocytic, Chronic, B-Cell; Leukemia, Myelogenous, Chronic, BCR-ABL Positive; Leukemia, Myeloid, Acute; Lipids; Lymphocytes; Lymphoma; Lymphoma, B-Cell; Lysine; MTOR Inhibitors; Macrophages; Mechanistic Target of Rapamycin Complex 1; Mechanistic Target of Rapamycin Complex 2; Mechanotransduction, Cellular; Melanoma; Metabolic Networks and Pathways; Methylation; Mevalonic Acid; Mice, Inbred BALB C; Mice, Inbred NOD; Mice, Nude; Mice, SCID; Mitochondria; Molecular Targeted Therapy; Multiple Myeloma; Multiprotein Complexes; Mutation; Myeloid Cell Leukemia Sequence 1 Protein; National Institutes of Health (U.S.); Neoplasms; Neoplastic Processes; Nutrients; Oligonucleotides; Oligonucleotides, Antisense; Organelles; Philadelphia Chromosome; Phosphatidylinositol 3-Kinases; Phosphoinositide-3 Kinase Inhibitors; Phosphorylation; Pinocytosis; Polycomb Repressive Complex 1; Polycomb Repressive Complex 2; Polyisoprenyl Phosphates; Precursor B-Cell Lymphoblastic Leukemia-Lymphoma; Precursor Cell Lymphoblastic Leukemia-Lymphoma; Prenylation; Prognosis; Prospective Studies; Proteasome Endopeptidase Complex; Protein Isoforms; Protein Kinase Inhibitors; Protein Prenylation; Protein-Tyrosine Kinases; Proteolysis; Proto-Oncogene Proteins c-akt; Proto-Oncogene Proteins c-bcl-2; Publishing; Pyrimidines; Quinolines; Quinolones; RNA, Small Interfering; Receptors, Cytokine; Recurrence; Reperfusion Injury; Research Personnel; Retrospective Studies; Signal Transduction; Sirolimus; Staff Development; Standard of Care; Sterol Regulatory Element Binding Protein 2; Sterols; Sulfonamides; Survival Rate; TOR Serine-Threonine Kinases; Terpenes; Therapeutic Index; Transcription Factors; Transcriptome; Triple Negative Breast Neoplasms; Tumor Cells, Cultured; Tumor Suppressor Protein p53; Tyrosine Kinase Inhibitors; Ubiquitin; Ubiquitin-Protein Ligases; Up-Regulation; Whole Genome Sequencing; Xenograft Model Antitumor Assays; YAP-Signaling Proteins; Young Adult; pitavastatin; ruxolitinib; venetoclax</t>
+          <t>AMP-Activated Protein Kinases; Adolescent; Antineoplastic Agents; Apoptosis; Apoptosis Regulatory Proteins; Biological Transport; Biomarkers; Biosynthetic Pathways; Catalysis; Cell Cycle Checkpoints; Cell Death; Cell Line; Cell Line, Tumor; Cell Membrane; Cell Proliferation; Cell Survival; Child; Cholesterol; Clustered Regularly Interspaced Short Palindromic Repeats; Cobalt; Cytokines; DNA Adducts; Dasatinib; Diet; Doxorubicin; Drug Delivery Systems; Drug Repositioning; Drug Synergism; Endocytosis; Endosomes; Fasting; Fusion Proteins, bcr-abl; GTP Phosphohydrolases; Gene Expression; Guanosine Triphosphate; Health Inequities; Heart Diseases; Hematologic Neoplasms; Heterografts; Hispanic or Latino; Hydroxymethylglutaryl-CoA Reductase Inhibitors; Immunosuppressive Agents; Janus Kinases; Leukemia; Leukemia, Lymphocytic, Chronic, B-Cell; Leukemia, Myeloid, Acute; Lipids; Lymphocytes; Lymphoma; MTOR Inhibitors; Mechanistic Target of Rapamycin Complex 1; Mechanistic Target of Rapamycin Complex 2; Mevalonic Acid; Mitochondria; Molecular Targeted Therapy; Multiple Myeloma; Multiprotein Complexes; Myeloid Cell Leukemia Sequence 1 Protein; Neoplasms; Neoplastic Processes; Nutrients; Oligonucleotides; Oligonucleotides, Antisense; Organelles; Philadelphia Chromosome; Phosphatidylinositol 3-Kinases; Phosphoinositide-3 Kinase Inhibitors; Phosphorylation; Precursor Cell Lymphoblastic Leukemia-Lymphoma; Prognosis; Prospective Studies; Proteasome Endopeptidase Complex; Protein Isoforms; Protein Prenylation; Protein-Tyrosine Kinases; Proteolysis; Proto-Oncogene Proteins c-akt; Proto-Oncogene Proteins c-bcl-2; Quinolines; RNA, Small Interfering; Receptors, Cytokine; Recurrence; Reperfusion Injury; Retrospective Studies; Signal Transduction; Sirolimus; Standard of Care; Sterol Regulatory Element Binding Protein 2; Sterols; Survival Rate; TOR Serine-Threonine Kinases; Terpenes; Therapeutic Index; Transcription Factors; Transcriptome; Triple Negative Breast Neoplasms; Tumor Suppressor Protein p53; Tyrosine Kinase Inhibitors; Ubiquitin; Ubiquitin-Protein Ligases; Up-Regulation; Xenograft Model Antitumor Assays; Young Adult; pitavastatin; ruxolitinib; venetoclax</t>
         </is>
       </c>
     </row>
@@ -849,7 +845,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Acclimatization; Adaptation, Physiological; Alkaline Phosphatase; Aminopeptidases; Amylases; Animal Husbandry; Biological Evolution; Body Size; Carnivory; Cellulases; Chromosomes; Cold Temperature; Diet; Diet, Food, and Nutrition; Dietary Fiber; Digestion; Digestive System Physiological Phenomena; Ecological and Environmental Phenomena; Ecosystem; Enzymes; Esters; Fermentation; Fires; Fishes; Gastrointestinal Microbiome; Gastrointestinal Tract; Gastropoda; Gene Expression Profiling; Genetics; Genome; Genomics; Heat-Shock Response; Herbivory; Intestines; Leucine; Lipase; Lizards; Marine Biology; Microbiota; Mytilus; Pancreatic alpha-Amylases; Perciformes; Phylogeny; Physiology; RNA, Ribosomal, 16S; Reproducibility of Results; Sharks; Skates, Fish; Stomach; Temperature; Transcriptome; Trypsin; Zebrafish; Zinc; alpha-Glucosidases</t>
+          <t>Acclimatization; Adaptation, Physiological; Alkaline Phosphatase; Aminopeptidases; Amylases; Animal Husbandry; Biological Evolution; Body Size; Carnivory; Cellulases; Chromosomes; Cold Temperature; Diet; Diet, Food, and Nutrition; Dietary Fiber; Digestion; Digestive System Physiological Phenomena; Ecological and Environmental Phenomena; Ecosystem; Enzymes; Esters; Fermentation; Fires; Fishes; Gastrointestinal Microbiome; Gastropoda; Gene Expression Profiling; Genetics; Genome; Genomics; Heat-Shock Response; Leucine; Lipase; Lizards; Marine Biology; Microbiota; Mytilus; Pancreatic alpha-Amylases; Perciformes; Phylogeny; Physiology; RNA, Ribosomal, 16S; Reproducibility of Results; Stomach; Temperature; Transcriptome; Trypsin; Zebrafish; alpha-Glucosidases; nan</t>
         </is>
       </c>
     </row>
@@ -861,7 +857,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adipogenesis; Adipose Tissue; Allografts; Ankyrins; Antiviral Agents; Artificial Intelligence; Cell Differentiation; Cell Line; Cell Nucleus; Cell Transplantation; Cells, Cultured; Chromatin; Complement C1q; Cytoplasm; DNA; DNA Damage; DNA Viruses; DNA-Directed RNA Polymerases; Deep Learning; Disease Outbreaks; Escherichia coli; Eukaryotic Cells; Evolution, Molecular; Fascia; Genome Size; Genome, Viral; Giant Viruses; Human Embryonic Stem Cells; Hyaluronan Receptors; Immunity, Innate; Mass Spectrometry; Membrane Glycoproteins; Membrane Proteins; Mimiviridae; Morphogenesis; Mpox (monkeypox); Neural Stem Cells; Obesity; Phosphoric Monoester Hydrolases; Phylogeny; Poxviridae; Protein Binding; Protein C; Proteome; Proteomics; Receptors, Complement; Rodentia; Signal Transduction; Smallpox; Spinal Cord Injuries; Systems Biology; Technology; Transcription Factor 7-Like 1 Protein; Triple Negative Breast Neoplasms; Tumor Microenvironment; Vaccines; Vaccinia; Vaccinia virus; Viral Proteins; Viral Replication Compartments; Virion; Virology; Wnt Signaling Pathway</t>
+          <t>Adipogenesis; Adipose Tissue; Allografts; Antiviral Agents; Artificial Intelligence; Cell Line; Cell Nucleus; Chromatin; DNA; DNA Damage; Deep Learning; Disease Outbreaks; Escherichia coli; Fascia; Human Embryonic Stem Cells; Immunity, Innate; Mass Spectrometry; Membrane Proteins; Morphogenesis; Mpox (monkeypox); Obesity; Phosphoric Monoester Hydrolases; Poxviridae; Protein Binding; Protein C; Proteome; Proteomics; Rodentia; Signal Transduction; Smallpox; Systems Biology; Technology; Transcription Factor 7-Like 1 Protein; Triple Negative Breast Neoplasms; Tumor Microenvironment; Vaccines; Vaccinia; Vaccinia virus; Viral Replication Compartments; Virion; Virology; Wnt Signaling Pathway</t>
         </is>
       </c>
     </row>
@@ -873,7 +869,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adaptive Immunity; Aging; Algorithms; Allergy and Immunology; Alzheimer Disease; Amino Acid Sequence; Amino Acids; Amyloid; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Amyloidogenic Proteins; Antibodies; Antibodies, Monoclonal; Antibody Specificity; Bacteriophages; Binding Sites; Brain; Brain-Derived Neurotrophic Factor; CA1 Region, Hippocampal; Calcium; Cognition; Communicable Diseases; Congo Red; Crystallography, X-Ray; Energy Metabolism; Epitope Mapping; Epitopes; Glutathione; High-Throughput Nucleotide Sequencing; Hypertension; Immunity; Immunity, Innate; Immunotherapy; Indicators and Reagents; Infant; Microglia; Microtomy; Neurodegenerative Diseases; Neurofibrillary Tangles; Neurons; PC12 Cells; Peptide Fragments; Peptide Library; Peptides; Phosphatidylinositol-3,4,5-Trisphosphate 5-Phosphatases; Plaque, Amyloid; Pre-Eclampsia; Pregnancy; Protein Aggregates; Protein Array Analysis; Protein Binding; Protein Biosynthesis; Protein Conformation, beta-Strand; Protein Multimerization; Protein Processing, Post-Translational; Proteinuria; Proteostasis; Ribosomes; Serum Amyloid A Protein; Single-Chain Antibodies; Single-Domain Antibodies; Statistics, Nonparametric; Supranuclear Palsy, Progressive; Synucleins; Vaccines; Virulence; tau Proteins</t>
+          <t>Adaptive Immunity; Aging; Algorithms; Allergy and Immunology; Alzheimer Disease; Amino Acids; Amyloid; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Amyloidogenic Proteins; Antibodies; Antibodies, Monoclonal; Antibody Specificity; Bacteriophages; Brain; Brain-Derived Neurotrophic Factor; CA1 Region, Hippocampal; Calcium; Cognition; Communicable Diseases; Congo Red; Energy Metabolism; Epitopes; Glutathione; High-Throughput Nucleotide Sequencing; Hypertension; Immunity; Immunity, Innate; Immunotherapy; Indicators and Reagents; Infant; Microglia; Neurodegenerative Diseases; Neurofibrillary Tangles; Peptides; Phosphatidylinositol-3,4,5-Trisphosphate 5-Phosphatases; Plaque, Amyloid; Pre-Eclampsia; Pregnancy; Protein Conformation, beta-Strand; Proteinuria; Serum Amyloid A Protein; Single-Domain Antibodies; Statistics, Nonparametric; Supranuclear Palsy, Progressive; Synucleins; Vaccines; Virulence; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -885,7 +881,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Algorithms; Anti-Bacterial Agents; Apoproteins; Bacteriophages; Binding Sites; Biochemistry; Cation Transport Proteins; Cobalt; Computer Systems; Conotoxins; Conus Snail; Cryoelectron Microscopy; Crystallography, X-Ray; Deep Learning; Eye; Ferroportin; Gram-Negative Bacterial Infections; Heart; Hepcidins; Homeostasis; Image Processing, Computer-Assisted; Ion Channel Gating; Iron; Kinetics; Membranes; Microscopy; Models, Molecular; Molecular Dynamics Simulation; Molecular Structure; Multiprotein Complexes; NAV1.8 Voltage-Gated Sodium Channel; Negative Staining; Neoplasms; Organometallic Compounds; Peptides; Phage Therapy; Protein Binding; Protein Conformation; Protein Domains; Protein Folding; Proteins; Proteolysis; Single Molecule Imaging; Spider Venoms; Stenotrophomonas maltophilia; Voltage-Gated Sodium Channel Blockers; Wastewater</t>
+          <t>Algorithms; Anti-Bacterial Agents; Bacteriophages; Biochemistry; Conotoxins; Conus Snail; Cryoelectron Microscopy; Deep Learning; Eye; Genomics; Gram-Negative Bacterial Infections; Heart; Image Processing, Computer-Assisted; Ion Channel Gating; Kinetics; Membranes; Microscopy; Models, Molecular; Molecular Structure; Multiprotein Complexes; NAV1.8 Voltage-Gated Sodium Channel; Neoplasms; Peptides; Phage Therapy; Protein Binding; Protein Conformation; Protein Folding; Proteins; Spider Venoms; Stenotrophomonas maltophilia; Voltage-Gated Sodium Channel Blockers; Wastewater</t>
         </is>
       </c>
     </row>
@@ -897,7 +893,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alanine Dehydrogenase; Anti-Bacterial Agents; Arginine; Azides; Bacteria; Bacterial Proteins; Bacteriological Techniques; Biliverdine; Biochemistry; Biotinylation; Bordetella pertussis; Carbon; Carrier Proteins; Catalytic Domain; Cholesterol; Citric Acid Cycle; Coculture Techniques; Communicable Diseases; Cryoelectron Microscopy; Deoxyuridine; Disulfides; Drug Discovery; Electrons; Enterobacter cloacae; Enzyme Inhibitors; Escherichia coli; Escherichia coli Proteins; Eukaryotic Cells; Glycation End Products, Advanced; Glycerol; Glyoxylates; HEK293 Cells; HeLa Cells; Hemagglutinins; Heme; Heme Oxygenase (Decyclizing); Hemoglobins; Histidine Kinase; Infant; Infant, Newborn; Iron; Isotope Labeling; Kinetics; Latent Tuberculosis; Ligands; Lipid Metabolism; Lysine; Mass Spectrometry; Membrane Proteins; Metabolic Networks and Pathways; Molecular Biology; Molecular Dynamics Simulation; Molecular Structure; Mutagenesis, Site-Directed; Mycobacteriaceae; Mycobacterium tuberculosis; NIH 3T3 Cells; Nucleoside-Phosphate Kinase; Nucleosides; Nutrients; Pandemics; Pertussis Vaccine; Phenotype; Protein Domains; Protein Interaction Mapping; Protein Processing, Post-Translational; Protein Sorting Signals; Proteins; Proteolysis; Pyruvaldehyde; RNA; RNA, Small Interfering; Siderophores; Tomography, X-Ray Computed; Toxins, Biological; Tuberculosis; Uracil; Uridine; Uridine Kinase; Vaccination; Virulence; Virulence Factors; Whooping Cough</t>
+          <t>Alanine Dehydrogenase; Anti-Bacterial Agents; Arginine; Bacteria; Bacterial Proteins; Biliverdine; Biochemistry; Bordetella pertussis; Carrier Proteins; Communicable Diseases; Cryoelectron Microscopy; Disulfides; Drug Discovery; Electrons; Enterobacter cloacae; Enzyme Inhibitors; Escherichia coli; Escherichia coli Proteins; Eukaryotic Cells; Glycation End Products, Advanced; Hemagglutinins; Heme; Heme Oxygenase (Decyclizing); Hemoglobins; Histidine Kinase; Infant; Infant, Newborn; Iron; Latent Tuberculosis; Ligands; Lysine; Mass Spectrometry; Membrane Proteins; Molecular Biology; Molecular Structure; Mycobacteriaceae; Mycobacterium tuberculosis; Nucleosides; Nutrients; Pandemics; Pertussis Vaccine; Protein Interaction Mapping; Protein Processing, Post-Translational; Protein Sorting Signals; Proteins; Proteolysis; Pyruvaldehyde; Siderophores; Tomography, X-Ray Computed; Toxins, Biological; Tuberculosis; Vaccination; Virulence; Virulence Factors; Whooping Cough; nan</t>
         </is>
       </c>
     </row>
@@ -909,7 +905,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ATP-Binding Cassette Transporters; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Astrocytes; Biomarkers; Bone Marrow; Brain; Brain Neoplasms; Breast Neoplasms; COVID-19; Cell Communication; Cell Nucleus; Cell Proliferation; Central Nervous System Diseases; Cognition; Coronavirus Infections; Cystatins; Demyelinating Diseases; Dendrimers; Disease Progression; Double-Blind Method; Down Syndrome; Gastrointestinal Microbiome; Gene Expression; Gene Expression Profiling; Gene Knock-In Techniques; Gene Regulatory Networks; Genes, fms; Genetic Variation; Genotype; Homeostasis; Immunotherapy; Macrophage Colony-Stimulating Factor; Macrophages; Membrane Glycoproteins; Metabolomics; Microbiota; Microglia; Monocytes; Murine hepatitis virus; Mutation; Mutation, Missense; Myeloid Cells; NLR Family, Pyrin Domain-Containing 3 Protein; Nerve Degeneration; Nerve Regeneration; Neurites; Neuroglia; Neuroinflammatory Diseases; Neurons; Niacinamide; Pandemics; Phagocytosis; Phosphorylation; Plaque, Amyloid; Proof of Concept Study; Receptors, Granulocyte-Macrophage Colony-Stimulating Factor; Receptors, Immunologic; Remyelination; Resilience, Psychological; Risk Factors; SARS-CoV-2; Sex Characteristics; Single-Cell Analysis; Synapses; Tauopathies; Transcriptome; Treatment Outcome; Trimethoprim; Vitamin B Complex; White Matter; tau Proteins</t>
+          <t>ATP-Binding Cassette Transporters; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Astrocytes; Biomarkers; Bone Marrow; Brain; Brain Neoplasms; Brain-Derived Neurotrophic Factor; Breast Neoplasms; COVID-19; Cell Communication; Cell Nucleus; Cell Proliferation; Central Nervous System Diseases; Cognition; Coronavirus Infections; Cystatins; Demyelinating Diseases; Dendrimers; Disease Progression; Double-Blind Method; Down Syndrome; Gastrointestinal Microbiome; Gene Expression; Gene Expression Profiling; Gene Knock-In Techniques; Gene Regulatory Networks; Genes, fms; Genetic Variation; Genotype; Homeostasis; Immunotherapy; Integrases; Macrophage Colony-Stimulating Factor; Macrophages; Membrane Glycoproteins; Metabolomics; Microbiota; Microglia; Monocytes; Murine hepatitis virus; Mutation; Mutation, Missense; Myeloid Cells; NLR Family, Pyrin Domain-Containing 3 Protein; Nerve Degeneration; Nerve Regeneration; Neurites; Neuroglia; Neuroinflammatory Diseases; Neurons; Niacinamide; Pandemics; Phagocytosis; Phosphorylation; Plaque, Amyloid; Proof of Concept Study; Receptor, trkB; Receptors, Granulocyte-Macrophage Colony-Stimulating Factor; Receptors, Immunologic; Remyelination; Resilience, Psychological; Risk Factors; SARS-CoV-2; Sex Characteristics; Single-Cell Analysis; Synapses; Tauopathies; Transcriptome; Treatment Outcome; Trimethoprim; Vitamin B Complex; White Matter; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -921,7 +917,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Administration, Intravenous; Adolescent; Aged, 80 and over; Alleles; Antifungal Agents; Apoptosis; Ascorbate Peroxidases; B7-H1 Antigen; Bias; Binding Sites; Biomarkers, Tumor; COVID-19; Candidemia; Candidiasis, Invasive; Catalysis; Catalytic Domain; Cell Proliferation; Chemistry, Bioinorganic; Child; Child, Preschool; Chloride Peroxidase; Cohort Studies; Communicable Diseases; Coordination Complexes; Crystallography, X-Ray; Cytidine Deaminase; Cytochrome P-450 Enzyme System; Cytochromes; Density Functional Theory; Dioxygenases; Electron Spin Resonance Spectroscopy; Electron Transport; Electrons; Ferric Compounds; Gene Expression Regulation, Neoplastic; Genetic Predisposition to Disease; Genome-Wide Association Study; Genomics; Heme; Hemeproteins; Hydrogen Bonding; Hydroxides; Infant; Infectious Disease Medicine; Iron; Iron Compounds; Lewis Acids; Ligands; Logistic Models; Magnetic Resonance Spectroscopy; Metalloproteins; Metals; Mitogen-Activated Protein Kinase 8; Models, Molecular; Molecular Conformation; Molecular Structure; Neoplasms; Nitrogenase; Nonheme Iron Proteins; Oxidation-Reduction; Oxides; Oxygen; Polymorphism, Single Nucleotide; Prognosis; Proteins; Proto-Oncogene Proteins c-jun; Protons; RNA, Messenger; Risk Factors; SARS-CoV-2; Schizophrenia; Serine; Spectrum Analysis, Raman; Thermodynamics; Treatment Outcome; Triazoles; Tumor Cells, Cultured; Vaccination; X-Ray Absorption Spectroscopy</t>
+          <t>Administration, Intravenous; Adolescent; Aged, 80 and over; Alleles; Antifungal Agents; Bias; Candidemia; Candidiasis, Invasive; Catalysis; Catalytic Domain; Chemistry, Bioinorganic; Child; Child, Preschool; Chloride Peroxidase; Cohort Studies; Coordination Complexes; Crystallography, X-Ray; Cytochrome P-450 Enzyme System; Cytochromes; Electron Spin Resonance Spectroscopy; Electron Transport; Electrons; Genetic Predisposition to Disease; Genome-Wide Association Study; Genomics; Heme; Hemeproteins; Infant; Iron; Ligands; Logistic Models; Metalloproteins; Metals; Models, Molecular; Nitrogenase; Oxidation-Reduction; Oxygen; Polymorphism, Single Nucleotide; Risk Factors; Schizophrenia; Serine; Spectrum Analysis, Raman; Thermodynamics; Treatment Outcome; Triazoles; X-Ray Absorption Spectroscopy</t>
         </is>
       </c>
     </row>
@@ -933,7 +929,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adenosine Triphosphate; Administration, Oral; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloidogenic Proteins; Antibodies, Monoclonal; Antibodies, Monoclonal, Humanized; Asian; Asian American Native Hawaiian and Pacific Islander; Autopsy; Biomarkers; Brain; California; Caregivers; Centers for Medicare and Medicaid Services, U.S.; Clinical Trials Data Monitoring Committees; Clinical Trials as Topic; Clinical Trials, Phase II as Topic; Cognitive Dysfunction; Cohort Studies; Control Groups; Dementia; Disclosure; Disease Management; Disease Progression; Double-Blind Method; Drug-Related Side Effects and Adverse Reactions; Ethnicity; Exercise; Feasibility Studies; Hispanic or Latino; Insurance Coverage; Intermediate Filaments; Life Style; Longitudinal Studies; Magnetic Resonance Imaging; Medicaid; Medicare; Mental Status and Dementia Tests; Motivation; Niacinamide; Patient Selection; Philippines; Phosphorylation; Positron-Emission Tomography; Prognosis; Proof of Concept Study; Racial Groups; Randomized Controlled Trials as Topic; Registries; Republic of Korea; Research Subjects; Severity of Illness Index; Suicidal Ideation; Suicide; Surveys and Questionnaires; Treatment Outcome; Vitamin B Complex; nan; tau Proteins</t>
+          <t>Adenosine Triphosphate; Administration, Oral; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloidogenic Proteins; Antibodies, Monoclonal; Antibodies, Monoclonal, Humanized; Asian; Asian American Native Hawaiian and Pacific Islander; Autopsy; Biomarkers; Brain; California; Caregivers; Centers for Medicare and Medicaid Services, U.S.; Clinical Trials Data Monitoring Committees; Clinical Trials as Topic; Clinical Trials, Phase II as Topic; Cognitive Dysfunction; Cohort Studies; Control Groups; Dementia; Disclosure; Disease Management; Disease Progression; Double-Blind Method; Ethnicity; Exercise; Feasibility Studies; Hispanic or Latino; Insurance Coverage; Intermediate Filaments; Life Style; Longitudinal Studies; Magnetic Resonance Imaging; Medicaid; Medicare; Mental Status and Dementia Tests; Motivation; Niacinamide; Patient Selection; Philippines; Phosphorylation; Positron-Emission Tomography; Prognosis; Proof of Concept Study; Racial Groups; Randomized Controlled Trials as Topic; Registries; Republic of Korea; Research Subjects; Severity of Illness Index; Suicidal Ideation; Suicide; Surveys and Questionnaires; Treatment Outcome; Vitamin B Complex; nan; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -945,7 +941,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Adenosine Diphosphate; Adjuvants, Immunologic; Adjuvants, Pharmaceutic; Anti-Bacterial Agents; Anti-Infective Agents; Antimicrobial Cationic Peptides; Antimicrobial Peptides; Bacteria; Biological Transport; Biophysical Phenomena; Biophysics; Brain; Cathelicidins; Cell Communication; Chromosome Structures; Chromosomes, Bacterial; Clostridioides; Clostridioides difficile; Computational Biology; Computer Simulation; Cytoskeleton; DNA; DNA, Bacterial; Diffusion; Drug Synergism; Dynactin Complex; Dyneins; Escherichia coli; Fatty Acids; GTP Phosphohydrolases; Glycogen Synthase Kinase 3 beta; HEK293 Cells; Histones; Host-Pathogen Interactions; Immunity, Innate; Kinesins; Kinetics; Lipid Droplets; Lipopolysaccharides; Macrophages; Metronidazole; Microbiota; Microtubule-Associated Proteins; Microtubules; Mitochondria; Molecular Motor Proteins; Motor Neuron Disease; Muscular Atrophy, Spinal; Mutation; Neurodegenerative Diseases; Neurons; Optical Tweezers; Organelles; Parkinson Disease; Polymyxin B; Protein Binding; Protein Conformation; Protein Processing, Post-Translational; Protein Transport; Proteins; Protons; Saccharomyces cerevisiae; Sequence Analysis, RNA; Staphylococcus aureus; Tubulin; Vancomycin; Viscosity</t>
+          <t>Adenosine Diphosphate; Adjuvants, Immunologic; Adjuvants, Pharmaceutic; Anti-Bacterial Agents; Anti-Infective Agents; Antimicrobial Cationic Peptides; Antimicrobial Peptides; Biological Transport; Biophysics; Brain; Cell Communication; Clostridioides; Clostridioides difficile; Computational Biology; Computer Simulation; Cytoskeleton; DNA; Diffusion; Dynactin Complex; Dyneins; Glycogen Synthase Kinase 3 beta; Histones; Kinesins; Kinetics; Lipid Droplets; Metronidazole; Microbiota; Microtubule-Associated Proteins; Microtubules; Molecular Motor Proteins; Motor Neuron Disease; Muscular Atrophy, Spinal; Mutation; Neurodegenerative Diseases; Neurons; Optical Tweezers; Organelles; Parkinson Disease; Protein Binding; Protein Conformation; Protein Processing, Post-Translational; Proteins; Saccharomyces cerevisiae; Tubulin; Vancomycin</t>
         </is>
       </c>
     </row>
@@ -981,7 +977,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Adenosine Triphosphate; Aldehyde Oxidoreductases; Ammonia; Anaerobiosis; Archaeal Proteins; Azotobacter vinelandii; Bacterial Proteins; Biocatalysis; Bioreactors; Biosynthetic Pathways; Biotechnology; Carbon Dioxide; Carbon Monoxide; Catalysis; Chemistry, Bioinorganic; Circular Dichroism; Coenzymes; Crystallography, X-Ray; Density Functional Theory; Ecosystem; Electron Spin Resonance Spectroscopy; Electrons; Enzymes; Escherichia coli; Evolution, Molecular; Formate Dehydrogenases; Gene Expression; Hydrocarbons; Hydrogen; Hydrogenase; Iron-Sulfur Proteins; Metalloproteins; Methanosarcina; Methyltransferases; Models, Chemical; Models, Molecular; Molecular Structure; Molybdenum; Molybdoferredoxin; Multienzyme Complexes; Nitrogen; Nitrogen Cycle; Nitrogen Fixation; Nitrogenase; Oxidation-Reduction; Oxidoreductases; Oxygen; Phylogeny; Protein Binding; Protein Conformation; Recombinant Proteins; Rotation; S-Adenosylmethionine; Selenious Acid; Sulfur; Technology; Tellurium; X-Ray Absorption Spectroscopy</t>
+          <t>Adenosine Triphosphate; Aldehyde Oxidoreductases; Ammonia; Anaerobiosis; Azotobacter vinelandii; Bacterial Proteins; Biocatalysis; Bioreactors; Biosynthetic Pathways; Biotechnology; Carbon Dioxide; Carbon Monoxide; Catalysis; Chemistry, Bioinorganic; Ecosystem; Electrons; Enzymes; Escherichia coli; Evolution, Molecular; Formate Dehydrogenases; Gene Expression; Hydrocarbons; Hydrogen; Hydrogenase; Iron-Sulfur Proteins; Metalloproteins; Methyltransferases; Models, Molecular; Molybdenum; Molybdoferredoxin; Multienzyme Complexes; Nitrogen; Nitrogen Cycle; Nitrogen Fixation; Nitrogenase; Oxidation-Reduction; Oxidoreductases; Oxygen; Phylogeny; Recombinant Proteins; Rotation; S-Adenosylmethionine; Sulfur; Technology</t>
         </is>
       </c>
     </row>
@@ -993,7 +989,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Adipogenesis; Adipose Tissue; Allografts; Alzheimer Disease; Anemia; Angiogenesis; Anxiety; Apolipoprotein E2; Apolipoprotein E4; Arteries; Arteriovenous Malformations; Astrocytes; Basement Membrane; Bayes Theorem; Biomarkers, Tumor; Biomimetics; Blood Vessels; Blood-Brain Barrier; Brain; Breast; Capillaries; Cell Line, Tumor; Cell- and Tissue-Based Therapy; Clustered Regularly Interspaced Short Palindromic Repeats; Coculture Techniques; Colonic Neoplasms; Colorectal Neoplasms; Cytoreduction Surgical Procedures; Diabetes Mellitus; Drug Development; Drug Evaluation; Drug Interactions; Drug Repositioning; Endoglin; Endothelial Cells; Endothelium, Vascular; Epistaxis; Exosomes; Extracellular Matrix; Fascia; Fibroblasts; Fluorouracil; Gene Expression; Glucose; Heart Failure; Huntington Disease; Hyperthermia, Induced; Hyperthermic Intraperitoneal Chemotherapy; Immunotherapy; Immunotherapy, Adoptive; Incidence; Induced Pluripotent Stem Cells; Infant; Insulin; Islets of Langerhans; Islets of Langerhans Transplantation; Lab-On-A-Chip Devices; Leucovorin; Liver; Lung; Microfluidics; Microglia; Microphysiological Systems; Microvessels; Mutation; Myocytes, Smooth Muscle; Neoadjuvant Therapy; Neoplasms; Neoplastic Processes; Neovascularization, Pathologic; Neurons; Obesity; Oxaliplatin; Paclitaxel; Pancreas; Pancreatic Neoplasms; Patient Advocacy; Pazopanib; Peptides; Pericytes; Peritoneal Cavity; Peritoneal Neoplasms; Peritoneum; Phenotype; Port-Wine Stain; Prospective Studies; RNA; Rare Diseases; Rodentia; Signal Transduction; Single-Cell Gene Expression Analysis; Snail Family Transcription Factors; Splenic Neoplasms; Stomach Neoplasms; Stroke; Stromal Cells; Sturge-Weber Syndrome; Survival Rate; Telangiectasia, Hereditary Hemorrhagic; Thrombosis; Tight Junctions; Tissue Engineering; Transcription Factors; Transcriptome; Transcytosis; Triple Negative Breast Neoplasms; Tumor Microenvironment; Vascular Malformations; cdc42 GTP-Binding Protein; peptide I; rho GTP-Binding Proteins</t>
+          <t>Adipogenesis; Adipose Tissue; Allografts; Alzheimer Disease; Anemia; Angiogenesis; Anxiety; Apolipoprotein E2; Apolipoprotein E4; Arteries; Arteriovenous Malformations; Astrocytes; Basement Membrane; Bayes Theorem; Biomarkers, Tumor; Biomimetics; Blood Vessels; Blood-Brain Barrier; Brain; Breast; Capillaries; Cell Line, Tumor; Cell- and Tissue-Based Therapy; Clustered Regularly Interspaced Short Palindromic Repeats; Coculture Techniques; Colonic Neoplasms; Colorectal Neoplasms; Cytoreduction Surgical Procedures; Diabetes Mellitus; Drug Development; Drug Evaluation; Drug Interactions; Drug Repositioning; Endoglin; Endothelial Cells; Endothelium, Vascular; Epistaxis; Exosomes; Extracellular Matrix; Fascia; Fibroblasts; Fluorouracil; Gene Expression; Glucose; Heart Failure; Huntington Disease; Hyperthermia, Induced; Hyperthermic Intraperitoneal Chemotherapy; Immunotherapy; Immunotherapy, Adoptive; Incidence; Induced Pluripotent Stem Cells; Infant; Insulin; Islets of Langerhans; Islets of Langerhans Transplantation; Lab-On-A-Chip Devices; Leucovorin; Liver; Lung; Microfluidics; Microglia; Microphysiological Systems; Microvessels; Mutation; Myocytes, Smooth Muscle; Neoadjuvant Therapy; Neoplasms; Neoplastic Processes; Neovascularization, Pathologic; Neurons; Obesity; Oxaliplatin; Paclitaxel; Pancreas; Pancreatic Neoplasms; Patient Advocacy; Pazopanib; Peptides; Pericytes; Peritoneal Cavity; Peritoneal Neoplasms; Peritoneum; Phenotype; Port-Wine Stain; Prospective Studies; RNA; Rare Diseases; Rodentia; Signal Transduction; Single-Cell Gene Expression Analysis; Snail Family Transcription Factors; Splenic Neoplasms; Stomach Neoplasms; Stroke; Stromal Cells; Sturge-Weber Syndrome; Survival Rate; Telangiectasia, Hereditary Hemorrhagic; Thrombosis; Tight Junctions; Tissue Engineering; Transcription Factors; Transcriptome; Transcytosis; Triple Negative Breast Neoplasms; Tumor Microenvironment; Vascular Malformations; cdc42 GTP-Binding Protein; nan; peptide I; rho GTP-Binding Proteins</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1001,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Atmospheric Pressure; Biodiversity; Biomass; Carbon; Climate Change; Climate Models; Desert Climate; Droughts; Ecological and Environmental Phenomena; Ecology; Ecosystem; Fertilizers; Grassland; Groundwater; Health Surveys; Humidity; Hydrology; Museums; Nitrogen; Nutrients; Phosphorus; Photosynthesis; Physiology, Comparative; Plants; Poaceae; Rain; Rainforest; Remote Sensing Technology; Soil; Temperature; Trees; Tropical Climate; Volunteers; Water; Water Resources; Water Supply; Wind</t>
+          <t>Biodiversity; Biomass; Carbon; Climate Change; Desert Climate; Ecological and Environmental Phenomena; Ecology; Ecosystem; Fertilizers; Grassland; Groundwater; Health Surveys; Humidity; Hydrology; Museums; Nitrogen; Nutrients; Phosphorus; Physiology, Comparative; Plants; Rain; Remote Sensing Technology; Soil; Temperature; Volunteers; Water; Water Resources; Water Supply; Wind</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1013,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Allografts; Anemia, Aplastic; Apoptosis; Blood Component Removal; Bone Marrow; Bone Marrow Transplantation; Brain; CD4-Positive T-Lymphocytes; COVID-19 Nucleic Acid Testing; Coronavirus Infections; Cyclophosphamide; Cytokines; Drug Combinations; Fetal Blood; Flow Cytometry; Fluticasone; Glucocorticoids; Graft vs Host Disease; HLA Antigens; Hematologic Neoplasms; Hematopoietic Stem Cell Transplantation; Hematopoietic Stem Cells; Heterografts; Homeostasis; Immunity; Immunophenotyping; Immunosuppression Therapy; Immunosuppressive Agents; Incidence; Infertility; Inflammation; Interleukin-2; Lateral Ventricles; Leptospiraceae; Leukocytes, Mononuclear; Macrophages; Magnetic Phenomena; Major Histocompatibility Complex; Microglia; Molecular Diagnostic Techniques; Myeloid Cells; Neoplasms; Nucleic Acid Amplification Techniques; Parents; Patient Care; Pharmaceutical Preparations; Prednisolone; Proto-Oncogene Proteins c-bcl-2; Real-Time Polymerase Chain Reaction; Receptors, Granulocyte-Macrophage Colony-Stimulating Factor; Regenerative Medicine; SARS-CoV-2; Saliva; Siblings; Specimen Handling; Stem Cells; Survival Rate; Systemic Inflammatory Response Syndrome; T-Lymphocytes; T-Lymphocytes, Regulatory; Tissue Donors; Transplantation Conditioning; Transplantation, Haploidentical; Transplantation, Heterologous; Transplantation, Homologous; White Matter; venetoclax</t>
+          <t>Allografts; Anemia, Aplastic; Apoptosis; Blood Component Removal; Bone Marrow; Bone Marrow Transplantation; Brain; CD4-Positive T-Lymphocytes; COVID-19 Nucleic Acid Testing; Coronavirus Infections; Cyclophosphamide; Cytokines; Drug Combinations; Fetal Blood; Flow Cytometry; Fluticasone; Glucocorticoids; Graft vs Host Disease; HLA Antigens; Hematologic Neoplasms; Hematopoietic Stem Cell Transplantation; Hematopoietic Stem Cells; Heterografts; Immunity; Immunophenotyping; Immunosuppression Therapy; Immunosuppressive Agents; Incidence; Infertility; Interleukin-2; Leptospiraceae; Leukocytes, Mononuclear; Macrophages; Magnetic Phenomena; Major Histocompatibility Complex; Microglia; Molecular Diagnostic Techniques; Neoplasms; Nucleic Acid Amplification Techniques; Parents; Patient Care; Pharmaceutical Preparations; Prednisolone; Proto-Oncogene Proteins c-bcl-2; Real-Time Polymerase Chain Reaction; Regenerative Medicine; SARS-CoV-2; Saliva; Siblings; Specimen Handling; Stem Cells; Survival Rate; Systemic Inflammatory Response Syndrome; T-Lymphocytes; T-Lymphocytes, Regulatory; Tissue Donors; Transplantation Conditioning; Transplantation, Haploidentical; Transplantation, Heterologous; Transplantation, Homologous; venetoclax</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1037,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Adrenergic beta-Antagonists; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloidosis; Amyotrophic Lateral Sclerosis; Angiotensin-Converting Enzyme Inhibitors; Aniline Compounds; Apolipoproteins E; Atrophy; Autopsy; Biomarkers; Brain; Case-Control Studies; Cataract; Cell Separation; Centenarians; Cerebral Cortex; Cerebrovascular Circulation; Cerebrovascular Disorders; Clinical Trials as Topic; Cognition; Cognitive Dysfunction; Cohort Studies; Cryopreservation; DNA-Binding Proteins; Databases, Factual; Dementia; Dementia, Vascular; Disease Progression; Educational Status; Epidemiology; Ethnicity; Ethylene Glycols; Executive Function; Extracellular Vesicles; Frailty; Frontotemporal Lobar Degeneration; Geriatric Assessment; Hand Strength; Hippocampal Sclerosis; Hippocampus; Incidence; Lewy Bodies; Lewy Body Disease; Life Style; Limbic System; Logistic Models; Longitudinal Studies; Magnetic Resonance Imaging; Medical History Taking; Nervous System Diseases; Neurofibrillary Tangles; Neuroglia; Neuroimaging; Neurons; Neuropathology; Neuropsychological Tests; Nonagenarians; Organ Size; Physical Functional Performance; Plaque, Amyloid; Positron-Emission Tomography; Public Health; RNA-Seq; Racial Groups; Reference Values; Resilience, Psychological; Retrospective Studies; Risk Factors; Self Report; Self-Help Devices; Sex Factors; Sleep; Sleep Duration; Syncope; TDP-43 Proteinopathies; Tauopathies; Walking Speed; White Matter</t>
+          <t>Adrenergic beta-Antagonists; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloidosis; Amyotrophic Lateral Sclerosis; Angiotensin-Converting Enzyme Inhibitors; Aniline Compounds; Apolipoproteins E; Atrophy; Autopsy; Biomarkers; Brain; Case-Control Studies; Cataract; Cell Separation; Centenarians; Cerebral Cortex; Cerebrovascular Circulation; Cerebrovascular Disorders; Clinical Trials as Topic; Cognition; Cognitive Dysfunction; Cohort Studies; Cryopreservation; DNA-Binding Proteins; Databases, Factual; Dementia; Dementia, Vascular; Diagnosis, Differential; Disease Progression; Educational Status; Epidemiology; Ethnicity; Ethylene Glycols; Executive Function; Extracellular Vesicles; Frailty; Frontotemporal Lobar Degeneration; Geriatric Assessment; Hand Strength; Hippocampal Sclerosis; Hippocampus; Incidence; Inclusion Bodies; Lewy Bodies; Lewy Body Disease; Life Style; Limbic System; Logistic Models; Longitudinal Studies; Magnetic Resonance Imaging; Medical History Taking; Nervous System Diseases; Neurofibrillary Tangles; Neuroglia; Neuroimaging; Neurons; Neuropathology; Neuropsychological Tests; Nonagenarians; Organ Size; Physical Functional Performance; Plaque, Amyloid; Positron-Emission Tomography; Public Health; RNA-Seq; Racial Groups; Reference Values; Resilience, Psychological; Retrospective Studies; Risk Factors; Self Report; Self-Help Devices; Sex Factors; Sleep; Sleep Duration; Syncope; TDP-43 Proteinopathies; Tauopathies; Walking Speed; White Matter</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1047,7 @@
           <t>Kim, Seungsoo</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Adenosine; Base Sequence; Cell Cycle Proteins; Cell Line, Tumor; Cell Proliferation; Eukaryotic Initiation Factors; HEK293 Cells; Mechanistic Target of Rapamycin Complex 1; Protein Biosynthesis; Proto-Oncogene Proteins c-myc; RNA Splicing Factors; RNA Stability; RNA, Messenger; Ribosomal Protein S6 Kinases; Signal Transduction</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1065,7 +1057,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMP-Activated Protein Kinases; Abdominal Cavity; Adenocarcinoma; Adenocarcinoma, Mucinous; Adenomatous Polyposis Coli; Adipocytes; Adipogenesis; Adolescent; Allografts; Antineoplastic Agents; Appendectomy; Appendiceal Neoplasms; Ascitic Fluid; Biological Products; Breast Neoplasms; Cachexia; Carcinogenesis; Carcinoma; Catalytic Domain; Cell Cycle; Cell Differentiation; Cell Line; Cell Line, Tumor; Cell Plasticity; Cell Proliferation; Chemistry, Pharmaceutical; Chromatin; Chromatography, Liquid; Clinical Relevance; Colonic Neoplasms; Colorectal Neoplasms; Cost of Illness; Cytokines; Cytoreduction Surgical Procedures; DNA; Diabetes Mellitus; Diabetes Mellitus, Type 2; Diet, High-Fat; Diet, Ketogenic; Dietary Supplements; Dioxygenases; Drug Resistance, Neoplasm; Early Detection of Cancer; Energy Metabolism; Epigenesis, Genetic; Epigenomics; Ficus; Gastrointestinal Neoplasms; Gene Expression; Gene Expression Regulation, Neoplastic; Genes, Tumor Suppressor; Genes, p16; Genetics; Glucose; Glutamine; Heterografts; High-Throughput Screening Assays; Histone Code; Histone Demethylases; Histone Methyltransferases; Histones; Homeostasis; Hospitalization; Hyperthermic Intraperitoneal Chemotherapy; Immunity; Immunotherapy; Incidence; Intestinal Mucosa; Isotopes; Ketoglutaric Acids; Ketone Bodies; Ketones; Lactic Acid; Lipid Metabolism; Lipids; Lipogenesis; Liquid Chromatography-Mass Spectrometry; Liver Neoplasms; Lubricants; Lysine; Melanoma; Mesenchymal Stem Cells; Metabolic Diseases; Metabolic Networks and Pathways; Metabolism; Metformin; Methylation; Mice, Inbred NOD; Mice, Nude; Mice, SCID; Micronutrients; Microscopy; Military Personnel; Mitochondria; Monocarboxylic Acid Transporters; Morbidity; Muscles; Mutation; National Center for Advancing Translational Sciences (U.S.); Neoplasm Metastasis; Neoplasms; Neoplasms, Second Primary; Neoplastic Processes; Neoplastic Stem Cells; Nutrients; Obesity; Organoids; Ovarian Neoplasms; Oxidative Phosphorylation; PPAR gamma; Peptide Hydrolases; Peritoneal Cavity; Peritoneal Neoplasms; Peritoneum; Peroxisome Proliferator-Activated Receptors; Phenotype; Phosphoprotein Phosphatases; Phosphoric Monoester Hydrolases; Phosphorylation; Pilot Projects; Pioglitazone; Prevalence; Prostatic Neoplasms; Protein Phosphatase 2; Protein Serine-Threonine Kinases; Proteolysis; Pseudomyxoma Peritonei; Pyruvic Acid; Quality of Life; RNA; RNA, Long Noncoding; Rectal Neoplasms; Risk Factors; Sequence Analysis, RNA; Sex Characteristics; Sex Chromosomes; Signal Transduction; Single-Cell Analysis; Standard of Care; Stem Cells; Substrate Specificity; T-Lymphocytes; TWEAK Receptor; Tandem Mass Spectrometry; Thiazolidinediones; Transcription Factors; Transcription, Genetic; Transcriptome; Tumor Microenvironment; Vitamin A; Vitamin B 6; Vitamins; Weight Loss; Wnt Signaling Pathway; Xenograft Model Antitumor Assays</t>
+          <t>AMP-Activated Protein Kinases; Abdominal Cavity; Adenocarcinoma; Adenocarcinoma, Mucinous; Adenomatous Polyposis Coli; Adolescent; Allografts; Antineoplastic Agents; Appendectomy; Appendiceal Neoplasms; Ascitic Fluid; Biological Products; Cachexia; Carcinogenesis; Carcinoma; Catalytic Domain; Cell Cycle; Cell Differentiation; Cell Line; Cell Line, Tumor; Cell Plasticity; Cell Proliferation; Chemistry, Pharmaceutical; Chromatin; Chromatography, Liquid; Clinical Relevance; Colonic Neoplasms; Colorectal Neoplasms; Cost of Illness; Cytokines; Cytoreduction Surgical Procedures; DNA; Diabetes Mellitus; Diabetes Mellitus, Type 2; Diet, High-Fat; Diet, Ketogenic; Dietary Supplements; Dioxygenases; Drug Resistance, Neoplasm; Early Detection of Cancer; Epigenesis, Genetic; Epigenomics; Ficus; Gastrointestinal Neoplasms; Gene Expression; Gene Expression Regulation, Neoplastic; Genes, Tumor Suppressor; Genes, p16; Genetics; Glucose; Glutamine; Heterografts; High-Throughput Screening Assays; Histone Code; Histone Demethylases; Histone Methyltransferases; Histones; Homeostasis; Hospitalization; Hyperthermic Intraperitoneal Chemotherapy; Immunity; Immunotherapy; Incidence; Intestinal Mucosa; Isotopes; Ketoglutaric Acids; Ketone Bodies; Ketones; Lactic Acid; Lipid Metabolism; Lipids; Lipogenesis; Liquid Chromatography-Mass Spectrometry; Liver Neoplasms; Lubricants; Melanoma; Metabolic Diseases; Metabolic Networks and Pathways; Metabolism; Metformin; Micronutrients; Microscopy; Military Personnel; Monocarboxylic Acid Transporters; Morbidity; Muscles; Mutation; National Center for Advancing Translational Sciences (U.S.); Neoplasms; Neoplasms, Second Primary; Neoplastic Processes; Neoplastic Stem Cells; Nutrients; Obesity; Organoids; Ovarian Neoplasms; Oxidative Phosphorylation; PPAR gamma; Peptide Hydrolases; Peritoneal Cavity; Peritoneal Neoplasms; Peritoneum; Peroxisome Proliferator-Activated Receptors; Phenotype; Phosphoprotein Phosphatases; Phosphoric Monoester Hydrolases; Phosphorylation; Pilot Projects; Pioglitazone; Prevalence; Prostatic Neoplasms; Protein Phosphatase 2; Protein Serine-Threonine Kinases; Proteolysis; Pseudomyxoma Peritonei; Pyruvic Acid; Quality of Life; RNA; RNA, Long Noncoding; Rectal Neoplasms; Risk Factors; Sequence Analysis, RNA; Sex Characteristics; Sex Chromosomes; Signal Transduction; Standard of Care; Stem Cells; Substrate Specificity; T-Lymphocytes; TWEAK Receptor; Tandem Mass Spectrometry; Thiazolidinediones; Transcription Factors; Tumor Microenvironment; Vitamin A; Vitamin B 6; Vitamins; Weight Loss; Wnt Signaling Pathway; nan</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1077,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Africa; Alleles; Animal Fins; Australia; Autism Spectrum Disorder; Autistic Disorder; Base Sequence; Brain; Brain Neoplasms; CCCTC-Binding Factor; CRISPR-Cas Systems; Cell Culture Techniques; Cell Cycle Proteins; Chromatin; Chromosomal Proteins, Non-Histone; Chromosomes; Chromosomes, Human, Pair 8; Clinical Relevance; Clustered Regularly Interspaced Short Palindromic Repeats; Cohesins; Congenital Abnormalities; Conserved Sequence; Craniofacial Abnormalities; DNA Transposable Elements; DNA, Intergenic; Drosophila melanogaster; Ectopic Gene Expression; Embryo, Mammalian; Enhancer Elements, Genetic; Epigenome; Epigenomics; Evolution, Molecular; Extinction, Biological; Extremities; Fetal Heart; Fishes; Gain of Function Mutation; Gene Editing; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Rearrangement; Gene Regulatory Networks; Gene Transfer Techniques; Genes, Reporter; Genetic Variation; Genome; Genome Size; Genomics; Glioma; Heart Diseases; Hedgehog Proteins; Homeodomain Proteins; Intellectual Disability; Introns; Isocitrate Dehydrogenase; Karyotype; Limb Buds; Locomotion; Marsupialia; MicroRNAs; Mutagenesis, Site-Directed; Mutation; Organoids; Otx Transcription Factors; Phenotype; Phylogeny; Piwi-Interacting RNA; Polydactyly; Polymorphism, Single Nucleotide; Promoter Regions, Genetic; RNA, Long Noncoding; Regulatory Sequences, Nucleic Acid; Single-Cell Analysis; South America; Time Factors; Transcription Factors; Transcriptional Activation; Virulence; Zinc Fingers</t>
+          <t>Africa; Alleles; Animal Fins; Australia; Autism Spectrum Disorder; Autistic Disorder; Base Sequence; Brain; Brain Neoplasms; CCCTC-Binding Factor; CRISPR-Cas Systems; Cell Culture Techniques; Cell Cycle Proteins; Chromatin; Chromosomal Proteins, Non-Histone; Chromosomes; Chromosomes, Human, Pair 8; Clinical Relevance; Cohesins; Congenital Abnormalities; Craniofacial Abnormalities; DNA Transposable Elements; DNA, Intergenic; Ectopic Gene Expression; Enhancer Elements, Genetic; Epigenome; Epigenomics; Evolution, Molecular; Extinction, Biological; Extremities; Fetal Heart; Fishes; Gain of Function Mutation; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Rearrangement; Genes, Reporter; Genetic Variation; Genome; Genome Size; Genomics; Glioma; Heart Diseases; Hedgehog Proteins; Homeodomain Proteins; Intellectual Disability; Introns; Isocitrate Dehydrogenase; Karyotype; Limb Buds; Locomotion; Marsupialia; MicroRNAs; Mutation; Organoids; Otx Transcription Factors; Phenotype; Phylogeny; Piwi-Interacting RNA; Polydactyly; Polymorphism, Single Nucleotide; Promoter Regions, Genetic; RNA, Long Noncoding; Regulatory Sequences, Nucleic Acid; Single-Cell Analysis; South America; Time Factors; Transcription Factors; Transcriptional Activation; Virulence; Zinc Fingers</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1089,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ATP-Binding Cassette Transporters; Aged; Aged, 80 and over; Alzheimer Disease; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Asian; Astrocytes; Behavior, Animal; Biomarkers; Brain; CRISPR-Associated Proteins; CRISPR-Cas Systems; Calcium; Cathepsin D; Chromatin Immunoprecipitation Sequencing; Clustered Regularly Interspaced Short Palindromic Repeats; Cognition; Cognition Disorders; Cognitive Dysfunction; Cuprizone; Data Management; Demyelinating Diseases; Disease Progression; Down Syndrome; Down-Regulation; Doxycycline; Endoribonucleases; Fibroblasts; Gastrointestinal Microbiome; Gene Editing; Gene Expression Profiling; Gene Expression Regulation; Gene Knock-In Techniques; Genetic Variation; Genome-Wide Association Study; Genotype; Glial Fibrillary Acidic Protein; HEK293 Cells; Hippocampus; Hispanic or Latino; Induced Pluripotent Stem Cells; Laboratories; Leadership; Lipidomics; Long-Term Potentiation; Longevity; Membrane Glycoproteins; Metabolome; Metabolomics; Microbiota; Microglia; Mobile Applications; Mutation; Myeloid Differentiation Factor 88; NF-kappa B; Neurodegenerative Diseases; Neuroglia; Neuroimaging; Neurons; Phagocytosis; Phenotype; Plaque, Amyloid; Proteomics; RNA Splicing; RNA-Seq; Receptors, Immunologic; Registries; Resilience, Psychological; Response Elements; Rodentia; Sex Characteristics; Signal Transduction; Single-Cell Gene Expression Analysis; Synapses; Synaptic Transmission; Tauopathies; Tetracycline; Transcriptome; Translational Research, Biomedical; tau Proteins</t>
+          <t>ATP-Binding Cassette Transporters; Aged; Aged, 80 and over; Alzheimer Disease; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Asian; Astrocytes; Biomarkers; Brain; CRISPR-Associated Proteins; CRISPR-Cas Systems; Cathepsin D; Chromatin Immunoprecipitation Sequencing; Clustered Regularly Interspaced Short Palindromic Repeats; Cognition; Cuprizone; Data Management; Demyelinating Diseases; Disease Progression; Down Syndrome; Down-Regulation; Doxycycline; Endoribonucleases; Fibroblasts; Gastrointestinal Microbiome; Gene Editing; Gene Expression Profiling; Gene Expression Regulation; Gene Knock-In Techniques; Genetic Variation; Genome-Wide Association Study; Genotype; Glial Fibrillary Acidic Protein; HEK293 Cells; Hispanic or Latino; Induced Pluripotent Stem Cells; Laboratories; Leadership; Lipidomics; Longevity; Membrane Glycoproteins; Metabolome; Metabolomics; Microbiota; Microglia; Mobile Applications; Mutation; Myeloid Differentiation Factor 88; NF-kappa B; Neurodegenerative Diseases; Neuroglia; Neuroimaging; Neurons; Phagocytosis; Phenotype; Plaque, Amyloid; Proteomics; RNA Splicing; RNA-Seq; Receptors, Immunologic; Registries; Resilience, Psychological; Response Elements; Rodentia; Sex Characteristics; Signal Transduction; Single-Cell Gene Expression Analysis; Tauopathies; Tetracycline; Transcriptome; Translational Research, Biomedical; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1101,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Acclimatization; Aquaculture; Behavioral Sciences; Biodiversity; Cities; Conservation of Natural Resources; Disease Outbreaks; Ecological and Environmental Phenomena; Ecosystem; Environmental Microbiology; Environmental Monitoring; Environmental Science; Food Contamination; Germ Cells, Plant; Hot Temperature; Housing; Indonesia; Kelp; Macrocystis; Marine Biology; Microbiota; Motivation; Mutation; Myanmar; Oceans and Seas; One Health; Policy; Refugees; Remote Sensing Technology; Reproduction; Seafood; Seawater; Seaweed; Temperature; Urbanization; Water</t>
+          <t>Acclimatization; Aquaculture; Behavioral Sciences; Biodiversity; Cities; Conservation of Natural Resources; Disease Outbreaks; Ecological and Environmental Phenomena; Ecosystem; Environmental Microbiology; Environmental Science; Germ Cells, Plant; Hot Temperature; Housing; Indonesia; Kelp; Macrocystis; Marine Biology; Microbiota; Motivation; Mutation; Oceans and Seas; One Health; Policy; Refugees; Remote Sensing Technology; Reproduction; Seaweed; Temperature; Water</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1113,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aging; Algorithms; Animals, Genetically Modified; Bayes Theorem; Body Patterning; Brain; CHO Cells; Cartilage; Cell Communication; Cell Cycle Proteins; Cell Differentiation; Cell Division; Cell Lineage; Cell Plasticity; Cell Proliferation; Chondrocytes; Chromatin; Chromosomal Proteins, Non-Histone; Cluster Analysis; Cohesins; Communication; Computational Biology; Congenital Abnormalities; Cricetulus; Data Analysis; Databases, Factual; De Lange Syndrome; Drosophila Proteins; Drosophila melanogaster; Drug Resistance, Neoplasm; Embryo, Mammalian; Embryonic Development; Entropy; Face; Feedback, Physiological; Fracture Healing; Fusion Proteins, bcr-abl; Gastrulation; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Regulatory Networks; Green Fluorescent Proteins; Growth and Development; HEK293 Cells; Hedgehog Proteins; Hematopoiesis; Heterozygote; Homeostasis; Imaging, Three-Dimensional; Leukemia, Myelogenous, Chronic, BCR-ABL Positive; Machine Learning; Mass Behavior; Melanocytes; Melanoma; Metronidazole; Morphogenesis; Mutation; Myelopoiesis; Neoplasms; Nevus; Nevus, Pigmented; Nitroreductases; Oncogenes; Organoids; Osteoblasts; Osteogenesis; Periosteum; Phenotype; Pregnancy; Prodrugs; Promoter Regions, Genetic; Protein Engineering; Protein Kinase Inhibitors; Proteins; Proto-Oncogene Mas; Proto-Oncogene Proteins B-raf; RNA; Recombinant Proteins; Retina; Saccharomyces cerevisiae; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Stem Cells; Systems Biology; TOR Serine-Threonine Kinases; Transcriptome; Tyrosine Kinase Inhibitors; Vibrio; Wings, Animal; X-Ray Microtomography; Zebrafish</t>
+          <t>Aging; Algorithms; Animals, Genetically Modified; Body Patterning; Brain; CHO Cells; Cartilage; Cell Competition; Cell Cycle Proteins; Cell Differentiation; Cell Lineage; Cell Plasticity; Cell Proliferation; Chondrocytes; Chromatin; Chromosomal Proteins, Non-Histone; Cluster Analysis; Cohesins; Communication; Computational Biology; Congenital Abnormalities; Cricetulus; Data Analysis; Databases, Factual; De Lange Syndrome; Drosophila Proteins; Drosophila melanogaster; Drug Resistance, Neoplasm; Embryo, Mammalian; Embryonic Development; Entropy; Epithelial Cells; Face; Fracture Healing; Fusion Proteins, bcr-abl; Gastrulation; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Regulatory Networks; Green Fluorescent Proteins; Growth and Development; HEK293 Cells; Hedgehog Proteins; Heterozygote; Homeostasis; Imaging, Three-Dimensional; Immunity, Innate; Leukemia, Myelogenous, Chronic, BCR-ABL Positive; Machine Learning; Mass Behavior; Metronidazole; Morphogenesis; Mutation; Myelopoiesis; Neoplasms; Nitroreductases; Organoids; Osteoblasts; Osteogenesis; Periosteum; Phenotype; Pregnancy; Prodrugs; Promoter Regions, Genetic; Protein Engineering; Protein Kinase Inhibitors; Proteins; RNA; Recombinant Proteins; Retina; Saccharomyces cerevisiae; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Stem Cells; Systems Biology; TOR Serine-Threonine Kinases; Transcriptome; Tyrosine Kinase Inhibitors; Vibrio; Wings, Animal; X-Ray Microtomography; Zebrafish</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1125,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Activin Receptors; Adiposity; Aged; Aging; Allergy and Immunology; Allosteric Site; Alzheimer Disease; Amino Acid Sequence; Amino Acids; Amyloid beta-Peptides; Angiotensin-Converting Enzyme 2; Animals, Genetically Modified; Anosmia; Antiviral Agents; Apolipoprotein E4; Astrocytes; Autoimmune Diseases of the Nervous System; Axons; B-Lymphocytes; Bacterial Infections; Bone Marrow Transplantation; Brain; CD4 Antigens; CD4-Positive T-Lymphocytes; COVID-19; Catalytic Domain; Central Nervous System; Central Nervous System Viral Diseases; Chemokine CXCL1; Chemokines; Chlorocebus aethiops; Cognition; Cognitive Dysfunction; Congresses as Topic; Coronavirus; Coronavirus 3C Proteases; Coronavirus Infections; Crystallography, X-Ray; Cystatins; Cysteine; Cytokine Release Syndrome; Dementia; Demyelinating Diseases; Disease Progression; Disulfides; Drug Development; Drug Evaluation, Preclinical; Dysgeusia; Encephalitis; Encephalitis, Viral; Encephalomyelitis, Autoimmune, Experimental; Forkhead Transcription Factors; Gene Expression; Gene Expression Profiling; Hashimoto's encephalitis; Headache; Host-Pathogen Interactions; Human Embryonic Stem Cells; Immune System; Immunity; Immunity, Cellular; Immunity, Innate; Induced Pluripotent Stem Cells; Infant; Inflammation; Inflammation Mediators; Ischemia; Lung; Lymphocyte Activation; Lysosomal Membrane Proteins; Macrophages; Matrix Metalloproteinase 9; Memory Consolidation; Meningitis; Mental Fatigue; Microglia; Mitochondrial Diseases; Models, Molecular; Monocytes; Monomeric GTP-Binding Proteins; Multiple Sclerosis; Murine hepatitis virus; Muscle, Skeletal; Muscular Atrophy; Mutation; Myelin Sheath; Neural Stem Cells; Neurodegenerative Diseases; Neuroglia; Neuroimmunomodulation; Neuroinflammatory Diseases; Neurons; Neutrophils; Organic Chemicals; Oxidation-Reduction; Pandemics; Parkinson Disease; Pluripotent Stem Cells; Protease Inhibitors; Protein Multimerization; RNA, Messenger; RNA, Viral; Receptor Protein-Tyrosine Kinases; Receptors, Chemokine; Remyelination; Risk Factors; Rodentia; SARS-CoV-2; Secretome; Sequence Analysis, RNA; Signal Transduction; Single Molecule Imaging; Societies, Medical; Spinal Cord; Stem Cell Transplantation; Stem Cells; Stroke; Sweden; Synaptic Transmission; T-Lymphocytes; T-Lymphocytes, Regulatory; Tetracyclines; Translational Research, Biomedical; Vero Cells; Virus Diseases; Virus Replication; White Matter</t>
+          <t>Activin Receptors; Adiposity; Aged; Aging; Allergy and Immunology; Alzheimer Disease; Amino Acid Sequence; Amino Acids; Amyloid beta-Peptides; Angiotensin-Converting Enzyme 2; Animals, Genetically Modified; Anosmia; Apolipoprotein E4; Astrocytes; Axons; B-Lymphocytes; Bacterial Infections; Bone Marrow Transplantation; Brain; CD4 Antigens; CD4-Positive T-Lymphocytes; COVID-19; Catalytic Domain; Central Nervous System; Chemokine CXCL1; Cognition; Cognitive Dysfunction; Coronavirus; Coronavirus 3C Proteases; Coronavirus Infections; Crystallography, X-Ray; Cystatins; Cysteine; Cytokine Release Syndrome; Dementia; Demyelinating Diseases; Disease Progression; Disulfides; Dysgeusia; Encephalitis; Encephalitis, Viral; Encephalomyelitis, Autoimmune, Experimental; Forkhead Transcription Factors; Gene Expression; Gene Expression Profiling; Hashimoto's encephalitis; Headache; Human Embryonic Stem Cells; Immune System; Immunity; Immunity, Innate; Induced Pluripotent Stem Cells; Infant; Inflammation; Inflammation Mediators; Integrases; Ischemia; Lung; Lymphocyte Activation; Lysosomal Membrane Proteins; Macrophages; Matrix Metalloproteinase 9; Memory Consolidation; Meningitis; Mental Fatigue; Microglia; Mitochondrial Diseases; Models, Molecular; Monocytes; Monomeric GTP-Binding Proteins; Multiple Sclerosis; Murine hepatitis virus; Muscle, Skeletal; Mutation; Myelin Sheath; Neural Stem Cells; Neurodegenerative Diseases; Neuroglia; Neuroinflammatory Diseases; Neurons; Neutrophils; Oxidation-Reduction; Pandemics; Parkinson Disease; Plaque, Amyloid; Protein Multimerization; RNA, Messenger; RNA, Viral; Receptor Protein-Tyrosine Kinases; Remyelination; Risk Factors; Rodentia; SARS-CoV-2; Secretome; Sequence Analysis, RNA; Signal Transduction; Single Molecule Imaging; Spinal Cord; Stem Cells; Stroke; Sweden; Synaptic Transmission; T-Lymphocytes; T-Lymphocytes, Regulatory; Tetracyclines; Virus Diseases; Virus Replication; White Matter</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1137,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Aging; Anaphase-Promoting Complex-Cyclosome; CDC2 Protein Kinase; Caenorhabditis elegans; Caenorhabditis elegans Proteins; Cdc20 Proteins; Cell Cycle; Cell Cycle Checkpoints; Cell Cycle Proteins; Cell Differentiation; Cell Proliferation; Centers for Disease Control and Prevention, U.S.; Clustered Regularly Interspaced Short Palindromic Repeats; Cues; Cyclin B; Cyclin B1; Cyclin B2; Cyclins; Embryo, Nonmammalian; Embryonic Development; Ependymoglial Cells; Genomics; Germ Cells; Kinetochores; M Phase Cell Cycle Checkpoints; Microscopy; Microtubule-Associated Proteins; Mitosis; Neocortex; Neoplasms; Phosphorylation; Protein Serine-Threonine Kinases; Repressor Proteins; Spindle Apparatus; Tetratricopeptide Repeat</t>
+          <t>Aging; Anaphase-Promoting Complex-Cyclosome; CDC2 Protein Kinase; Caenorhabditis elegans; Caenorhabditis elegans Proteins; Cdc20 Proteins; Cell Cycle; Cell Cycle Checkpoints; Cell Cycle Proteins; Cell Differentiation; Cell Proliferation; Centers for Disease Control and Prevention, U.S.; Clustered Regularly Interspaced Short Palindromic Repeats; Cues; Cyclin B; Cyclin B1; Cyclin B2; Cyclins; Embryo, Nonmammalian; Embryonic Development; Ependymoglial Cells; Genomics; Germ Cells; Kinetochores; M Phase Cell Cycle Checkpoints; Microscopy; Microtubule-Associated Proteins; Mitosis; Neocortex; Neoplasms; Phosphorylation; Protein Serine-Threonine Kinases; Repressor Proteins; Spindle Apparatus; Tetratricopeptide Repeat; nan</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1149,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Acculturation; Acute Kidney Injury; Adipocytes; Amyotrophic Lateral Sclerosis; Anti-Bacterial Agents; Area Under Curve; Asian; Base Sequence; Bayes Theorem; Biological Evolution; Body Mass Index; COVID-19; COVID-19 Drug Treatment; Cell Differentiation; Chromatin; Chromosomes; Cost-Benefit Analysis; Cricetinae; Cross-Sectional Studies; DNA; DNA Transposable Elements; Diet; Drug-Related Side Effects and Adverse Reactions; Early Detection of Cancer; East Asian People; Eating; Ecological and Environmental Phenomena; Embolization, Therapeutic; Emigrants and Immigrants; Epidermis; Epigenesis, Genetic; Epigenome; Epigenomics; Eukaryotic Cells; Evolution, Molecular; Fatty Acid-Binding Proteins; Fellowships and Scholarships; Fertility; Frontotemporal Dementia; Gene Expression Profiling; Genetics; Genetics, Population; Genome; Genome, Human; Genomic Instability; Genomics; Health; Health Status; Heterochromatin; Keratinocytes; Lung; Magnetic Resonance Imaging; Mesocricetus; Microbial Sensitivity Tests; Multiomics; Multiparametric Magnetic Resonance Imaging; Mutation; Neoplasms; Nutrients; Obesity; Obesity, Abdominal; Organoids; Osteitis Deformans; Parasites; Pharmaceutical Preparations; Prostatic Hyperplasia; Prostatic Neoplasms; RNA; Retroelements; Risk Factors; SARS-CoV-2; Self Report; Sequence Homology; Skin; Sleep; Sleep Apnea Syndromes; Sleep Wake Disorders; Social Responsibility; Species Specificity; Stress, Psychological; Surveys and Questionnaires; Tetraodontiformes; Transcriptome; Urodela; Valosin Containing Protein; Vancomycin; Virus Replication; Waist-Hip Ratio</t>
+          <t>Absorptiometry, Photon; Adipocytes; Aged; Amyotrophic Lateral Sclerosis; Asian; Base Sequence; Biological Evolution; Body Mass Index; Bone Density; Bone Diseases, Metabolic; COVID-19; COVID-19 Drug Treatment; Cell Differentiation; Chromatin; Chromosomes; Cricetinae; DNA; DNA Transposable Elements; Diet; Drug-Related Side Effects and Adverse Reactions; Early Detection of Cancer; East Asian People; Eating; Ecological and Environmental Phenomena; Epidermis; Epigenesis, Genetic; Epigenome; Epigenomics; Eukaryotic Cells; Evolution, Molecular; Fabry Disease; Fatty Acid-Binding Proteins; Fellowships and Scholarships; Femur Neck; Fertility; Frontotemporal Dementia; Gene Expression Profiling; Genetics; Genetics, Population; Genome; Genome, Human; Genomic Instability; Genomics; Health; Health Status; Heterochromatin; Keratinocytes; Lung; Multiomics; Mutation; Neoplasms; Nutrients; Obesity; Obesity, Abdominal; Organoids; Osteitis Deformans; Osteoporosis; Parasites; Pharmaceutical Preparations; RNA; Retroelements; Risk Factors; SARS-CoV-2; Sequence Homology; Skin; Sleep Apnea Syndromes; Social Responsibility; Species Specificity; Surveys and Questionnaires; Tetraodontiformes; Transcriptome; Urodela; Valosin Containing Protein; Virus Replication; Waist-Hip Ratio</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1161,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AIDS Dementia Complex; Acquired Immunodeficiency Syndrome; Actins; Adaptive Immunity; Adaptor Proteins, Signal Transducing; Allergy and Immunology; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Anti-Infective Agents; Antigen Presentation; Antigens, CD; Apoptosis; Astrocytes; Blood Coagulation; Blood-Brain Barrier; Brain; CD4-Positive T-Lymphocytes; CD8-Positive T-Lymphocytes; Cadherins; Capparis; Caspase 1; Caspase 3; Caspase 8; Caspases; Cell Death; Cell Membrane; Cell Membrane Permeability; Cell Polarity; Cell Proliferation; Cell Survival; Cells, Cultured; Central Nervous System; Central Nervous System Infections; Cerebrovascular Circulation; Chemokine CCL2; Chemokines; Clustered Regularly Interspaced Short Palindromic Repeats; Coculture Techniques; Cognition; Coinfection; Coleoptera; Communicable Disease Control; Cytokines; Cytoskeleton; Cytosol; Dendritic Cells; Encephalitis; Endothelial Cells; Extracellular Matrix; Fibrin; Gasdermins; Gene Expression Profiling; Gene Regulatory Networks; HIV Infections; Heart Transplantation; Hemodynamics; Hippo Signaling Pathway; Host-Parasite Interactions; Host-Pathogen Interactions; Human Umbilical Vein Endothelial Cells; Immunity; Immunity, Innate; Induced Pluripotent Stem Cells; Infections; Inflammasomes; Inflammation; Inflammation Mediators; Intercellular Adhesion Molecule-1; Interleukin-1beta; Ion Channels; Life Cycle Stages; Lipoproteins; Liver; Macrophages; Mechanotransduction, Cellular; Memory T Cells; Metabolic Diseases; Microglia; Microscopy; Microvessels; Monocytes; Myeloid Cells; NF-kappa B; NLR Family, Pyrin Domain-Containing 3 Protein; Necroptosis; Neoplasm Recurrence, Local; Neurodegenerative Diseases; Neuroimaging; Neuroinflammatory Diseases; Neuroprotection; Neuroprotective Agents; Neutrophils; Optical Imaging; Parasites; Perfusion; Persistent Infection; Phagocytosis; Phenotype; Plaque, Amyloid; Platelet Aggregation; Proliferating Cell Nuclear Antigen; Protein Serine-Threonine Kinases; Protozoan Proteins; RNA-Seq; Rabbits; Receptor-Interacting Protein Serine-Threonine Kinases; Receptors, Scavenger; Sequence Analysis, RNA; Signal Transduction; Skull; Stress Fibers; Syk Kinase; T-Lymphocytes; T-Lymphocytes, Regulatory; THP-1 Cells; Thromboinflammation; Toxoplasma; Toxoplasmosis; Toxoplasmosis, Cerebral; Transcription Factors; Transcriptome; Up-Regulation; Virulence; Virulence Factors; YAP-Signaling Proteins; beta Catenin</t>
+          <t>AIDS Dementia Complex; Acquired Immunodeficiency Syndrome; Adaptive Immunity; Adaptor Proteins, Signal Transducing; Allergy and Immunology; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Anti-Infective Agents; Antigen Presentation; Astrocytes; Blood Coagulation; Blood-Brain Barrier; Brain; CD4-Positive T-Lymphocytes; CD8-Positive T-Lymphocytes; Capparis; Caspase 1; Caspase 8; Caspases; Cell Death; Cell Membrane; Cell Proliferation; Central Nervous System; Central Nervous System Infections; Cerebrovascular Circulation; Chemokine CCL2; Chemokines; Clustered Regularly Interspaced Short Palindromic Repeats; Coculture Techniques; Cognition; Coinfection; Communicable Disease Control; Cytokines; Dendritic Cells; Encephalitis; Endothelial Cells; Fibrin; Gasdermins; Gene Regulatory Networks; HIV Infections; Heart Transplantation; Hemodynamics; Hippo Signaling Pathway; Host-Parasite Interactions; Host-Pathogen Interactions; Immunity; Immunity, Innate; Induced Pluripotent Stem Cells; Infections; Inflammasomes; Inflammation; Inflammation Mediators; Intercellular Adhesion Molecule-1; Interleukin-1beta; Ion Channels; Lipoproteins; Liver; Macrophages; Mechanotransduction, Cellular; Memory T Cells; Metabolic Diseases; Microglia; Microscopy; Microvessels; Monocytes; Myeloid Cells; NF-kappa B; NLR Family, Pyrin Domain-Containing 3 Protein; Necroptosis; Neoplasm Recurrence, Local; Neurodegenerative Diseases; Neuroimaging; Neuroinflammatory Diseases; Neuroprotection; Neuroprotective Agents; Parasites; Perfusion; Persistent Infection; Phagocytosis; Phenotype; Plaque, Amyloid; Platelet Aggregation; Protozoan Proteins; Receptor-Interacting Protein Serine-Threonine Kinases; Receptors, Scavenger; Signal Transduction; Syk Kinase; T-Lymphocytes; T-Lymphocytes, Regulatory; THP-1 Cells; Thromboinflammation; Toxoplasma; Toxoplasmosis; Toxoplasmosis, Cerebral; Transcription Factor RelA; Virulence; Virulence Factors; nan</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1173,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adaptation, Biological; Adaptation, Physiological; Aging; Alleles; Anopheles; Antibody Formation; Beauveria; Biological Evolution; Borrelia burgdorferi; Breeding; CRISPR-Cas Systems; Chromatin; Chromatin Immunoprecipitation Sequencing; Chromosome Mapping; Computers; Crosses, Genetic; Crustacea; DNA; Deer; Diploidy; Diptera; Drosophila melanogaster; Ecological and Environmental Phenomena; Ecosystem; Evolution, Molecular; Fungal Proteins; Gene Flow; Gene Frequency; Gene Knockout Techniques; Genes, Insect; Genes, MHC Class II; Genetic Variation; Genetics; Genetics, Population; Genome; Genome, Fungal; Genome-Wide Association Study; Genomics; Genotype; Haplotypes; Hermaphroditic Organisms; High-Throughput Nucleotide Sequencing; Immunization; Immunoglobulin G; Insecticide Resistance; Insecticides; Kansas; Lyme Disease; Macrophages; Malathion; Models, Genetic; Multifactorial Inheritance; New Mexico; Nitric Oxide; OspA protein; Parents; Peromyscus; Persistent Infection; Phagocytes; Phenotype; Polymorphism, Single Nucleotide; Quantitative Trait Loci; Reactive Nitrogen Species; Recombination, Genetic; Reproduction, Asexual; Reverse Genetics; Saccharomyces cerevisiae; Saccharomycetales; Selection, Genetic; Sex Determination Processes; Software; Translational Research, Biomedical</t>
+          <t>Adaptation, Biological; Aging; Alleles; Antibody Formation; Biological Evolution; Borrelia burgdorferi; Breeding; CRISPR-Cas Systems; Chromatin; Chromatin Immunoprecipitation Sequencing; Chromosome Mapping; Computers; Confidence Intervals; DNA; Data Analysis; Deer; Diptera; Drosophila melanogaster; Ecological and Environmental Phenomena; Gene Frequency; Gene Knockout Techniques; Genes, MHC Class II; Genetic Variation; Genetics; Genetics, Population; Genome, Fungal; Genome-Wide Association Study; Genomics; Genotype; Haplotypes; High-Throughput Nucleotide Sequencing; Immunization; Immunoglobulin G; Incubators; Insecticide Resistance; Insecticides; Kansas; Lyme Disease; Macrophages; Malathion; Models, Genetic; Multifactorial Inheritance; Nitric Oxide; OspA protein; Parents; Peromyscus; Persistent Infection; Phagocytes; Phenotype; Polymorphism, Single Nucleotide; Quantitative Trait Loci; Reactive Nitrogen Species; Recombination, Genetic; Reproduction, Asexual; Reverse Genetics; Saccharomyces cerevisiae; Selection, Genetic; Translational Research, Biomedical</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1185,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Adaptor Proteins, Signal Transducing; Adenosine Triphosphate; Allosteric Regulation; Allosteric Site; Amines; Amino Acids; Antineoplastic Agents; Artificial Cells; Binding Sites; Biocatalysis; Biomarkers; Bioreactors; Carbohydrates; Carcinoma, Hepatocellular; Cell Line; Cell Line, Tumor; Computational Biology; Dimerization; Drug Delivery Systems; Drug Discovery; Early Detection of Cancer; Entropy; Escherichia coli; Gas Chromatography-Mass Spectrometry; Glucose 1-Dehydrogenase; Head and Neck Neoplasms; Hippo Signaling Pathway; Intrinsically Disordered Proteins; Liver Cirrhosis; Liver Neoplasms; Loss of Function Mutation; Lung Neoplasms; Models, Molecular; Molecular Dynamics Simulation; Mutation; Mutation, Missense; NAD; NADP; Neoplasms; Neurofibromin 2; Nicotinamide Mononucleotide; Nucleic Acids; Oxidation-Reduction; Oxidoreductases; Peptides; Phase Separation; Polymers; Protein Binding; Protein Biosynthesis; Protein Conformation; Protein Serine-Threonine Kinases; Protein Tyrosine Phosphatase, Non-Receptor Type 11; Proteins; Proteome; Proteomics; Pyrimidines; Signal Transduction; Solutions; Solvents; Static Electricity; Volatile Organic Compounds; Water; nan</t>
+          <t>Adaptor Proteins, Signal Transducing; Adenosine Triphosphate; Allosteric Regulation; Allosteric Site; Amines; Amino Acids; Antineoplastic Agents; Artificial Cells; Binding Sites; Biocatalysis; Biomarkers; Bioreactors; Carbohydrates; Carcinoma, Hepatocellular; Cell Line; Cell Line, Tumor; Computational Biology; Dimerization; Drug Delivery Systems; Drug Discovery; Early Detection of Cancer; Entropy; Escherichia coli; Gas Chromatography-Mass Spectrometry; Glucose 1-Dehydrogenase; Head and Neck Neoplasms; Hippo Signaling Pathway; Intrinsically Disordered Proteins; Liver Cirrhosis; Liver Neoplasms; Loss of Function Mutation; Lung Neoplasms; Models, Molecular; Molecular Dynamics Simulation; Mutation; Mutation, Missense; NAD; NADP; Neoplasms; Neurofibromin 2; Nicotinamide Mononucleotide; Normal Distribution; Nucleic Acids; Oxidation-Reduction; Oxidoreductases; Peptides; Phase Separation; Polymers; Protein Binding; Protein Biosynthesis; Protein Conformation; Protein Serine-Threonine Kinases; Protein Tyrosine Phosphatase, Non-Receptor Type 11; Proteins; Proteome; Proteomics; Pyrimidines; Signal Transduction; Solutions; Solvents; Static Electricity; Volatile Organic Compounds; Water; nan</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1197,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Action Potentials; Adenosine Triphosphate; Adolescent; Adverse Childhood Experiences; Aging; Algorithms; Amblyopia; Animal Care Committees; Brain; Calcium; Calcium Channels; Calcium Signaling; Central Nervous System; Cholinergic Neurons; Cognition; Decision Making; Electronic Nicotine Delivery Systems; Electrophysiological Phenomena; Electrophysiology; Functional Laterality; GABA Agonists; Genetics; Habenula; Immunohistochemistry; Memory; Memory Consolidation; Memory, Short-Term; Models, Neurological; Movement; Muscimol; Nerve Net; Neurons; Neurosciences; Nicotine; Nicotinic Agonists; Noise; Optogenetics; Parietal Lobe; Patch-Clamp Techniques; Postsynaptic Potential Summation; Primary Visual Cortex; Psychomotor Performance; Pyramidal Cells; Receptors, Purinergic P2; Rejuvenation; Restraint, Physical; Reward; Software; Spatial Memory; Stress, Psychological; Synapses; Synaptic Transmission; Visual Acuity; Visual Perception; Wakefulness</t>
+          <t>Action Potentials; Adenosine Triphosphate; Adolescent; Adverse Childhood Experiences; Aging; Amblyopia; Animal Care Committees; Brain; Calcium Channels; Central Nervous System; Cholinergic Neurons; Cognition; Decision Making; Electronic Nicotine Delivery Systems; Electrophysiology; Genetics; Habenula; Memory; Memory Consolidation; Memory, Short-Term; Movement; Neurons; Neurosciences; Nicotine; Nicotinic Agonists; Optogenetics; Parietal Lobe; Patch-Clamp Techniques; Postsynaptic Potential Summation; Primary Visual Cortex; Psychomotor Performance; Pyramidal Cells; Receptors, Purinergic P2; Rejuvenation; Reward; Software; Stress, Psychological; Synapses; Synaptic Transmission; Visual Acuity; Wakefulness; nan</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1221,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ATP-Binding Cassette Transporters; Acute Kidney Injury; Adenosine Triphosphate; Alzheimer Disease; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Apoptosis; Astrocytes; Behavior, Animal; Brain; Coronavirus Infections; Cuprizone; Cystatins; DNA, Mitochondrial; Demyelinating Diseases; Diabetes Mellitus; Diabetic Cardiomyopathies; Disease Progression; Energy Metabolism; Gastrointestinal Microbiome; Gene Expression Profiling; Gene Knock-In Techniques; Gene Ontology; Gene Regulatory Networks; Genetic Variation; Genotype; Heart Transplantation; Hippocampus; Insulin; Interneurons; Kidney; Long-Term Potentiation; Membrane Glycoproteins; Metabolomics; Microbiota; Microglia; Mitochondria; Mitochondria, Heart; Murine hepatitis virus; Mutation; Mutation, Missense; Myocardium; NAV1.1 Voltage-Gated Sodium Channel; Neuroglia; Neuroinflammatory Diseases; Neuronal Plasticity; Neurons; Oxidative Phosphorylation; Phagocytosis; Phenotype; Phosphatidylinositol 3-Kinases; Plaque, Amyloid; Proto-Oncogene Proteins c-akt; RNA Splicing; RNA-Seq; Reactive Oxygen Species; Receptors, Immunologic; Renal Insufficiency, Chronic; Reperfusion Injury; Resilience, Psychological; Risk Factors; Seizures; Seizures, Febrile; Sex Characteristics; Signal Transduction; Single-Cell Analysis; Synaptic Transmission; T-Lymphocytes, Regulatory; Tauopathies; Transcriptome; tau Proteins</t>
+          <t>ATP-Binding Cassette Transporters; Adenosine Triphosphate; Alzheimer Disease; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Astrocytes; Brain; Brain-Derived Neurotrophic Factor; Coronavirus Infections; Cuprizone; Cystatins; DNA, Mitochondrial; Demyelinating Diseases; Diabetes Mellitus; Diabetic Cardiomyopathies; Disease Progression; Energy Metabolism; Gastrointestinal Microbiome; Gene Expression Profiling; Gene Knock-In Techniques; Genetic Variation; Genotype; Heart Transplantation; Insulin; Integrases; Membrane Glycoproteins; Metabolomics; Microbiota; Microglia; Mitochondria; Mitochondria, Heart; Murine hepatitis virus; Mutation; Mutation, Missense; Myocardium; Neuroglia; Neuroinflammatory Diseases; Neurons; Oxidative Phosphorylation; Phagocytosis; Phosphatidylinositol 3-Kinases; Plaque, Amyloid; Proto-Oncogene Proteins c-akt; RNA Splicing; Reactive Oxygen Species; Receptor, trkB; Receptors, Immunologic; Resilience, Psychological; Sex Characteristics; Signal Transduction; Single-Cell Analysis; T-Lymphocytes, Regulatory; Tauopathies; Transcriptome; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1233,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Adolescent; Adverse Childhood Experiences; Aerosols; Amphetamine; Analgesics, Opioid; Anhedonia; Anxiety; Arachidonic Acids; Basal Forebrain; Basolateral Nuclear Complex; Behavior, Addictive; Brain; Cannabidiol; Cannabis; Choice Behavior; Chromatography, High Pressure Liquid; Clozapine; Cognition; Corticotropin-Releasing Hormone; Designer Drugs; Dopamine; Dopaminergic Neurons; Dose-Response Relationship, Drug; Dronabinol; Endocannabinoids; GABAergic Neurons; Genetics; Growth and Development; Learning; Mass Spectrometry; Microsomes; Morphine; Motivation; Neural Pathways; Neurobiology; Neurosciences; Nucleus Accumbens; Ovarian Follicle; Ovarian Reserve; Polyunsaturated Alkamides; Prefrontal Cortex; Rats, Long-Evans; Rats, Sprague-Dawley; Rats, Transgenic; Reward; Rodentia; Sex Factors; Stress, Psychological; Substance-Related Disorders; Tandem Mass Spectrometry; Vaping; Ventral Tegmental Area; gamma-Aminobutyric Acid</t>
+          <t>Adolescent; Adverse Childhood Experiences; Aerosols; Amphetamine; Analgesics, Opioid; Anhedonia; Arachidonic Acids; Basal Forebrain; Basolateral Nuclear Complex; Brain; Cannabidiol; Cannabis; Chromatography, High Pressure Liquid; Clozapine; Cognition; Conditioning, Operant; Corticotropin-Releasing Hormone; Designer Drugs; Dopamine; Dopaminergic Neurons; Dose-Response Relationship, Drug; Dronabinol; Endocannabinoids; Genetics; Growth and Development; Learning; Mass Spectrometry; Microsomes; Morphine; Motivation; Neural Pathways; Neurobiology; Nucleus Accumbens; Ovarian Follicle; Ovarian Reserve; Polyunsaturated Alkamides; Prefrontal Cortex; Rats, Long-Evans; Rats, Sprague-Dawley; Reward; Substance-Related Disorders; Tandem Mass Spectrometry; Vaping; Ventral Tegmental Area; gamma-Aminobutyric Acid</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1245,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Biological Evolution; Biomechanical Phenomena; Carbon; Coral Reefs; Ecological and Environmental Phenomena; Ecosystem; Evolution, Molecular; Extinction, Biological; Feeding Behavior; Fishes; Genetic Speciation; Jaw; Mandible; Motion; Movement; Natural History; Perciformes; Phylogeny; Predatory Behavior; Somatotypes; Swimming; Water</t>
+          <t>Biological Evolution; Biomechanical Phenomena; Carbon; Coral Reefs; Ecological and Environmental Phenomena; Ecosystem; Evolution, Molecular; Extinction, Biological; Feeding Behavior; Fishes; Genetic Speciation; Jaw; Mandible; Motion; Movement; Natural History; Perciformes; Phylogeny; Predatory Behavior; Somatotypes; Swimming; Water; nan</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1257,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Adaptation, Biological; Adaptation, Physiological; Anti-Bacterial Agents; Aquatic Organisms; Atlantic Ocean; Bacteria; Bayes Theorem; Biodiversity; California; Carbon; Carbon Cycle; Climate Change; Drug Resistance, Bacterial; Drug Resistance, Multiple, Bacterial; Ecological and Environmental Phenomena; Ecosystem; Ecotype; El Nino-Southern Oscillation; Escherichia coli; Escherichia coli Infections; Food Chain; Genes, Bacterial; Genetic Variation; Genetics; Genome, Microbial; Genomic Library; Genomics; Indian Ocean; Iron; Life History Traits; Metagenome; Metagenomics; Microbial Sensitivity Tests; Microbiology; Microbiota; Nitrates; Nitrogen; Nitrogen Fixation; Nutrients; Oceanography; Oceans and Seas; Pacific Ocean; Phosphates; Phosphorus; Phylogeny; Phylogeography; Phytoplankton; Plankton; Prochlorococcus; Proteome; Seasons; Seawater; Soil; Soil Microbiology; Stress, Physiological; Synechococcus; Temperature; Uncertainty</t>
+          <t>Anti-Bacterial Agents; Bacteria; Bayes Theorem; Biodiversity; Biomass; California; Carbon; Carbon Cycle; Climate Change; Drug Resistance, Bacterial; Drug Resistance, Multiple, Bacterial; Ecological and Environmental Phenomena; Ecosystem; Ecotype; El Nino-Southern Oscillation; Escherichia coli; Escherichia coli Infections; Food Chain; Genetic Variation; Genetics; Genomics; Indian Ocean; Life History Traits; Metagenome; Metagenomics; Microbial Sensitivity Tests; Microbiology; Microbiota; Nitrates; Nitrogen; Nitrogen Fixation; Nutrients; Oceanography; Oceans and Seas; Phosphates; Phylogeny; Phylogeography; Phytoplankton; Plankton; Prochlorococcus; Proteome; Seasons; Seawater; Soil; Soil Microbiology; Synechococcus; Temperature; Uncertainty</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1269,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Actinobacteria; Actinomycetales; Adaptation, Physiological; Ambulatory Care Facilities; American Indian or Alaska Native; Anti-Bacterial Agents; Bacteria; Bays; Bifidobacterium; Biodiversity; Biological Evolution; Biotechnology; California; Carbohydrates; Carbon; Carbon Sequestration; Cardiovascular Diseases; Cervix Uteri; Chromatography, Liquid; Climate Change; Cohort Studies; Computational Biology; Curriculum; Cyanobacteria; DNA Methylation; Databases, Genetic; Desert Climate; Diabetes Mellitus; Diet; Dietary Fiber; Drought Resistance; Droughts; Ecological and Environmental Phenomena; Ecology; Ecosystem; Ecotype; Electrons; Feces; Fermentation; Gastrointestinal Microbiome; Gene Transfer, Horizontal; Genetic Engineering; Genetic Variation; Genomics; Greenhouse Gases; Healthy Volunteers; Human Body; Infant; Internship and Residency; Interspersed Repetitive Sequences; Leadership; Life History Traits; Masks; Metabolome; Metabolomics; Metadata; Metagenome; Metagenomics; Microbiology; Microbiota; Mutation; Mycobiome; Neoplasms; New Mexico; Nitrogen; Nitrogen Fixation; Noncommunicable Diseases; Ohio; Oregon; Pacific Island People; Phylogeny; Plant Leaves; Plasmids; Prebiotics; Pregnancy; Probiotics; RNA, Ribosomal, 16S; Reproducibility of Results; Resilience, Psychological; Schools; Soil; Soil Microbiology; Stress, Physiological; Tandem Mass Spectrometry; Time Factors; Uncertainty; Vagina; Water Purification; Wildfires; Workflow; Young Adult</t>
+          <t>Actinomycetales; Ambulatory Care Facilities; American Indian or Alaska Native; Anti-Bacterial Agents; Bacteria; Bays; Bifidobacterium; Biodiversity; Biological Evolution; Biotechnology; Carbohydrates; Carbon; Carbon Sequestration; Cardiovascular Diseases; Climate Change; Computational Biology; Curriculum; Cyanobacteria; DNA Methylation; Desert Climate; Diabetes Mellitus; Diet; Dietary Fiber; Drought Resistance; Droughts; Ecological and Environmental Phenomena; Ecology; Ecosystem; Electrons; Feces; Fermentation; Gastrointestinal Microbiome; Gene Transfer, Horizontal; Genetic Engineering; Genetic Variation; Genomics; Greenhouse Gases; Human Body; Internship and Residency; Interspersed Repetitive Sequences; Leadership; Life History Traits; Masks; Metadata; Metagenome; Metagenomics; Microbiology; Microbiota; Mutation; Mycobiome; Neoplasms; New Mexico; Nitrogen; Nitrogen Fixation; Noncommunicable Diseases; Ohio; Oregon; Pacific Island People; Phylogeny; Plant Leaves; Plasmids; Prebiotics; Probiotics; RNA, Ribosomal, 16S; Reproducibility of Results; Resilience, Psychological; Schools; Soil; Soil Microbiology; Stress, Physiological; Time Factors; Uncertainty; Water Purification; Wildfires; Workflow</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1281,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Animal Communication; Animals, Wild; Behavior, Animal; Biomechanical Phenomena; Characidae; Communication; Crustacea; Cues; Cypriniformes; Ecological and Environmental Phenomena; Educational Status; Environment; Escape Reaction; Fishes; Fresh Water; Gait; Genomics; Hydrodynamics; Interpersonal Relations; Larva; Lateral Line System; Light; Locomotion; Mantodea; Movement; Oligochaeta; Organizations; Perciformes; Phototaxis; Predatory Behavior; Robotics; Schools; Scyphozoa; Sense Organs; Skeleton; Smegmamorpha; Social Behavior; Starfish; Swimming; Technology; Vision, Ocular; Water Movements; Zebrafish</t>
+          <t>Animal Communication; Animals, Wild; Behavior, Animal; Biomechanical Phenomena; Communication; Cues; Cypriniformes; Ecological and Environmental Phenomena; Environment; Escape Reaction; Fishes; Fresh Water; Gait; Genomics; Hydrodynamics; Larva; Lateral Line System; Light; Locomotion; Movement; Oligochaeta; Organizations; Perciformes; Phototaxis; Predatory Behavior; Robotics; Schools; Scyphozoa; Sense Organs; Skeleton; Smegmamorpha; Social Behavior; Starfish; Swimming; Technology; Water Movements; Zebrafish</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1293,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Acoustic Stimulation; Action Potentials; Adverse Childhood Experiences; Amygdala; Anesthesia, General; Auditory Cortex; Autistic Disorder; Behavior Therapy; Brain; Brain Diseases; Brain Mapping; Brain Stem; Brain Waves; Cerebral Cortex; Cognition; Cognitive Reserve; Computer Simulation; Consciousness; Control Groups; Cues; Deep Learning; Default Mode Network; ET protocol; Electric Stimulation; Electrocorticography; Electroencephalography; Electronic Mail; Electrophysiological Phenomena; Electrophysiology; Evoked Potentials, Auditory; Evoked Potentials, Visual; Feasibility Studies; Forelimb; Frontal Lobe; GABAergic Neurons; Grid Cells; Gyrus Cinguli; Hallucinogens; Hindlimb; Hippocampal Sclerosis; Hippocampus; History, 20th Century; History, 21st Century; Imaging, Three-Dimensional; Ketanserin; Learning; Maze Learning; Memory; Memory Consolidation; Memory Disorders; Memory, Episodic; Memory, Short-Term; Models, Neurological; Neocortex; Nesting Behavior; Neural Networks, Computer; Neuroanatomy; Neuronal Plasticity; Neurons; Neurosciences; Optogenetics; Photic Stimulation; Pilot Projects; Place Cells; Psilocybin; Reward; Schizophrenia; Sensory Thresholds; Serotonin 5-HT2 Receptor Antagonists; Silicon; Sleep; Sleep Deprivation; Sleep, REM; Sleep, Slow-Wave; Software; Space Perception; Spatial Navigation; Stroke; Synapses; Systems Theory; Temporal Lobe; Time Factors; Voltage-Sensitive Dye Imaging; Wakefulness; Young Adult</t>
+          <t>Action Potentials; Adverse Childhood Experiences; Auditory Cortex; Autistic Disorder; Behavior Therapy; Brain; Brain Diseases; Brain Stem; Cognition; Cognitive Reserve; Computer Simulation; Control Groups; Cues; Deep Learning; Default Mode Network; ET protocol; Electroencephalography; Electronic Mail; Electrophysiological Phenomena; Electrophysiology; Feasibility Studies; GABAergic Neurons; Grid Cells; Gyrus Cinguli; Hallucinogens; Hippocampal Sclerosis; Hippocampus; History, 20th Century; History, 21st Century; Imaging, Three-Dimensional; Ketanserin; Learning; Maze Learning; Memory; Memory Consolidation; Memory Disorders; Memory, Episodic; Memory, Short-Term; Models, Neurological; Neocortex; Nesting Behavior; Neural Networks, Computer; Neuroanatomy; Neuronal Plasticity; Neurons; Neurosciences; Optogenetics; Pilot Projects; Place Cells; Psilocybin; Reward; Schizophrenia; Serotonin 5-HT2 Receptor Antagonists; Silicon; Sleep; Sleep Deprivation; Sleep, REM; Sleep, Slow-Wave; Software; Space Perception; Spatial Navigation; Stroke; Synapses; Systems Theory; Wakefulness</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1305,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Acetyl Coenzyme A; Allergy and Immunology; Apoptosis; Bacteria; Bacterial Infections; Bacteriophage P22; Binding Sites; CRISPR-Cas Systems; Capsid; Carcinoma, Hepatocellular; Caspase 1; Cell Culture Techniques; Cell Survival; Clostridium acetobutylicum; Cryoelectron Microscopy; Cryopyrin-Associated Periodic Syndromes; Cytokines; DNA; DNA Glycosylases; DNA, Mitochondrial; DNA, Viral; Drug Discovery; Endodeoxyribonucleases; Endotoxemia; Epithelium; Fluorocarbons; Fructose; Fructosephosphates; Galium; Gasdermins; Gastrointestinal Microbiome; Gene Editing; Heat-Shock Response; Hepatocytes; Host Microbial Interactions; Imaging, Three-Dimensional; Immune System; Inflammasomes; Inflammation; Interleukin-1; Interleukin-18; Interleukin-1beta; Intestines; Ligands; Lipidomics; Lipogenesis; Liver Neoplasms; Macromolecular Substances; Macrophages; Mass Spectrometry; Membrane Fluidity; Microscopy, Electron, Transmission; Mitochondria; Mitochondrial Diseases; Molecular Structure; Mutagenesis; NLR Family, Pyrin Domain-Containing 3 Protein; Neoplasms; Non-alcoholic Fatty Liver Disease; Nucleic Acids; Oxidative Stress; Oxides; Pathogen-Associated Molecular Pattern Molecules; Protein Binding; Protein Processing, Post-Translational; Protein Subunits; Proteins; Pyrin; Pyrin Domain; RNA; Regeneration; Signal Transduction; Signal-To-Noise Ratio; Toll-Like Receptors; Virus Assembly</t>
+          <t>Allergy and Immunology; Apoptosis; Bacteria; Bacterial Infections; Bacteriophage P22; Binding Sites; CRISPR-Cas Systems; Capsid; Carcinoma, Hepatocellular; Caspase 1; Cell Culture Techniques; Cell Survival; Clostridium acetobutylicum; Cryoelectron Microscopy; Cryopyrin-Associated Periodic Syndromes; Cytokines; DNA; DNA Glycosylases; DNA, Mitochondrial; DNA, Viral; Drug Discovery; Endodeoxyribonucleases; Epithelium; Fluorocarbons; Galium; Gasdermins; Gene Editing; Heat-Shock Response; Host Microbial Interactions; Imaging, Three-Dimensional; Immune System; Inflammasomes; Inflammation; Interleukin-1; Interleukin-18; Interleukin-1beta; Ligands; Liver Neoplasms; Macromolecular Substances; Mass Spectrometry; Membrane Fluidity; Microscopy, Electron, Transmission; Mitochondria; Mitochondrial Diseases; Molecular Structure; Mutagenesis; NLR Family, Pyrin Domain-Containing 3 Protein; Neoplasms; Non-alcoholic Fatty Liver Disease; Nucleic Acids; Oxidative Stress; Oxides; Pathogen-Associated Molecular Pattern Molecules; Protein Binding; Protein Processing, Post-Translational; Protein Subunits; Proteins; Pyrin; Pyrin Domain; RNA; Signal Transduction; Signal-To-Noise Ratio; Virus Assembly; nan</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1317,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Acetylcholine; Acoustic Stimulation; Acoustics; Affect; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Auditory Cortex; Auditory Perception; Auditory Perceptual Disorders; Cognition; Cognitive Dysfunction; Cross-Over Studies; Discrimination, Psychological; Entorhinal Cortex; Evoked Potentials, Auditory; Evoked Potentials, Auditory, Brain Stem; Hearing; Hippocampus; Interneurons; Neurons; Nicotine; Nicotine Chewing Gum; Nicotinic Agonists; Non-Smokers; Nootropic Agents; Oxygen; Pharmaceutical Preparations; Physiology; Pitch Perception; Psychomotor Performance; Receptors, Nicotinic; Signal-To-Noise Ratio; Single-Blind Method; Time Factors; Young Adult</t>
+          <t>Acetylcholine; Acoustic Stimulation; Alzheimer Disease; Auditory Cortex; Auditory Perception; Auditory Perceptual Disorders; Cognition; Cognitive Dysfunction; Entorhinal Cortex; Hearing; Hippocampus; Interneurons; Neurons; Nicotine; Nicotinic Agonists; Nootropic Agents; Pharmaceutical Preparations; Physiology; Receptors, Nicotinic</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1329,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Adaptation, Physiological; Alleles; Ants; Artemisia; Arthropods; Biodiversity; Biological Evolution; Biological Phenomena; Biomass; Biota; Birds; Brassicaceae; Climate; Climate Change; Colorado; Conservation of Natural Resources; Curriculum; Drought Resistance; Droughts; Ecology; Ecosystem; Ecotype; Ficus; Flowers; Food Chain; Genetic Variation; Herbivory; Home Environment; Host-Parasite Interactions; Insecta; Larva; Lepidoptera; Natural Resources; Oxylipins; Phenotype; Plant Development; Plant Leaves; Plants; Predatory Behavior; Quantitative Trait Loci; Schools; Seasons; Selection, Genetic; Snow; Songbirds; Temperature; Trees; Wasps; Water</t>
+          <t>Adaptation, Physiological; Alleles; Ants; Artemisia; Arthropods; Biodiversity; Biological Evolution; Biological Phenomena; Biomass; Biota; Birds; Brassicaceae; Climate; Climate Change; Colorado; Conservation of Natural Resources; Curriculum; Drought Resistance; Droughts; Ecology; Ecosystem; Ecotype; Ficus; Food Chain; Genetic Variation; Herbivory; Home Environment; Host-Parasite Interactions; Insecta; Larva; Lepidoptera; Moths; Natural Resources; Phenotype; Plant Development; Plant Leaves; Plants; Predatory Behavior; Quantitative Trait Loci; Schools; Selection, Genetic; Snow; Songbirds; Trees; Wasps; Water</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1353,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Amino Acid Substitution; Amino Acids; Antiparasitic Agents; Apicoplasts; Auranofin; Binding Sites; Biolistics; Cell Proliferation; Cells, Cultured; Chemistry, Pharmaceutical; Chlamydomonas; Clemastine; Colchicine; Communicable Diseases; Cryptosporidiosis; Cryptosporidium; Cryptosporidium parvum; Cytoskeleton; Drug Resistance; Embryophyta; Eukaryota; Genes, Essential; Germ Cells; Haploidy; Helminths; Herbicides; Histamine Antagonists; Household Work; Ligands; Macronucleus; Malaria; Meiosis; Micronucleus, Germline; Microtubules; Mitosis; Morbidity; Mutation; Mutation, Missense; Neoplasms; Paclitaxel; Parasites; Paromomycin; Pharmaceutical Preparations; Phospholipases; Plasmids; Protozoan Proteins; Reactive Oxygen Species; Recombination, Genetic; Solubility; Tetrahymena; Thioredoxin-Disulfide Reductase; Toxoplasma; Toxoplasmosis; Transfection; Treatment Outcome; Tropism; Tubulin; Tubulin Modulators; Vertebrates; Virulence; Virulence Factors; oryzalin; pendimethalin; pironetin; pronamide</t>
+          <t>Amino Acid Substitution; Amino Acids; Antiparasitic Agents; Apicoplasts; Biolistics; Cells, Cultured; Chemistry, Pharmaceutical; Chlamydomonas; Clemastine; Colchicine; Communicable Diseases; Cryptosporidiosis; Cryptosporidium; Cryptosporidium parvum; Cytoskeleton; Drug Resistance; Embryophyta; Eukaryota; Fibroblasts; Genes, Essential; Germ Cells; Haploidy; Helminths; Herbicides; Histamine Antagonists; Household Work; Ligands; Macronucleus; Malaria; Meiosis; Micronucleus, Germline; Microtubules; Mitosis; Morbidity; Mutation; Mutation, Missense; Neoplasms; Paclitaxel; Parasites; Paromomycin; Pharmaceutical Preparations; Plasmids; Protozoan Proteins; Recombination, Genetic; Solubility; Tetrahymena; Toxoplasma; Transfection; Treatment Outcome; Tropism; Tubulin; Vertebrates; nan; oryzalin; pendimethalin; pironetin; pronamide</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1377,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Adaptive Immunity; Adipose Tissue; Adiposity; Aged; Aging; Allergy and Immunology; Anabolic Androgenic Steroids; Androgens; Anilides; Anti-Inflammatory Agents; Antibodies; Antibodies, Neutralizing; Antibody Formation; Antigen Presentation; Antigens, CD1; Apoptosis; Autoantibodies; Autoantigens; Autoimmune Diseases; B-Lymphocyte Subsets; Biocompatible Materials; Blood Glucose; CD8-Positive T-Lymphocytes; COVID-19; Cardiac Output; Cardiovascular Diseases; Carrier Proteins; Cell Differentiation; Cell Fractionation; Cell Line; Cell Line, Tumor; Cell Membrane; Cell Plasticity; Cell Proliferation; Cell Survival; Cellular Senescence; Coculture Techniques; Computer Simulation; Cross-Sectional Studies; Culture Media, Conditioned; Cytokines; Diabetes Mellitus; Diabetes Mellitus, Type 2; Diet; Diet, High-Fat; Disease Progression; Drug Evaluation, Preclinical; Endocrinology; Endothelial Cells; Enzyme Inhibitors; Ethnic and Racial Minorities; Fertility; Flow Cytometry; Follicle Stimulating Hormone; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Neoplastic; Glucose; Glucose Transporter Type 1; Glycated Hemoglobin; Glycolysis; Gonadal Steroid Hormones; Gonadotropins; Gonadotropins, Pituitary; H3B-8800; Heterocyclic Compounds, 3-Ring; Homeostasis; Immunophenotyping; Immunotherapy; Industrial Development; Infertility; Inflammation; Inflammation Mediators; Influenza Vaccines; Insulin; Insulin Resistance; Interleukin-17; Laboratories; Lactones; Lipid Metabolism; Lipids; Lipopolysaccharides; Losartan; Luteinizing Hormone; Lymphocytic Choriomeningitis; Lymphocytic choriomeningitis virus; Lymphoid Tissue; Memory B Cells; Metabolic Networks and Pathways; Metabolism; Methanol; Mexican Americans; Mice, Obese; Neoplastic Stem Cells; Obesity; Organoids; Organophosphonates; Ovarian Neoplasms; Palatine Tonsil; Pandemics; Persistent Infection; Phenotype; Phosphotransferases (Alcohol Group Acceptor); Pituitary Diseases; Pituitary Gland; Platelet Aggregation Inhibitors; Polycystic Ovary Syndrome; Preceptorship; Prevalence; Printing, Three-Dimensional; Professional Competence; Proprotein Convertase 9; Protein Array Analysis; Protein C; Protein Transport; Proteins; Proto-Oncogene Proteins c-akt; Pyridines; Pyrrolidines; Quality of Life; RNA, Long Noncoding; Receptor, PAR-1; Reproduction; Research Personnel; Risk Factors; Sedentary Behavior; Sequence Analysis, RNA; Signal Transduction; Single-Cell Gene Expression Analysis; Solvents; Sphingosine-1-Phosphate Receptors; Sulfones; T-Lymphocytes; Technology; Testosterone; Th17 Cells; Transcriptome; Up-Regulation; Weight Loss; Workflow; beta-Arrestin 2; lobeglitazone; polyvinylidene fluoride</t>
+          <t>Adaptive Immunity; Adipose Tissue; Adiposity; Aged; Aging; Allergy and Immunology; Anabolic Androgenic Steroids; Androgens; Anti-Inflammatory Agents; Antibodies; Antibodies, Neutralizing; Antibody Formation; Antigen Presentation; Antigens, CD1; Autoantibodies; Autoantigens; Autoimmune Diseases; B-Lymphocyte Subsets; Biocompatible Materials; Blood Glucose; CD8-Positive T-Lymphocytes; COVID-19; Cardiac Output; Cardiovascular Diseases; Carrier Proteins; Cell Differentiation; Cell Fractionation; Cell Line; Cell Line, Tumor; Cell Membrane; Cell Plasticity; Cell Proliferation; Cell Survival; Cellular Senescence; Coculture Techniques; Computer Simulation; Cross-Sectional Studies; Culture Media, Conditioned; Cytokines; Diabetes Mellitus; Diabetes Mellitus, Type 2; Diet; Diet, High-Fat; Disease Progression; Drug Evaluation, Preclinical; Endocrinology; Ethnic and Racial Minorities; Fertility; Flow Cytometry; Follicle Stimulating Hormone; Gene Expression Profiling; Gene Expression Regulation, Neoplastic; Glucose; Glucose Transporter Type 1; Glycated Hemoglobin; Glycolysis; Gonadal Steroid Hormones; Gonadotropins; Gonadotropins, Pituitary; H3B-8800; Homeostasis; Immunophenotyping; Immunotherapy; Industrial Development; Infertility; Inflammation; Inflammation Mediators; Influenza Vaccines; Insulin; Insulin Resistance; Interleukin-17; Laboratories; Lipid Metabolism; Lipids; Lipopolysaccharides; Losartan; Luteinizing Hormone; Lymphocytic Choriomeningitis; Lymphocytic choriomeningitis virus; Lymphoid Tissue; Memory B Cells; Metabolic Networks and Pathways; Metabolism; Methanol; Mexican Americans; Mice, Obese; Neoplastic Stem Cells; Obesity; Organoids; Ovarian Neoplasms; Palatine Tonsil; Pandemics; Persistent Infection; Phenotype; Pituitary Diseases; Pituitary Gland; Polycystic Ovary Syndrome; Preceptorship; Prevalence; Printing, Three-Dimensional; Professional Competence; Proprotein Convertase 9; Protein Array Analysis; Protein Transport; Proteins; Proto-Oncogene Proteins c-akt; Quality of Life; RNA, Long Noncoding; Reproduction; Research Personnel; Risk Factors; Sedentary Behavior; Sequence Analysis, RNA; Signal Transduction; Single-Cell Gene Expression Analysis; Solvents; T-Lymphocytes; Technology; Testosterone; Th17 Cells; Transcriptome; Up-Regulation; Weight Loss; Workflow; lobeglitazone; polyvinylidene fluoride</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1389,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Adipocytes; Adjuvants, Immunologic; Adjuvants, Vaccine; Algorithms; Alzheimer Disease; Antibodies, Neutralizing; Antibodies, Viral; Benchmarking; Big Data; Biocompatible Materials; Biological Phenomena; Biomechanical Phenomena; Brain; CD8-Positive T-Lymphocytes; COVID-19; Cardiomyopathy, Dilated; Cartilage; Cell Body; Cell Communication; Cell Differentiation; Cell Line, Tumor; Cell Lineage; Chickens; Cicatrix; Cluster Analysis; Computational Biology; Computer Simulation; Connectome; Cross-Linking Reagents; Data Analysis; Deep Learning; Developmental Biology; Down-Regulation; Drug Repositioning; Embryo, Mammalian; Embryonic Development; Endocrine System Diseases; Epigenomics; Epithelial-Mesenchymal Transition; Evolution, Molecular; Extracellular Fluid; Extracellular Matrix; Extracellular Space; Fibroblasts; Gelatin; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Developmental; Gene Regulatory Networks; Genome; Genomics; Haploinsufficiency; Homeodomain Proteins; Homeostasis; Hydrogels; Immune Checkpoint Inhibitors; Immunotherapy; Induced Pluripotent Stem Cells; Inducible T-Cell Co-Stimulator Protein; Inflammation; Influenza A Virus, H5N1 Subtype; Influenza Vaccines; Interleukin-2; Islets of Langerhans; Keratinocytes; Kidney Diseases; Lamin Type A; Ligands; Lipid A; Lipid Droplets; Lipid Metabolism; Lipogenesis; Locomotion; Lymphocytes; Macrophages; Marsupialia; Melanoma; Melanoma, Experimental; Mice, Inbred BALB C; Multiomics; Mutation; Myocytes, Cardiac; Nervous System Diseases; Neurons; Neurotransmitter Agents; Obesity; Oligodeoxyribonucleotides; Orthomyxoviridae Infections; Pericardium; Phenotype; Phylogeny; Polysorbates; Programmed Cell Death 1 Receptor; Proteins; RANK Ligand; RNA; RNA Splicing; RNA, Messenger; RNA-Seq; Regulatory Sequences, Nucleic Acid; Rosacea; SARS-CoV-2; Schwann Cells; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Skin; Software; Squalene; Systems Biology; T-Lymphocytes; T-Lymphocytes, Regulatory; Transcription Factors; Transcriptome; Vacuoles; Wound Healing; Young Adult</t>
+          <t>Adenosine; Adipocytes; Adjuvants, Immunologic; Algorithms; Alpha-Ketoglutarate-Dependent Dioxygenase FTO; Alzheimer Disease; Amyotrophic Lateral Sclerosis; Antibodies, Neutralizing; Antibodies, Viral; Benchmarking; Big Data; Biocompatible Materials; Biological Phenomena; Biomechanical Phenomena; CD8-Positive T-Lymphocytes; COVID-19; Cardiomyopathy, Dilated; Cartilage; Cell Body; Cell Communication; Cell Differentiation; Cell Line, Tumor; Cell Lineage; Cicatrix; Cluster Analysis; Computational Biology; Computer Simulation; Connectome; Cross-Linking Reagents; Data Analysis; Deep Learning; Developmental Biology; Down-Regulation; Drug Repositioning; Embryo, Mammalian; Embryonic Development; Endocrine System Diseases; Extracellular Fluid; Extracellular Matrix; Extracellular Space; Fibroblasts; Gelatin; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genomics; Haploinsufficiency; Hemagglutinin Glycoproteins, Influenza Virus; Homeostasis; Hydrogels; Immune Checkpoint Inhibitors; Immunotherapy; Induced Pluripotent Stem Cells; Inducible T-Cell Co-Stimulator Protein; Inflammation; Influenza A Virus, H5N1 Subtype; Influenza Vaccines; Interleukin-2; Islets of Langerhans; Keratinocytes; Kidney Diseases; Lamin Type A; Ligands; Lipid A; Lipid Droplets; Lipid Metabolism; Lipogenesis; Lymphocytes; Macrophages; Melanoma; Melanoma, Experimental; Methylation; Methyltransferases; Mice, Inbred BALB C; Motor Neurons; Multiomics; Mutation; Myocytes, Cardiac; Nervous System Diseases; Neurons; Neurotransmitter Agents; Obesity; Oligodeoxyribonucleotides; Orthomyxoviridae Infections; Pericardium; Polysorbates; Programmed Cell Death 1 Receptor; Proteins; RANK Ligand; RNA; RNA-Seq; Rosacea; SARS-CoV-2; Saponins; Schwann Cells; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Skin; Software; Squalene; Systems Biology; T-Lymphocytes; T-Lymphocytes, Regulatory; Transcriptome; Vacuoles; Wound Healing; Young Adult; nan</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1401,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Academic Performance; Acinar Cells; Adenocarcinoma; Alleles; Animals, Genetically Modified; Animals, Laboratory; Antigen Presentation; BRCA1 Protein; BRCA2 Protein; Bayes Theorem; Bicarbonates; Biomarkers, Tumor; Breast Neoplasms; Butadienes; Carcinogens; Carcinoma, Ovarian Epithelial; Carcinoma, Pancreatic Ductal; Case-Control Studies; Cell Differentiation; Cell Movement; Cell Proliferation; Child; Chromosome Mapping; Cilia; Demography; Developmental Biology; Diabetes Mellitus; Diabetes Mellitus, Type 1; Diabetes Mellitus, Type 2; Disease Progression; Endocrine Cells; Enzyme Inhibitors; Epithelial Cell Adhesion Molecule; Epithelium; ErbB Receptors; Estrogens; Extracellular Signal-Regulated MAP Kinases; Financial Support; Gastrointestinal Microbiome; Gene Knockout Techniques; Genetic Phenomena; Genetic Predisposition to Disease; Genetic Testing; Genetic Variation; Genome-Wide Association Study; Genomics; Genotype; Growth and Development; Hepatocytes; Hispanic or Latino; Homeostasis; Homozygote; Hyperglycemia; Inflammation; Insulin-Secreting Cells; Insulins; Integrases; Islets of Langerhans; Language; Larva; Leadership; Likelihood Functions; Linkage Disequilibrium; Liver; Liver Regeneration; MAP Kinase Signaling System; Metaplasia; Metronidazole; Mutation; Neoplasms; Nitriles; Nitroreductases; Optimism; Ovarian Neoplasms; Pancreas; Pancreas, Exocrine; Pancreatic Neoplasms; Pancreatitis; Penetrance; Polymorphism, Single Nucleotide; Prospective Studies; Quantitative Trait Loci; Quinazolines; Receptors, Estrogen; Regeneration; Regulatory Sequences, Nucleic Acid; Risk Assessment; Risk Factors; SOX9 Transcription Factor; Sequence Analysis, RNA; Signal Transduction; Stem Cells; Technology; Thinking; Transcriptome; Triple Negative Breast Neoplasms; Tyrphostins; Vesicular Transport Proteins; Volunteers; Water; Workforce; Zebrafish</t>
+          <t>Academic Performance; Acinar Cells; Adenocarcinoma; Alleles; Animals, Genetically Modified; Animals, Laboratory; Antigen Presentation; BRCA1 Protein; BRCA2 Protein; Bayes Theorem; Bicarbonates; Breast Neoplasms; Carcinogens; Carcinoma, Ovarian Epithelial; Case-Control Studies; Cell Differentiation; Child; Demography; Developmental Biology; Diabetes Mellitus; Diabetes Mellitus, Type 1; Diabetes Mellitus, Type 2; Disease Progression; Endocrine Cells; Epithelium; Financial Support; Gastrointestinal Microbiome; Gene Knockout Techniques; Genetic Phenomena; Genetic Predisposition to Disease; Genetic Testing; Genetic Variation; Growth and Development; Hispanic or Latino; Homeostasis; Homozygote; Hyperglycemia; Inflammation; Insulin-Secreting Cells; Insulins; Integrases; Islets of Langerhans; Language; Larva; Leadership; Likelihood Functions; Liver; Metaplasia; Metronidazole; Neoplasms; Nitroreductases; Optimism; Ovarian Neoplasms; Pancreas; Pancreas, Exocrine; Pancreatic Neoplasms; Pancreatitis; Penetrance; Polymorphism, Single Nucleotide; Prospective Studies; Regeneration; Risk Factors; Sequence Analysis, RNA; Signal Transduction; Stem Cells; Technology; Thinking; Transcriptome; Volunteers; Water; Workforce; Zebrafish</t>
         </is>
       </c>
     </row>
@@ -1419,11 +1411,7 @@
           <t>Pizzagalli, Diego</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Anhedonia; Depressive Disorder, Major; Reward</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1433,7 +1421,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Adaptor Proteins, Signal Transducing; Adipocytes; Aged; Aging; Ambystoma mexicanum; Amputation, Surgical; Biocompatible Materials; Biological Evolution; Biomechanical Phenomena; Birds; Black or African American; Body Patterning; Brazil; Calcitonin Gene-Related Peptide; Cartilage; Casein Kinase 1 epsilon; Cell Communication; Cell Line, Tumor; Cellular Senescence; China; Chromatin; Cicatrix; Circadian Clocks; Circadian Rhythm; Collagen; Colorectal Neoplasms; Computational Biology; Computer Simulation; Cross-Linking Reagents; Culicidae; Cytokines; Cytosol; DNA, Ancient; DNA-Binding Proteins; Dengue; Dermis; Disease Progression; Disease Susceptibility; Elephants; Embryonic Development; Epidermis; Epigenesis, Genetic; Epigenomics; Epithelial Cells; Ethnicity; Evidence Gaps; Evolution, Molecular; Extracellular Matrix; Fibroblasts; Fibrosis; Flavivirus; Fossils; Gelatin; Gene Expression; Gene Expression Profiling; Gene Expression Regulation, Developmental; Gene Expression Regulation, Neoplastic; Gene Regulatory Networks; Genome; Genomics; Glycolysis; HCT116 Cells; Hair; Hair Follicle; Hispanic or Latino; Homeodomain Proteins; Homeostasis; Hydrogels; Inflammation; Inflammatory Bowel Diseases; Internship and Residency; Intestinal Mucosa; Keloid; Keratinocytes; Latin America; Lipid Droplets; Lipid Metabolism; Lipogenesis; Locomotion; Macrophages; Mammoths; Marsupialia; Mechanistic Target of Rapamycin Complex 2; Melanocytes; Mesenchymal Stem Cells; Mice, Nude; Mitochondria; Mitochondrial Proteins; Mosquito Vectors; Multifactorial Inheritance; Multiomics; Myofibroblasts; NAD; Necroptosis; Neoplasms; Nevus; Nociceptors; Obesity; Organoids; Osteopontin; Ovosiston; Pain; Pandemic Preparedness; Pandemics; Phenotype; Phosphofructokinase-2; Phosphoprotein Phosphatases; Phosphorylation; Phylogeny; Pigmentation Disorders; Protein Serine-Threonine Kinases; Proto-Oncogene Proteins c-akt; Pruritus; Public Health; R-Loop Structures; RANK Ligand; RNA; RNA, Small Interfering; Reactive Oxygen Species; Referral and Consultation; Regeneration; Regulatory Sequences, Nucleic Acid; Reptiles; Saliva; Scalp; Schools; Secretome; Senescence-Associated Secretory Phenotype; Senotherapeutics; Sequence Analysis, RNA; Serine-Threonine Kinase 3; Signal Transduction; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Sirolimus; Skin; Skin Aging; Skin Diseases; Skin Physiological Phenomena; Skin Pigmentation; Software; Stem Cells; TOR Serine-Threonine Kinases; TRPV Cation Channels; Transcription Factors; Transcriptome; Tumor Suppressor Proteins; Urodela; Vaccines; Vaccinology; Vacuoles; West Nile virus; Wnt Signaling Pathway; World Health Organization; Wound Healing; X Chromosome; YAP-Signaling Proteins; Yellow Fever; Young Adult; Zebrafish; Zika Virus; Zika Virus Infection</t>
+          <t>Adaptor Proteins, Signal Transducing; Adipocytes; Aged; Aging; Ambystoma mexicanum; Amputation, Surgical; Biocompatible Materials; Biological Evolution; Biomechanical Phenomena; Birds; Black or African American; Body Patterning; Brazil; Calcitonin Gene-Related Peptide; Cartilage; Casein Kinase 1 epsilon; Cell Communication; Cell Line, Tumor; Cell Proliferation; Cellular Senescence; China; Chromatin; Cicatrix; Circadian Clocks; Circadian Rhythm; Collagen; Colorectal Neoplasms; Computational Biology; Computer Simulation; Cross-Linking Reagents; Culicidae; Cytokines; Cytosol; DNA, Ancient; DNA-Binding Proteins; Dengue; Dermis; Disease Progression; Disease Susceptibility; Elephants; Embryonic Development; Epidermis; Epigenesis, Genetic; Epigenomics; Epithelial Cells; Ethnicity; Evidence Gaps; Evolution, Molecular; Extracellular Matrix; Fibroblasts; Fibrosis; Flavivirus; Fossils; Gelatin; Gene Expression; Gene Expression Profiling; Gene Expression Regulation, Developmental; Gene Expression Regulation, Neoplastic; Gene Regulatory Networks; Genome; Genomics; Glycolysis; HCT116 Cells; Hair; Hair Follicle; Hispanic or Latino; Homeodomain Proteins; Homeostasis; Hydrogels; Inflammation; Inflammatory Bowel Diseases; Internship and Residency; Intestinal Mucosa; Keloid; Keratinocytes; Latin America; Lipid Droplets; Lipid Metabolism; Lipogenesis; Locomotion; Macrophages; Mammoths; Marsupialia; Mechanistic Target of Rapamycin Complex 2; Melanocytes; Mesenchymal Stem Cells; Mitochondria; Mitochondrial Proteins; Mosquito Vectors; Multifactorial Inheritance; Multiomics; Myofibroblasts; NAD; Necroptosis; Neoplasms; Nevus; Nociceptors; Obesity; Organoids; Osteopontin; Ovosiston; Pain; Pandemic Preparedness; Pandemics; Phenotype; Phosphofructokinase-2; Phosphoprotein Phosphatases; Phosphorylation; Phylogeny; Pigmentation Disorders; Protein Serine-Threonine Kinases; Proto-Oncogene Proteins c-akt; Pruritus; Public Health; R-Loop Structures; RANK Ligand; RNA; RNA, Small Interfering; Reactive Oxygen Species; Referral and Consultation; Regeneration; Regulatory Sequences, Nucleic Acid; Reptiles; Saliva; Scalp; Schools; Secretome; Senescence-Associated Secretory Phenotype; Senotherapeutics; Sequence Analysis, RNA; Serine-Threonine Kinase 3; Signal Transduction; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Sirolimus; Skin; Skin Aging; Skin Diseases; Skin Physiological Phenomena; Skin Pigmentation; Software; Stem Cells; TOR Serine-Threonine Kinases; TRPV Cation Channels; Transcription Factors; Transcriptome; Tumor Suppressor Proteins; Urodela; Vaccines; Vaccinology; Vacuoles; West Nile virus; Wnt Signaling Pathway; World Health Organization; Wound Healing; X Chromosome; YAP-Signaling Proteins; Yellow Fever; Young Adult; Zebrafish; Zika Virus; Zika Virus Infection; nan</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1433,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Anopheles; Axonemal Dyneins; Biological Evolution; Biomass; Butterflies; Cell Differentiation; Chromosomes; DNA Copy Number Variations; Diptera; Dosage Compensation, Genetic; Drosophila Proteins; Drosophila melanogaster; Ecological and Environmental Phenomena; Evolution, Molecular; Gene Conversion; Gene Expression; Gene Expression Profiling; Genetic Fitness; Genetic Speciation; Genetics; Genome; Genomics; Heterozygote; Hybridization, Genetic; INDEL Mutation; Insecta; Insecticide Resistance; Insecticides; Larva; Lepidoptera; Malaria; Multigene Family; Phylogeny; RNA; RNA, Long Noncoding; Random Allocation; Reproduction; Research; Selection, Genetic; Semen; Seminal Plasma Proteins; Sequence Analysis; Sex Characteristics; Spain; Spermatogenesis; Spermatozoa; Spiroplasma; Testis; Transcriptome; Tsetse Flies; X Chromosome</t>
+          <t>Axonemal Dyneins; Biological Evolution; Biomass; Butterflies; Cell Differentiation; Chromosomes; Diptera; Drosophila Proteins; Drosophila melanogaster; Ecological and Environmental Phenomena; Evolution, Molecular; Gene Expression; Gene Expression Profiling; Genetic Fitness; Genetic Speciation; Genetics; Genome; Genomics; Heterozygote; Hybridization, Genetic; INDEL Mutation; Insecta; Larva; Lepidoptera; Multigene Family; Phylogeny; RNA; RNA, Long Noncoding; Random Allocation; Research; Semen; Sequence Analysis; Sex Characteristics; Spain; Spermatogenesis; Spermatozoa; Spiroplasma; Testis; Transcriptome; Tsetse Flies; X Chromosome</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1445,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Adenosine Triphosphate; Apoptosis; Basic Helix-Loop-Helix Transcription Factors; Binding Sites; Biomarkers; Bioprinting; Breast Neoplasms; CRISPR-Cas Systems; Carcinoma, Renal Cell; Cell Line, Tumor; Cell Movement; Cell Plasticity; Cyclic N-Oxides; Cyclin-Dependent Kinase 9; Cyclin-Dependent Kinase Inhibitor Proteins; Cyclin-Dependent Kinases; Dimerization; Down-Regulation; Drug Resistance, Neoplasm; Electron Transport; ErbB Receptors; Fatty Acids; Gene Expression Regulation, Neoplastic; Genes, Suppressor; Heterografts; Hypoxia; Immune Checkpoint Inhibitors; Immunogenic Cell Death; Indolizines; Integrins; Kidney Neoplasms; Lab-On-A-Chip Devices; Lipid Droplets; Lipid Metabolism; Lipids; Machine Learning; Metabolism; Microscopy; Mitochondria; Motivation; Myeloid Cell Leukemia Sequence 1 Protein; Nanoparticles; Neoplasm Metastasis; Neoplasms; Neoplastic Processes; Neoplastic Stem Cells; Ovarian Neoplasms; Oxidative Phosphorylation; Oxygen; Peptides; Phosphoproteins; Protein Kinase Inhibitors; Pyridinium Compounds; RNA Polymerase II; RNA, Long Noncoding; Signal Transduction; Single-Cell Analysis; Survival Rate; Synthetic Lethal Mutations; Tetracyclines; Triple Negative Breast Neoplasms; Tumor Microenvironment; Tyrosine; Tyrosine Kinase Inhibitors; Up-Regulation; Von Hippel-Lindau Tumor Suppressor Protein; belzutifan; dinaciclib; endothelial PAS domain-containing protein 1; src-Family Kinases; von Hippel-Lindau Disease</t>
+          <t>Adenosine Triphosphate; Apoptosis; Basic Helix-Loop-Helix Transcription Factors; Binding Sites; Biomarkers; Breast Neoplasms; CRISPR-Cas Systems; Cancer Survivors; Carcinogens; Carcinoma, Renal Cell; Cell Line, Tumor; Cell Lineage; Cell Movement; Cell Plasticity; Cell Transformation, Neoplastic; Cyclic N-Oxides; Cyclin-Dependent Kinase 9; Cyclin-Dependent Kinase Inhibitor Proteins; Cyclin-Dependent Kinases; Dimerization; Down-Regulation; Drug Resistance, Neoplasm; Electron Transport; Epithelial Cell Adhesion Molecule; ErbB Receptors; Fatty Acids; Gene Expression Regulation, Neoplastic; Genes, Suppressor; Heterografts; Hypoxia; Immune Checkpoint Inhibitors; Immunogenic Cell Death; Indolizines; Integrin alpha6; Integrins; Kidney Neoplasms; Lipid Droplets; Lipid Metabolism; Lipids; Metabolism; Microscopy; Mitochondria; Motivation; Myeloid Cell Leukemia Sequence 1 Protein; Neoplasm Metastasis; Neoplasms; Neoplastic Processes; Neoplastic Stem Cells; Ovarian Neoplasms; Oxidative Phosphorylation; Oxygen; Pedigree; Peptides; Phenotype; Phosphoproteins; Protein Kinase Inhibitors; Pyridinium Compounds; RNA Polymerase II; RNA, Long Noncoding; Signal Transduction; Survival Rate; Synthetic Lethal Mutations; Tetracyclines; Transcriptome; Triple Negative Breast Neoplasms; Tumor Microenvironment; Tyrosine; Tyrosine Kinase Inhibitors; Up-Regulation; Von Hippel-Lindau Tumor Suppressor Protein; belzutifan; dinaciclib; endothelial PAS domain-containing protein 1; saracatinib; src-Family Kinases; von Hippel-Lindau Disease</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1457,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ammonia; Arabidopsis; Biodiversity; Biological Evolution; Bioprinting; Climate Change; Communicable Diseases; Denitrification; Droughts; Drug Resistance, Microbial; Ecological and Environmental Phenomena; Ecosystem; Evolution, Molecular; Gases; Metabolism; Microbiota; Nitrogen; Nitrogen Cycle; Plant Development; Plants; Printing, Three-Dimensional; Seasons; Soil; Symbiosis; Synthetic Biology; Water</t>
+          <t>Algorithms; Ammonia; Arabidopsis; Awards and Prizes; Bacteria; Biological Evolution; Bioprinting; Cell Survival; Communicable Diseases; Denitrification; Droughts; Drug Resistance, Microbial; Ecological and Environmental Phenomena; Ecosystem; Evolution, Molecular; Farmers; Gases; Genetics, Population; Metabolism; Mexico; Microbiota; Natural Science Disciplines; Nitrogen; Nitrogen Cycle; Pandemics; Plants; Plasmids; Printing, Three-Dimensional; Soil; Switzerland; Synthetic Biology; Technology; United Kingdom; Water; nan</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1469,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Adenosine Triphosphate; Aldehyde Oxidoreductases; Ammonia; Archaeal Proteins; Azotobacter vinelandii; Bacterial Proteins; Biocatalysis; Biofuels; Biosynthetic Pathways; Biotechnology; Carbon Dioxide; Carbon Monoxide; Catalysis; Chemistry, Bioinorganic; Circular Dichroism; Coenzymes; Crystallography, X-Ray; Density Functional Theory; Electron Spin Resonance Spectroscopy; Electrons; Escherichia coli; Evolution, Molecular; Formate Dehydrogenases; Gene Expression; Hydrocarbons; Hydrogenase; Iron-Sulfur Proteins; Metalloproteins; Methanosarcina; Methyltransferases; Models, Chemical; Models, Molecular; Molecular Structure; Molybdenum; Molybdoferredoxin; Multienzyme Complexes; Nitrogen; Nitrogen Fixation; Nitrogenase; Organic Chemicals; Oxidation-Reduction; Oxidoreductases; Phylogeny; Protein Binding; Protein Conformation; Protons; Recombinant Proteins; Reducing Agents; S-Adenosylmethionine; Selenious Acid; Sulfur; Tellurium; X-Ray Absorption Spectroscopy</t>
+          <t>Adenosine Triphosphate; Aldehyde Oxidoreductases; Ammonia; Azotobacter vinelandii; Bacterial Proteins; Biocatalysis; Biofuels; Biosynthetic Pathways; Biotechnology; Carbon Dioxide; Carbon Monoxide; Catalysis; Chemistry, Bioinorganic; Electrons; Escherichia coli; Evolution, Molecular; Formate Dehydrogenases; Gene Expression; Hydrocarbons; Hydrogenase; Iron-Sulfur Proteins; Metalloproteins; Methyltransferases; Models, Molecular; Molybdenum; Molybdoferredoxin; Multienzyme Complexes; Nitrogen; Nitrogen Fixation; Nitrogenase; Organic Chemicals; Oxidation-Reduction; Oxidoreductases; Phylogeny; Protons; Recombinant Proteins; Reducing Agents; S-Adenosylmethionine; Sulfur</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1493,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Academia; Algorithms; Arousal; Behavior Control; Brain; Cognition; Cognitive Dysfunction; Cognitive Neuroscience; Consciousness; Cues; Decision Making; Depression; Electroencephalography; Electrophysiology; Healthy Volunteers; Latent Infection; Leadership; Learning; Machine Learning; Magnetic Resonance Imaging; Memory; Memory Consolidation; Memory, Episodic; Mental Health; Mood Disorders; Neurobiology; Neuroimaging; Odorants; Pilot Projects; Probability; Rodentia; Sleep; Spatial Memory; Spatial Navigation; Stress Disorders, Post-Traumatic; Vacuum; Wakefulness; Young Adult</t>
+          <t>Academia; Algorithms; Arousal; Behavior Control; Brain; Cognition; Cognitive Dysfunction; Cognitive Neuroscience; Consciousness; Cues; Decision Making; Depression; Electroencephalography; Electrophysiology; Healthy Volunteers; Latent Infection; Leadership; Learning; Machine Learning; Magnetic Resonance Imaging; Memory; Memory Consolidation; Memory, Episodic; Mental Health; Mood Disorders; Neurobiology; Neuroimaging; Odorants; Pilot Projects; Probability; Rodentia; Sleep; Spatial Memory; Spatial Navigation; Stress Disorders, Post-Traumatic; Vacuum; Wakefulness</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1505,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Adipocytes; Amino Acid Sequence; Animal Fins; Animals, Genetically Modified; Aquaporins; Basic Helix-Loop-Helix Transcription Factors; Biological Evolution; Biological Transport; Biomechanical Phenomena; Body Patterning; Bone Development; Bone Morphogenetic Proteins; Bone and Bones; Branchial Region; CRISPR-Associated Protein 9; Calcium; Cartilage; Cataract; Cell Adhesion; Cell Communication; Cell Cycle Proteins; Cell Differentiation; Cell Line; Cell Lineage; Cell Movement; Cell Polarity; Cell Proliferation; Chondrocytes; Chromosomal Proteins, Non-Histone; Cichlids; Clinical Relevance; Cohesins; Computational Biology; Congenital Abnormalities; Cranial Nerves; Craniofacial Abnormalities; Embryo, Nonmammalian; Embryology; Embryonic Development; Embryonic Induction; Extracellular Matrix; Eye Proteins; Fibroblast Growth Factors; Fibroblasts; Gene Dosage; Gene Expression Profiling; Gene Expression Regulation, Developmental; Gene Knockout Techniques; Germ Cells; Gonads; Growth Plate; Growth Substances; Hand-Foot Syndrome; Heart; Hedgehog Proteins; Intestines; Jaw; Laboratories; Lakes; Larva; Lens, Crystalline; Ligaments; Lipid Droplets; Lipid Metabolism; Lipogenesis; Malawi; Mesoderm; Morphogenesis; Musculoskeletal System; Mutation; Myocardium; Neural Crest; Obesity; Osteogenesis; Parathyroid Hormone-Related Protein; Peripheral Nervous System; Permeability; Pharynx; Phenotype; Pyrophosphatases; Quantitative Trait Loci; RNA-Seq; Receptor Tyrosine Kinase-like Orphan Receptors; Receptors, Retinoic Acid; Receptors, Wnt; Refraction, Ocular; Regeneration; Regulatory Sequences, Nucleic Acid; Rhombencephalon; Sequence Homology; Sex Determination Processes; Signal Transduction; Single-Cell Analysis; Skeleton; Skull; Species Specificity; Stem Cells; Stochastic Processes; Stress, Mechanical; Structure-Activity Relationship; Synchrotrons; Systems Biology; Tendons; Tooth; Transcription Factors; Tretinoin; Vacuoles; Van Maldergem Wetzburger Verloes syndrome; Vertebrates; Water; Wnt Proteins; Wnt Signaling Pathway; X-Ray Microtomography; Zebrafish; Zebrafish Proteins</t>
+          <t>Adipocytes; Animals, Genetically Modified; Aquaporins; Biological Evolution; Biomechanical Phenomena; Bone and Bones; Branchial Region; Calcium; Cartilage; Cell Cycle Proteins; Cell Lineage; Cell Polarity; Cell Proliferation; Chondrocytes; Chromosomal Proteins, Non-Histone; Cichlids; Clinical Relevance; Cohesins; Congenital Abnormalities; Craniofacial Abnormalities; Embryo, Nonmammalian; Embryology; Embryonic Development; Embryonic Induction; Extracellular Matrix; Eye Proteins; Fibroblasts; Gene Dosage; Gene Expression Profiling; Gene Expression Regulation, Developmental; Germ Cells; Gonads; Growth Plate; Hand-Foot Syndrome; Jaw; Laboratories; Lakes; Larva; Lens, Crystalline; Ligaments; Lipid Droplets; Lipid Metabolism; Lipogenesis; Malawi; Mechanotransduction, Cellular; Mesoderm; Morphogenesis; Muscle Contraction; Mutation; Obesity; Permeability; Phenotype; Quantitative Trait Loci; Receptor Tyrosine Kinase-like Orphan Receptors; Receptors, Retinoic Acid; Receptors, Wnt; Regulatory Sequences, Nucleic Acid; Sex Determination Processes; Signal Transduction; Skeleton; Skull; Species Specificity; Systems Biology; Tendons; Tenocytes; Transcription Factors; Transcriptome; Tretinoin; Vacuoles; Van Maldergem Wetzburger Verloes syndrome; Vertebrates; Water; Wnt Proteins; Wnt Signaling Pathway; Zebrafish; Zebrafish Proteins; nan</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1517,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Actin Cytoskeleton; Acyltransferases; Aging; Alzheimer Disease; Amyloid beta-Peptides; Antibodies; Astrocytes; Axons; Bacterial Proteins; Benchmarking; Bioengineering; Biomarkers; Biophysics; Biotechnology; Biotin; Brain; Brain Injuries, Traumatic; Carcinogenesis; Cell Biology; Cell Line; Cell Line, Tumor; Cell Nucleus; Cell Proliferation; Cell Transformation, Neoplastic; Cell-Penetrating Peptides; Centrioles; Chromatin; Cilia; Ciliopathies; Coloring Agents; Complement Activation; Complement C1q; Complement C3b; Culture Media, Conditioned; DNA-Binding Proteins; Dendrites; Early Diagnosis; Embryo, Mammalian; Endocytosis; Epithelial Cells; Estrogens; Fluorescent Dyes; Gene Expression Profiling; Gene Expression Regulation; Genes, Reporter; Green Fluorescent Proteins; HEK293 Cells; HeLa Cells; Health Personnel; Heterochromatin; High-Throughput Nucleotide Sequencing; Human Body; Hydrogels; Intrinsically Disordered Proteins; Lamins; Lipopeptides; Long-Term Potentiation; Luminescent Proteins; Mass Spectrometry; Memory; Memory Disorders; Microglia; Microscopy; Microscopy, Fluorescence; Microtubule-Associated Proteins; Microtubules; Molecular Structure; Mouse Embryonic Stem Cells; Multiomics; Nerve Degeneration; Neurodegenerative Diseases; Neurons; Nuclear Lamina; Nuclear Pore; Nuclear Proteins; Nucleic Acids; Organelles; Osteoblasts; Permeability; Phenotype; Phosphoproteins; Plaque, Amyloid; Prefrontal Cortex; Progranulins; Protein Binding; Protein Biosynthesis; Protein Interaction Mapping; Protein Kinase C; Protein Processing, Post-Translational; Proteins; Proteome; Proteomics; RNA 3' End Processing; RNA Polymerase II; RNA Precursors; RNA Splicing; RNA, Messenger; RNA-Binding Proteins; RNA-Seq; Receptors, AMPA; Receptors, Progesterone; Retinal Pigment Epithelium; Ribosomes; Sequence Analysis, RNA; Sex Factors; Signal Transduction; Single Molecule Imaging; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Staining and Labeling; Streptavidin; Succinimides; Synapses; TDP-43 Proteinopathies; Thalamus; Tight Junction Proteins; Tight Junctions; Tissues; Transcriptome; Triple Negative Breast Neoplasms; Zonula Occludens-1 Protein</t>
+          <t>Acyltransferases; Aging; Alzheimer Disease; Amyloid beta-Peptides; Antibodies; Astrocytes; Axons; Benchmarking; Bioengineering; Biomarkers; Biophysics; Biotechnology; Brain; Brain Injuries; Carcinogenesis; Cell Biology; Cell Nucleus; Cell Proliferation; Cell Transformation, Neoplastic; Chromatin; Coloring Agents; Dendrites; Early Diagnosis; Endocytosis; Estrogens; Gene Expression Profiling; Gene Expression Regulation; HEK293 Cells; HeLa Cells; Health Personnel; Heterochromatin; High-Throughput Nucleotide Sequencing; Hippocampus; Human Body; Hydrogels; Intrinsically Disordered Proteins; Lamins; Long-Term Potentiation; Mass Spectrometry; Memory; Memory Disorders; Microscopy; Microscopy, Fluorescence; Molecular Structure; Multiomics; Nerve Degeneration; Neurodegenerative Diseases; Neurons; Nuclear Lamina; Nucleic Acids; Organelles; Peptides; Phenotype; Pinocytosis; Plaque, Amyloid; Prefrontal Cortex; Protein Binding; Protein Biosynthesis; Protein Interaction Mapping; Protein Kinase C; Protein Processing, Post-Translational; Proteins; Proteome; Proteomics; RNA 3' End Processing; RNA Polymerase II; RNA Precursors; RNA Processing, Post-Transcriptional; RNA Splicing; RNA, Messenger; RNA-Binding Proteins; Receptors, AMPA; Receptors, Progesterone; Ribosomes; Sequence Analysis, RNA; Sex Factors; Single Molecule Imaging; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Staining and Labeling; Synapses; Tissues; Transcriptome; Triple Negative Breast Neoplasms</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1529,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Alaska; Anthropogenic Effects; Biodiversity; Carbon Dioxide; Climate Change; Conservation of Natural Resources; Data Analysis; Ecological and Environmental Phenomena; Ecosystem; Europe; Gastropoda; Geography; Human Activities; Hydrogen-Ion Concentration; Introduced Species; Larva; Mytilus; Nitrogen; Oceans and Seas; Oxygen; Plants; Predatory Behavior; Program Evaluation; Species Specificity; Surveys and Questionnaires; Temperature; Thinking; Writing</t>
+          <t>Alaska; Anthropogenic Effects; Biodiversity; Carbon Dioxide; Climate Change; Conservation of Natural Resources; Ecological and Environmental Phenomena; Ecosystem; Europe; Gastropoda; Geography; Human Activities; Hydrogen-Ion Concentration; Introduced Species; Nitrogen; Oceans and Seas; Oxygen; Plants; Predatory Behavior; Species Specificity; Temperature</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1541,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Aged; Aged, 80 and over; Aging; Algorithms; Alzheimer Disease; Amyloid beta-Peptides; Atlases as Topic; Atrophy; Behavior, Animal; Benchmarking; Biomarkers; Brain; Brain Mapping; Calcineurin; Calcineurin Inhibitors; Cerebral Cortex; Cognition; Cognitive Dysfunction; Dentate Gyrus; Disease Progression; Dogs; Entorhinal Cortex; Gray Matter; Hippocampus; Image Processing, Computer-Assisted; Learning; Magnetic Resonance Imaging; Magnetic Resonance Spectroscopy; Memory; Mental Recall; Mental Status and Dementia Tests; NFATC Transcription Factors; Neuroimaging; Neuropsychological Tests; Oxygen; Pattern Recognition, Physiological; Pattern Recognition, Visual; Positron-Emission Tomography; Protons; Quality Control; Reading; Reference Standards; Repression, Psychology; Reproducibility of Results; Software; Spatial Learning; Tacrolimus; Temporal Lobe; Verbal Learning; Young Adult; tau Proteins</t>
+          <t>Aged; Aged, 80 and over; Aging; Algorithms; Alzheimer Disease; Amyloid beta-Peptides; Atlases as Topic; Atrophy; Behavior, Animal; Benchmarking; Biomarkers; Brain; Brain Mapping; Calcineurin; Calcineurin Inhibitors; Cerebral Cortex; Cognition; Cognitive Dysfunction; Disease Progression; Dogs; Entorhinal Cortex; Gray Matter; Hippocampus; Image Processing, Computer-Assisted; Learning; Magnetic Resonance Imaging; Magnetic Resonance Spectroscopy; Memory; Mental Status and Dementia Tests; NFATC Transcription Factors; Neuroimaging; Neuropsychological Tests; Oxygen; Pattern Recognition, Physiological; Pattern Recognition, Visual; Positron-Emission Tomography; Protons; Quality Control; Reading; Reference Standards; Repression, Psychology; Reproducibility of Results; Software; Spatial Learning; Tacrolimus; Temporal Lobe; Verbal Learning; Young Adult; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1553,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Biological Evolution; Fishes; Neocortex; Phylogeny; Physiology, Comparative; Reptiles; Vertebrates</t>
+          <t>Biological Evolution; Physiology, Comparative</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1565,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AMP-Activated Protein Kinases; Asymptomatic Infections; Bacteria; Bacterial Proteins; Causality; Cell Biology; Cell Culture Techniques; Cell Cycle; Centers for Disease Control and Prevention, U.S.; Centrosome; Chlamydia; Chlamydia Infections; Chlamydia trachomatis; Cilia; Epithelial Cells; Epithelium; Escherichia coli; Fallopian Tubes; Gene Expression Regulation, Bacterial; Gene Knockdown Techniques; Golgi Apparatus; HeLa Cells; Infertility; Lipids; Membrane Proteins; Membranes; Microbiology; Microbiota; Microscopy; Oocytes; Operon; Organelles; Ovary; Pregnancy; Pregnancy, Ectopic; Proto-Oncogene Proteins c-akt; RNA; RNA, Messenger; RNA, Small Untranslated; Reverse Genetics; Staining and Labeling; Stem Cells; Vacuoles</t>
+          <t>AMP-Activated Protein Kinases; Asymptomatic Infections; Bacteria; Bacterial Proteins; Causality; Cell Biology; Cell Culture Techniques; Cell Cycle; Centers for Disease Control and Prevention, U.S.; Centrosome; Chlamydia; Chlamydia Infections; Chlamydia trachomatis; Cilia; Epithelial Cells; Epithelium; Escherichia coli; Fallopian Tubes; Gene Expression Regulation, Bacterial; Gene Knockdown Techniques; Golgi Apparatus; HeLa Cells; Infertility; Lipids; Membrane Proteins; Membranes; Microbiology; Microbiota; Microscopy; Oocytes; Organelles; Ovary; Pregnancy; Pregnancy, Ectopic; Proto-Oncogene Proteins c-akt; RNA; RNA, Messenger; RNA, Small Untranslated; Reverse Genetics; Sorting Nexins; Staining and Labeling; Stem Cells; Vacuoles</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1577,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Acetylation; Adolescent; Allosteric Regulation; Animals, Genetically Modified; Animals, Newborn; Brain; CA1 Region, Hippocampal; Cause of Death; Cigarette Smoking; Cognition; Cognitive Dysfunction; Epigenesis, Genetic; Excitatory Postsynaptic Potentials; Hippocampus; Histones; Interneurons; Lactation; Long-Term Potentiation; Long-Term Synaptic Depression; Longevity; Maternal Exposure; Memory; Mortality, Premature; Mutation; N-Methylaspartate; Neuregulin-1; Nicotiana; Nicotine; Nicotinic Agonists; Phosphorylation; Prefrontal Cortex; Pregnancy; Pyramidal Cells; Quinolines; Rats, Sprague-Dawley; Receptor, Muscarinic M1; Receptors, Metabotropic Glutamate; Receptors, Muscarinic; Receptors, N-Methyl-D-Aspartate; Receptors, Nicotinic; Reward; Schizophrenia; Signal Transduction; Smoking; Smoking Cessation; Tobacco Smoking; Tobacco Use; Tobacco Use Disorder; Transcription, Genetic; Tyrosine; Up-Regulation; src-Family Kinases</t>
+          <t>Acetylation; Adolescent; Allosteric Regulation; Animals, Genetically Modified; Brain; CA1 Region, Hippocampal; Cause of Death; Cognition; Cognitive Dysfunction; Epigenesis, Genetic; Hippocampus; Histones; Interneurons; Long-Term Potentiation; Longevity; Mortality, Premature; Mutation; N-Methylaspartate; Neuregulin-1; Nicotiana; Nicotine; Nicotinic Agonists; Phosphorylation; Prefrontal Cortex; Pregnancy; Pyramidal Cells; Quinolines; Rats, Sprague-Dawley; Receptor, Muscarinic M1; Receptors, N-Methyl-D-Aspartate; Receptors, Nicotinic; Reward; Schizophrenia; Signal Transduction; Smoking; Smoking Cessation; Tobacco Smoking; Tobacco Use; Tobacco Use Disorder; Transcription, Genetic; Tyrosine; Up-Regulation; nan; src-Family Kinases</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1589,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Algorithms; Alleles; Bacterial Translocation; Biological Evolution; Biomarkers; Brain; Breast Neoplasms; Carcinogenesis; Carcinoma, Hepatocellular; Cell Differentiation; Cell Line, Tumor; Cell Plasticity; Cell Proliferation; Cell Survival; Chromosomes, Human, X; Clustered Regularly Interspaced Short Palindromic Repeats; Colonic Neoplasms; Computational Biology; Contraindications, Drug; Dendritic Cells; Disease Progression; Down-Regulation; Drosophila Proteins; Drosophila melanogaster; Drug Administration Schedule; Drug Synergism; Dysbiosis; Embryonic Development; Epigenesis, Genetic; Epigenomics; Eutheria; Evolution, Molecular; Fetal Stem Cells; Gastrointestinal Microbiome; Gene Editing; Gene Expression Profiling; Gene Expression Regulation; Gene Expression Regulation, Neoplastic; Gene Frequency; Genes, X-Linked; Genetic Fitness; Genetic Linkage; Genetics; Genital Neoplasms, Female; Glomerulonephritis; Glutamine; Health; Homeodomain Proteins; Immunosuppressive Agents; Incidence; Kidney; Lactobacillus; Life Style; Liver Neoplasms; Lupus Erythematosus, Systemic; Lupus Nephritis; Lymphadenopathy; Marsupialia; Metabolic Reprogramming; Mice, Inbred BALB C; Mice, Inbred MRL lpr; MicroRNAs; Microscopy, Fluorescence; Models, Genetic; Molecular Biology; Multigene Family; Mutation; Neoplasms; Neoplastic Processes; Neoplastic Stem Cells; Optical Imaging; Organoids; Ovarian Neoplasms; Oxidative Phosphorylation; Precision Medicine; Prognosis; Proteinuria; RNA; RNA, Guide, CRISPR-Cas Systems; RNA, Long Noncoding; RNA, Ribosomal, 16S; RNA, Untranslated; RNA-Seq; Real-Time Polymerase Chain Reaction; Selection, Genetic; Sex Characteristics; Sex Chromosomes; Specific Pathogen-Free Organisms; Spleen; Splenomegaly; Stem Cells; Stress, Physiological; Terpenes; Toll-Like Receptor 5; Trans-Activators; Tretinoin; Tumor Microenvironment; Vitamin A; X Chromosome; X Chromosome Inactivation; Y Chromosome</t>
+          <t>Algorithms; Alleles; Biological Evolution; Biomarkers; Brain; Breast Neoplasms; Carcinogenesis; Carcinoma, Hepatocellular; Cell Differentiation; Cell Line, Tumor; Cell Plasticity; Cell Proliferation; Cell Survival; Chromosomes, Human, X; Clustered Regularly Interspaced Short Palindromic Repeats; Colonic Neoplasms; Computational Biology; Down-Regulation; Drosophila Proteins; Drosophila melanogaster; Dysbiosis; Embryonic Development; Epigenesis, Genetic; Epigenomics; Eutheria; Evolution, Molecular; Fetal Stem Cells; Gastrointestinal Microbiome; Gene Editing; Gene Expression Profiling; Gene Expression Regulation, Neoplastic; Gene Frequency; Genes, X-Linked; Genetic Fitness; Genetic Linkage; Genetics; Genital Neoplasms, Female; Glomerulonephritis; Glutamine; Health; Homeodomain Proteins; Incidence; Kidney; Lactobacillus; Life Style; Liver Neoplasms; Lupus Nephritis; Lymphadenopathy; Marsupialia; Metabolic Reprogramming; Mice, Inbred MRL lpr; MicroRNAs; Microscopy, Fluorescence; Models, Genetic; Molecular Biology; Multigene Family; Mutation; Neoplasms; Neoplastic Processes; Neoplastic Stem Cells; Optical Imaging; Organoids; Ovarian Neoplasms; Oxidative Phosphorylation; Precision Medicine; Prognosis; Proteinuria; RNA; RNA, Guide, CRISPR-Cas Systems; RNA, Long Noncoding; RNA, Ribosomal, 16S; RNA, Untranslated; Selection, Genetic; Sex Characteristics; Sex Chromosomes; Spleen; Splenomegaly; Stem Cells; Stress, Physiological; Toll-Like Receptor 5; Trans-Activators; Tumor Microenvironment; X Chromosome; X Chromosome Inactivation; Y Chromosome</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1601,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid beta-Peptides; Apolipoproteins E; Astrocytes; Autism Spectrum Disorder; Axons; Brain; CD8-Positive T-Lymphocytes; Cell Communication; Cell Line; Cell Nucleus; Cell Proliferation; Cellular Reprogramming; Central Nervous System; Chromatin Immunoprecipitation Sequencing; Cocaine; Demyelinating Diseases; Disease Progression; Down Syndrome; Encephalitis Virus, Japanese; Encephalitis, Japanese; Epigenesis, Genetic; Epigenomics; Fatty Acids, Volatile; Ganglia, Spinal; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genetic Variation; Genetics; Genomics; Habenula; Immunity, Innate; Inflammation; Integrins; Killer Cells, Natural; Memory; MicroRNAs; Microglia; Multiomics; Multiple Sclerosis; Myelin Sheath; Myeloid Cells; NF-KappaB Inhibitor alpha; NF-kappa B; Nerve Regeneration; Nervous System Malformations; Neurodegenerative Diseases; Neuroglia; Neuroinflammatory Diseases; Neurons; Occipital Lobe; Oligodendrocyte Precursor Cells; Oligodendroglia; Parkinson Disease; Parkinsonian Disorders; Plaque, Amyloid; Postmortem Changes; Proteomics; Pseudogenes; RNA; RNA, Small Nuclear; RNA-Seq; Rats, Sprague-Dawley; Recurrence; Remyelination; Resilience, Psychological; Sensory Receptor Cells; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Spatial Memory; Spinal Cord; Spinal Cord Injuries; Sterol Regulatory Element Binding Protein 1; Stroke; Substance-Related Disorders; Systems Biology; Tauopathies; Time Factors; Transcription Factors; Transcriptome; White Matter; Wound Healing; tau Proteins</t>
+          <t>Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amyloid beta-Peptides; Apolipoproteins E; Astrocytes; Autism Spectrum Disorder; Axons; Brain; CD8-Positive T-Lymphocytes; Cell Communication; Cell Line; Cell Nucleus; Cell Proliferation; Cellular Reprogramming; Central Nervous System; Chromatin Immunoprecipitation Sequencing; Cocaine; Demyelinating Diseases; Disease Progression; Down Syndrome; Encephalitis Virus, Japanese; Encephalitis, Japanese; Epigenesis, Genetic; Epigenomics; Fatty Acids, Volatile; Ganglia, Spinal; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genetic Variation; Genetics; Genomics; Habenula; Immunity, Innate; Inflammation; Integrases; Integrins; Killer Cells, Natural; Memory; MicroRNAs; Microglia; Multiomics; Multiple Sclerosis; Myelin Sheath; Myeloid Cells; NF-KappaB Inhibitor alpha; NF-kappa B; Natural Killer T-Cells; Nerve Regeneration; Nervous System Malformations; Neurodegenerative Diseases; Neuroglia; Neuroinflammatory Diseases; Neurons; Occipital Lobe; Oligodendrocyte Precursor Cells; Oligodendroglia; Parkinson Disease; Parkinsonian Disorders; Plaque, Amyloid; Postmortem Changes; Proteomics; Pseudogenes; RNA; RNA, Small Nuclear; RNA-Seq; Rats, Sprague-Dawley; Recurrence; Remyelination; Resilience, Psychological; Sensory Receptor Cells; Sequence Analysis, RNA; Signal Transduction; Single-Cell Analysis; Spatial Memory; Spinal Cord; Spinal Cord Injuries; Sterol Regulatory Element Binding Protein 1; Stroke; Substance-Related Disorders; Systems Biology; Tauopathies; Time Factors; Transcription Factors; Transcriptome; White Matter; Wound Healing; nan; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1613,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Additional Terms; Antelopes; Anthropogenic Effects; Bacteria; Biodiversity; Biological Specimen Banks; Biomass; Biota; California; Capacity Building; Carbon; Carbon Dioxide; Climate Change; Conservation of Natural Resources; Data Science; Diet; Dissolved Organic Matter; Ecological and Environmental Phenomena; Ecology; Ecosystem; Environmental Indicators; Environmental Monitoring; Europe; Eutrophication; Feeding Behavior; Fires; Food Chain; Forests; Fresh Water; Freshwater Biology; Guidelines as Topic; Hunting; Hydrobiology; Interdisciplinary Research; Introduced Species; Lakes; Literacy; Microbiota; Mobile Applications; Nitrogen; North America; Nutrients; Organic Chemicals; Phytoplankton; Planets; Plankton; Ponds; Population Dynamics; Predatory Behavior; Remote Sensing; Remote Sensing Technology; Resilience, Psychological; Salinity; Seasons; Smoke; Technology; Temperature; Time Factors; Vertebrates; Water Quality; Wildfires; Workforce; Zooplankton</t>
+          <t>Additional Terms; Antelopes; Anthropogenic Effects; Bacteria; Biodiversity; Biological Specimen Banks; Biomass; Biota; Capacity Building; Carbon Dioxide; Climate Change; Conservation of Natural Resources; Data Science; Diet; Dissolved Organic Matter; Ecological and Environmental Phenomena; Ecology; Ecosystem; Environmental Indicators; Environmental Monitoring; Europe; Feeding Behavior; Fires; Food Chain; Forests; Fresh Water; Freshwater Biology; Guidelines as Topic; Hunting; Hydrobiology; Interdisciplinary Research; Introduced Species; Lakes; Literacy; Mobile Applications; North America; Organic Chemicals; Phytoplankton; Planets; Plankton; Ponds; Population Dynamics; Remote Sensing; Remote Sensing Technology; Resilience, Psychological; Salinity; Seasons; Smoke; Technology; Temperature; Time Factors; Vertebrates; Water Quality; Wildfires; Workforce; Zooplankton</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1625,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ATP-Binding Cassette Transporters; Aged; Allergy and Immunology; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Astrocytes; Biological Phenomena; Brain; COVID-19; Calcium; Caregivers; Cognition; Cognitive Dysfunction; Communicable Disease Control; Complement Activation; Complement C1q; Complement C5a; Complement System Proteins; Cuprizone; Demyelinating Diseases; Disease Progression; Gastrointestinal Microbiome; Gene Expression; Gene Knock-In Techniques; Genetic Variation; Genotype; Hippocampus; Immune System; Immunity, Innate; Immunologic Factors; Incidence; Inflammation; Long-Term Potentiation; Lysosomes; Membrane Glycoproteins; Memory Disorders; Metabolomics; Microbiota; Microglia; Microscopy; Mutation; Neurodegenerative Diseases; Neuroglia; Neuroinflammatory Diseases; Neuronal Plasticity; Neurons; Neuroprotection; Phagocytosis; Plaque, Amyloid; RNA Splicing; RNA-Seq; Receptor, Anaphylatoxin C5a; Receptors, Complement; Receptors, Immunologic; Resilience, Psychological; Sex Characteristics; Signal Transduction; Synapses; Tauopathies; Therapeutics; hydrocinnamate-cyclo(ornithyl-prolyl-cyclohexylalanyl-tryptophyl-arginyl); tau Proteins</t>
+          <t>ATP-Binding Cassette Transporters; Aged; Allergy and Immunology; Alzheimer Disease; Amyloid; Amyloid beta-Peptides; Amyloid beta-Protein Precursor; Apolipoproteins E; Astrocytes; Biological Phenomena; Brain; Calcium; Cognition; Cognitive Dysfunction; Complement Activation; Complement C1q; Complement C5a; Complement System Proteins; Cuprizone; Demyelinating Diseases; Disease Progression; Gastrointestinal Microbiome; Gene Expression; Gene Knock-In Techniques; Genetic Variation; Genotype; Hippocampus; Immune System; Immunity, Innate; Immunologic Factors; Incidence; Inflammation; Long-Term Potentiation; Lysosomes; Membrane Glycoproteins; Memory Disorders; Metabolomics; Microbiota; Microglia; Microscopy; Mutation; Neurodegenerative Diseases; Neuroglia; Neuroinflammatory Diseases; Neuronal Plasticity; Neurons; Neuroprotection; Phagocytosis; Plaque, Amyloid; RNA Splicing; RNA-Seq; Receptor, Anaphylatoxin C5a; Receptors, Complement; Receptors, Immunologic; Resilience, Psychological; Sex Characteristics; Signal Transduction; Synapses; Tauopathies; Therapeutics; hydrocinnamate-cyclo(ornithyl-prolyl-cyclohexylalanyl-tryptophyl-arginyl); tau Proteins</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1637,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Actin Cytoskeleton; Actins; Adenosine Triphosphate; Alleles; Ankyrins; Axons; Blood-Brain Barrier; Calcium; Casein Kinase Idelta; Cell Death; Cytoskeleton; Dendrites; Drosophila melanogaster; Endothelial Cells; Energy Metabolism; Extracellular Matrix; Gene Expression Profiling; Glutamine; Huntington Disease; Integrins; Microtubules; Mitochondria; Mitochondrial Dynamics; Nerve Regeneration; Neurites; Neurodegenerative Diseases; Neurogenesis; Neuroglia; Neurons; Neuroprotection; Neuroprotective Agents; Peptides; Peripheral Nervous System; Potassium Channels, Inwardly Rectifying; Proteolysis; Regeneration; Sensory Receptor Cells; Signal Transduction; Software; Spinocerebellar Ataxias; Time-Lapse Imaging; Transgenes; polyglutamine</t>
+          <t>Actin Cytoskeleton; Actins; Adenosine Triphosphate; Alleles; Axons; Blood-Brain Barrier; Calcium; Cell Death; Cytoskeleton; Dendrites; Drosophila melanogaster; Endothelial Cells; Energy Metabolism; Extracellular Matrix; Gene Expression Profiling; Glutamine; Huntington Disease; Integrins; Microtubules; Mitochondria; Mitochondrial Dynamics; Nerve Regeneration; Neurites; Neurodegenerative Diseases; Neurogenesis; Neuroglia; Neurons; Neuroprotection; Neuroprotective Agents; Peptides; Peripheral Nervous System; Potassium Channels, Inwardly Rectifying; Proteolysis; Regeneration; Sensory Receptor Cells; Signal Transduction; Spinocerebellar Ataxias; Time-Lapse Imaging; Transgenes; polyglutamine</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1649,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6-methyladenine; Academia; Adenosine; Aged; Algorithms; Alternative Splicing; Alzheimer Disease; Amyotrophic Lateral Sclerosis; Animals, Genetically Modified; Artificial Intelligence; Astrocytes; Ataxin-1; Atrophy; Autophagy; Biological Phenomena; Biomarkers; Biomedical Research; Biotin; Brain; Brain-Derived Neurotrophic Factor; C9orf72 Protein; Calcium Signaling; Caregivers; Case-Control Studies; Cell Death; Cell Differentiation; Cell Line; Cell- and Tissue-Based Therapy; Cells, Cultured; Cerebellum; Cerebral Cortex; Child; Child, Preschool; Chorea; Chromatin; Chromatin Immunoprecipitation Sequencing; Chromatography, Liquid; Clinical Trials, Phase I as Topic; Clustered Regularly Interspaced Short Palindromic Repeats; Cognition; Cognitive Dysfunction; Communication; Corpus Striatum; DNA Breaks, Double-Stranded; DNA Damage; DNA Repair; DNA-Binding Proteins; Deep Learning; Delayed Diagnosis; Dementia; Demography; Depression; Dihydroxyphenylalanine; Disease Progression; Dopaminergic Neurons; Drug Development; Dystonia 3, Torsion, X-Linked; Epigenesis, Genetic; Epigenomics; Epilepsies, Partial; Exons; Feasibility Studies; Fibroblasts; Frontotemporal Dementia; Frontotemporal Lobar Degeneration; Gene Editing; Gene Expression Profiling; Gene Expression Regulation; Genetic Association Studies; Genetic Diseases, X-Linked; Genetic Predisposition to Disease; Genetic Therapy; Genome-Wide Association Study; HeLa Cells; Hematopoietic Stem Cell Transplantation; Histones; Hospitalization; Huntingtin Protein; Huntington Disease; Immunosuppression Therapy; Induced Pluripotent Stem Cells; Inosine; Intermediate Filaments; Intranuclear Inclusion Bodies; Isomerism; Lewy Bodies; Ligases; Liquid Chromatography-Mass Spectrometry; Lysosomes; Medium Spiny Neurons; Methylation; Methyltransferases; Microglia; Microscopy; Mitochondria; Mitochondrial Proteins; Motor Neurons; Multiomics; Muscle, Skeletal; Mutation; Negotiating; Nervous System Diseases; Neural Stem Cells; Neurites; Neurobiology; Neurodegenerative Diseases; Neurons; Neurons, Efferent; Oligonucleotides, Antisense; Optogenetics; Organelles; Outcome Assessment, Health Care; Parkinson Disease; Peptides; Pharmaceutical Preparations; Phenotype; Pluripotent Stem Cells; Poly Adenosine Diphosphate Ribose; Prevalence; Prisoners; Promoter Regions, Genetic; Protein Binding; Protein Biosynthesis; Protein Isoforms; Proteins; Proteome; Proteomics; Proteostasis; Quantitative Trait Loci; RNA; RNA Methylation; RNA Splicing; RNA Stability; RNA, Messenger; RNA, Small Interfering; RNA-Binding Proteins; Receptors, Antigen, T-Cell; Receptors, Metabotropic Glutamate; Regenerative Medicine; Registries; Research Report; Retroelements; Robotic Surgical Procedures; SUMO-1 Protein; Salts; Seizures; Sequence Analysis, RNA; Signal Transduction; Sodium Chloride; Spinocerebellar Ataxias; Stem Cell Transplantation; Stem Cells; Sumoylation; Superoxide Dismutase-1; Synapses; Synapsins; Synaptosomes; Synucleins; Systems Biology; Tandem Mass Spectrometry; Tandem Repeat Sequences; Terminology as Topic; Transcription, Genetic; Transcriptome; Translational Science, Biomedical; Treatment Outcome; Trinucleotide Repeat Expansion; Trinucleotide Repeats; Ubiquitin; Ubiquitin-Protein Ligases; Whole Genome Sequencing; gamma-Aminobutyric Acid</t>
+          <t>6-methyladenine; Academia; Adenosine; Aged; Algorithms; Alternative Splicing; Alzheimer Disease; Amyotrophic Lateral Sclerosis; Animals, Genetically Modified; Artificial Intelligence; Astrocytes; Ataxin-1; Atrophy; Autophagy; Biological Phenomena; Biomarkers; Biomedical Research; Biotin; Brain; Brain-Derived Neurotrophic Factor; C9orf72 Protein; Calcium Signaling; Caregivers; Case-Control Studies; Cell Death; Cell Differentiation; Cell Line; Cell- and Tissue-Based Therapy; Cells, Cultured; Cerebellum; Cerebral Cortex; Child; Child, Preschool; Chorea; Chromatin; Chromatin Immunoprecipitation Sequencing; Chromatography, Liquid; Clinical Trials, Phase I as Topic; Clustered Regularly Interspaced Short Palindromic Repeats; Cognition; Cognitive Dysfunction; Communication; Corpus Striatum; DNA Breaks, Double-Stranded; DNA Damage; DNA Repair; DNA-Binding Proteins; Deep Learning; Delayed Diagnosis; Dementia; Demography; Depression; Dihydroxyphenylalanine; Disease Progression; Dopaminergic Neurons; Drug Development; Dystonia 3, Torsion, X-Linked; Edema; Electrophysiology; Embryonic Stem Cells; Epigenesis, Genetic; Epigenomics; Epilepsies, Partial; Exons; Feasibility Studies; Fibroblasts; Frontotemporal Dementia; Frontotemporal Lobar Degeneration; Gene Editing; Gene Expression Profiling; Gene Expression Regulation; Genetic Association Studies; Genetic Diseases, X-Linked; Genetic Therapy; Genetic Variation; Graft Rejection; HeLa Cells; Hematopoietic Stem Cell Transplantation; Histones; Hospitalization; Huntingtin Protein; Huntington Disease; Immunosuppression Therapy; Induced Pluripotent Stem Cells; Inflammation; Inosine; Intermediate Filaments; Intranuclear Inclusion Bodies; Isomerism; Lewy Bodies; Ligases; Liquid Chromatography-Mass Spectrometry; Lysosomes; Medium Spiny Neurons; Methylation; Methyltransferases; Microglia; Microscopy; Microscopy, Electron; Mitochondria; Mitochondrial Proteins; Motor Neurons; Multiomics; Muscle, Skeletal; Mutation; Negotiating; Nervous System Diseases; Neural Stem Cells; Neurites; Neurobiology; Neurodegenerative Diseases; Neurons; Neurons, Efferent; Oligonucleotides, Antisense; Optogenetics; Organelles; Outcome Assessment, Health Care; Parkinson Disease; Peptides; Pharmaceutical Preparations; Phenotype; Pluripotent Stem Cells; Poly Adenosine Diphosphate Ribose; Prevalence; Primates; Prisoners; Promoter Regions, Genetic; Protein Binding; Protein Biosynthesis; Protein Isoforms; Proteins; Proteome; Proteomics; Proteostasis; Quantitative Trait Loci; RNA; RNA Methylation; RNA Splicing; RNA Stability; RNA, Messenger; RNA, Small Interfering; RNA-Binding Proteins; Receptors, Antigen, T-Cell; Receptors, Metabotropic Glutamate; Regenerative Medicine; Registries; Research Report; Retroelements; Robotic Surgical Procedures; SUMO-1 Protein; Salts; Seizures; Seizures, Febrile; Sequence Analysis, RNA; Signal Transduction; Sodium Chloride; Spinocerebellar Ataxias; Stem Cell Transplantation; Stem Cells; Sumoylation; Superoxide Dismutase-1; Synapses; Synapsins; Synaptosomes; Synucleins; Systems Biology; Tandem Mass Spectrometry; Tandem Repeat Sequences; Terminology as Topic; Tissue Distribution; Transcription, Genetic; Transcriptome; Translational Science, Biomedical; Treatment Outcome; Trinucleotide Repeat Expansion; Trinucleotide Repeats; Ubiquitin; Ubiquitin-Protein Ligases; Whole Genome Sequencing; gamma-Aminobutyric Acid</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1661,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Algorithms; Alleles; Computer Simulation; Demography; Ecological and Environmental Phenomena; Evolution, Molecular; Genetic Loci; Genetics, Population; Genome, Human; Models, Genetic; Mutation; Pedigree; Phylogeny; Polymorphism, Genetic; Software; Uncertainty</t>
+          <t>Algorithms; Alleles; Computer Simulation; Demography; Ecological and Environmental Phenomena; Genetics, Population; Mutation; Phylogeny; Software; Uncertainty</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1673,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ADP-ribosyl Cyclase; AMP-Activated Protein Kinases; Adaptive Immunity; Adoptive Transfer; Aged; Aging; Allergy and Immunology; Alzheimer Disease; Amyotrophic Lateral Sclerosis; Antibodies, Blocking; Antigens; Antiviral Agents; Arm; Autoimmunity; B7-H1 Antigen; Brain; CD4-Positive T-Lymphocytes; CD8-Positive T-Lymphocytes; Calcium Signaling; Caregivers; Cell Differentiation; Cell Line, Tumor; Cell Movement; Cell Proliferation; Cell Survival; Chemokine CCL17; Chemokine CCL22; Chromatin; Chronic Disease; Cognition; Cognitive Dysfunction; Coloring Agents; Delivery of Health Care; Dendritic Cells; Dengue; Diet; Disease-Free Survival; Epigenesis, Genetic; Feasibility Studies; Ficus; Financing, Organized; Flow Cytometry; Forkhead Box Protein O3; Gene Expression Profiling; Genetic Predisposition to Disease; HIV Infections; HMGB2 Protein; Hemorrhagic Fever, Ebola; Hepatitis A Virus Cellular Receptor 2; Hepatitis B; Hepatitis C; Homeostasis; Immune Checkpoint Inhibitors; Immune Checkpoint Proteins; Immune System; Immunity; Immunoglobulin G; Immunologic Memory; Immunologic Techniques; Immunosuppression Therapy; Immunotherapy; Incidence; Influenza A Virus, H1N1 Subtype; Influenza A Virus, H7N9 Subtype; Intravital Microscopy; Ligands; Longevity; Lymph Nodes; Lymphocyte Activation; Lymphocytes, Tumor-Infiltrating; Lymphocytic Choriomeningitis; Lymphocytic choriomeningitis virus; Macrophages; Melanoma; Membrane Glycoproteins; Memory T Cells; Metabolic Networks and Pathways; Microbiota; Microscopy; Military Personnel; Molecular Biology; Molecular Targeted Therapy; Morbidity; Mutation; Myeloid Cells; Natural Killer T-Cells; Neoadjuvant Therapy; Neoplasms; Neoplasms, Second Primary; Nuclear Proteins; P-Selectin; P-selectin ligand protein; Persistent Infection; Phenotype; Phosphoprotein Phosphatases; PrPC Proteins; Prion Proteins; Programmed Cell Death 1 Receptor; Receptors, Antigen, T-Cell; Research; Risk Factors; SARS-CoV-2; Sequence Analysis, RNA; Seven in Absentia Proteins; Signal Transduction; Skin Neoplasms; Spleen; Survival Rate; T-Cell Exhaustion; T-Lymphocytes; T-Lymphocytes, Regulatory; Transcription Factors; Treatment Outcome; Tumor Microenvironment; Ubiquitin-Protein Ligases; Up-Regulation; Vaccines; Virus Diseases; protein phosphatase 6</t>
+          <t>ADP-ribosyl Cyclase; AMP-Activated Protein Kinases; Adaptive Immunity; Aged; Aging; Allergy and Immunology; Alzheimer Disease; Amyotrophic Lateral Sclerosis; Antibodies, Blocking; Antigens; Antiviral Agents; Arm; Autoimmunity; B7-H1 Antigen; Brain; CD4-Positive T-Lymphocytes; CD8-Positive T-Lymphocytes; Calcium Signaling; Caregivers; Cell Differentiation; Cell Line, Tumor; Cell Movement; Cell Proliferation; Cell Survival; Chromatin; Chronic Disease; Cognition; Cognitive Dysfunction; Coloring Agents; Delivery of Health Care; Dendritic Cells; Dengue; Diet; Disease-Free Survival; Epigenesis, Genetic; Feasibility Studies; Ficus; Financing, Organized; Flow Cytometry; Gene Expression Profiling; Genetic Predisposition to Disease; HIV Infections; HMGB2 Protein; Hemorrhagic Fever, Ebola; Hepatitis A Virus Cellular Receptor 2; Hepatitis B; Hepatitis C; Homeostasis; Immune Checkpoint Inhibitors; Immune Checkpoint Proteins; Immune System; Immunity; Immunoglobulin G; Immunologic Memory; Immunologic Techniques; Immunosuppression Therapy; Immunotherapy; Incidence; Influenza A Virus, H1N1 Subtype; Influenza A Virus, H7N9 Subtype; Intravital Microscopy; Ligands; Longevity; Lymph Nodes; Lymphocyte Activation; Lymphocytic Choriomeningitis; Lymphocytic choriomeningitis virus; Macrophages; Melanoma; Membrane Glycoproteins; Memory T Cells; Metabolic Networks and Pathways; Microbiota; Microscopy; Military Personnel; Molecular Biology; Morbidity; Mutation; Myeloid Cells; Natural Killer T-Cells; Neoadjuvant Therapy; Neoplasms; Neoplasms, Second Primary; P-Selectin; P-selectin ligand protein; Persistent Infection; Phosphoprotein Phosphatases; PrPC Proteins; Prion Proteins; Programmed Cell Death 1 Receptor; Receptors, Antigen, T-Cell; Research; Risk Factors; SARS-CoV-2; Sequence Analysis, RNA; Signal Transduction; Skin Neoplasms; Spleen; Survival Rate; T-Cell Exhaustion; T-Lymphocytes; Transcription Factors; Treatment Outcome; Tumor Microenvironment; Up-Regulation; Vaccines; Virus Diseases; protein phosphatase 6</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1685,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Acclimatization; Actinomycetales; Alternaria; Ants; Arthropods; Atmosphere; Bacteria; Biomass; Canada; Carbon; Carbon Cycle; Carbon Dioxide; Carbon Sequestration; Climate Change; Climate Models; Cold Temperature; Computers; Crop Production; Dermabrasion; Droughts; Ecological and Environmental Phenomena; Ecology; Ecosystem; Extracellular Polymeric Substance Matrix; Farmers; Forests; Fungi; Gene Expression Profiling; Genotype; Grassland; Hawaii; Hot Temperature; Hydrogen-Ion Concentration; Incidence; Information Dissemination; Lepidoptera; Life History Traits; Longevity; Metagenome; Metagenomics; Microbiota; Mycorrhizae; Nanoparticles; Neon; Nitrogen; Plant Development; Plants; Poaceae; Quantum Dots; Reproducibility of Results; Resilience, Psychological; Seedlings; Seeds; Soil; Soil Microbiology; Songbirds; Survivorship; Temperature; Thermotolerance; Uncertainty; Water; West Nile Fever; West Nile virus; Wildfires</t>
+          <t>Actinomycetales; Alaska; Alternaria; Anti-Bacterial Agents; Ants; Arthropods; Bacteria; Biomass; Canada; Carbon; Carbon Dioxide; Climate Change; Climate Models; Cold Temperature; Computers; Crop Production; Dermabrasion; Droughts; Drug Resistance, Bacterial; Ecological and Environmental Phenomena; Ecology; Ecosystem; Extracellular Polymeric Substance Matrix; Farmers; Forests; Fungi; Gene Expression Profiling; Genes, Bacterial; Genome, Bacterial; Genotype; Global Warming; Grassland; Hawaii; Hot Temperature; Incidence; Information Dissemination; Lepidoptera; Life History Traits; Longevity; Metagenome; Metagenomics; Microbiota; Mycorrhizae; Neon; Nitrogen; Plant Development; Plants; Poaceae; Resilience, Psychological; Seedlings; Seeds; Soil; Soil Microbiology; Songbirds; Survivorship; Temperature; Thermotolerance; Transcription, Genetic; Transcriptome; Uncertainty; Water; West Nile Fever; West Nile virus; Wildfires</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1697,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Alcohol Oxidoreductases; Antineoplastic Agents; Bacterial Proteins; Big Data; Binding Sites; Biological Products; COVID-19; Catalytic Domain; Crystallography; Daunorubicin; Drug Design; Gene Library; Ligands; Machine Learning; Molecular Docking Simulation; Molecular Dynamics Simulation; Mutagenesis; Pantetheine; Polyketide Synthases; Polyketides; Post-Acute COVID-19 Syndrome; Protein Binding</t>
+          <t>Antineoplastic Agents; Big Data; Biological Products; COVID-19; Catalytic Domain; Crystallography; Daunorubicin; Drug Design; Machine Learning; Mutagenesis; Polyketide Synthases; Polyketides; Post-Acute COVID-19 Syndrome</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1709,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Adjuvants, Immunologic; Allergy and Immunology; Alzheimer Disease; Antibodies, Monoclonal, Humanized; Antibody Formation; Astrocytes; Autoimmunity; Bioengineering; Biomarkers, Tumor; Bioprinting; Biotechnology; Bone Marrow; Breast Neoplasms; CD4 Antigens; CD4-Positive T-Lymphocytes; CD8-Positive T-Lymphocytes; Cell Adhesion Molecules; Cell Death; Cell Differentiation; Clinical Trials, Phase II as Topic; Clustered Regularly Interspaced Short Palindromic Repeats; Coronavirus Infections; Demyelinating Diseases; Embryonic Stem Cells; Encephalomyelitis, Autoimmune, Experimental; Epitopes; Epstein-Barr Virus Infections; Esophageal Neoplasms; Flow Cytometry; Fluticasone; Forkhead Transcription Factors; Fucose; Fucosyltransferases; Gene Expression Profiling; Graft vs Host Disease; Hematologic Neoplasms; Hematopoietic Stem Cell Transplantation; Hematopoietic Stem Cells; Herpesvirus 4, Human; Image Cytometry; Immune Tolerance; Immunity, Cellular; Immunity, Innate; Immunization; Immunosuppressive Agents; Immunotherapy; Incubators; Induced Pluripotent Stem Cells; Inflammation; Ischemia; Killer Cells, Natural; Laboratories; Lymphocyte Activation; Macrophages; Magnetic Phenomena; Meningitis, Aseptic; Mice, Inbred Strains; Microglia; Microscopy; Multiomics; Multiple Sclerosis; Multiple Sclerosis, Relapsing-Remitting; Murine hepatitis virus; Myelin Sheath; Myeloid-Derived Suppressor Cells; Neural Stem Cells; Neuroinflammatory Diseases; Organoids; Persistent Infection; RNA, Neoplasm; Receptors, Antigen, T-Cell; Regenerative Medicine; Remyelination; S Phase; Signaling Lymphocytic Activation Molecule Family; Single-Cell Analysis; Single-Cell Gene Expression Analysis; Stem Cell Research; Stem Cell Transplantation; Stem Cells; T-Lymphocytes; T-Lymphocytes, Regulatory; Transcriptome; Transplantation, Homologous; Tumor Escape; Vaccination; Vaccine Efficacy; Vaccines; White Matter; aducanumab</t>
+          <t>Adjuvants, Immunologic; Allergy and Immunology; Alzheimer Disease; Antibodies, Monoclonal, Humanized; Antibody Formation; Astrocytes; Autoimmunity; Bioengineering; Bioprinting; Biotechnology; Bone Marrow; CD4 Antigens; CD4-Positive T-Lymphocytes; CD8-Positive T-Lymphocytes; Cell Adhesion Molecules; Cell Death; Clinical Trials, Phase II as Topic; Clustered Regularly Interspaced Short Palindromic Repeats; Coronavirus Infections; Demyelinating Diseases; Embryonic Stem Cells; Encephalomyelitis, Autoimmune, Experimental; Epitopes; Epstein-Barr Virus Infections; Esophageal Neoplasms; Flow Cytometry; Fluticasone; Forkhead Transcription Factors; Fucose; Fucosyltransferases; Gene Expression Profiling; Graft vs Host Disease; Hematologic Neoplasms; Hematopoietic Stem Cell Transplantation; Hematopoietic Stem Cells; Herpesvirus 4, Human; Image Cytometry; Immune Tolerance; Immunity, Cellular; Immunity, Innate; Immunization; Immunosuppressive Agents; Immunotherapy; Incubators; Induced Pluripotent Stem Cells; Inflammation; Ischemia; Killer Cells, Natural; Laboratories; Lymphocyte Activation; Macrophages; Magnetic Phenomena; Meningitis, Aseptic; Microglia; Microscopy; Multiomics; Multiple Sclerosis; Multiple Sclerosis, Relapsing-Remitting; Murine hepatitis virus; Neural Stem Cells; Neuroinflammatory Diseases; Organoids; Persistent Infection; Receptors, Antigen, T-Cell; Regenerative Medicine; Remyelination; S Phase; Single-Cell Gene Expression Analysis; Stem Cell Research; Stem Cells; T-Lymphocytes; T-Lymphocytes, Regulatory; Transplantation, Homologous; Tumor Escape; Vaccination; Vaccine Efficacy; Vaccines; White Matter; aducanumab</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1721,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AMP-Activated Protein Kinases; Acetylation; Adaptor Proteins, Signal Transducing; Adenocarcinoma of Lung; Adolescent; Antineoplastic Agents; Apoptosis; Autophagy; Autophagy-Related Protein 8 Family; B7-H1 Antigen; Blastocyst; Body Patterning; Brain; Breast Neoplasms; Calmodulin-Binding Proteins; Carcinogenesis; Cell Differentiation; Cell Line, Tumor; Cell Proliferation; Cell Survival; Cell Transformation, Neoplastic; Child; Chromatin; Cues; DNA-Binding Proteins; Drosophila Proteins; Drug Resistance, Neoplasm; Dynactin Complex; Dyneins; Embryonic Development; Endoderm; Ependymoma; Fertilization; Florida; Gene Expression Regulation, Developmental; Gene Expression Regulation, Neoplastic; Gene Regulatory Networks; Genes, Neurofibromatosis 2; Genes, Regulator; Genetic Background; Glucose; Glycogen Synthase Kinase 3 beta; Glycosylation; Head and Neck Neoplasms; Hippo Signaling Pathway; Histone Deacetylase 1; Histone Deacetylase 2; Histone Deacetylases; Histones; Homeostasis; Immunity, Innate; Immunotherapy; Inflammation; Intercellular Signaling Peptides and Proteins; Interdisciplinary Research; Intracellular Signaling Peptides and Proteins; Kinesins; Lipids; Loss of Function Mutation; Lung Neoplasms; MAP Kinase Signaling System; Mass Spectrometry; Meningeal Neoplasms; Meningioma; Metabolic Networks and Pathways; Metals, Heavy; Microtubule-Associated Proteins; Microtubules; Morbidity; Mutation; Mutation, Missense; N-Myc Proto-Oncogene Protein; Neoplasms; Neurilemmoma; Neurofibromatosis 2; Neurofibromin 2; Organ Size; Organelles; Phosphoric Monoester Hydrolases; Phosphorylation; Physiological Phenomena; Platinum Compounds; Protein Interaction Mapping; Protein Interaction Maps; Protein Serine-Threonine Kinases; Proteins; Proteomics; Publishing; Pyridines; RNA, Long Noncoding; Receptor, Notch1; Regeneration; Sequence Deletion; Serine; Serine-Threonine Kinase 3; Signal Transduction; Stem Cells; TEA Domain Transcription Factors; Transcription Factor MTF-1; Transcription Factors; Tumor Escape; Tumor Suppressor Proteins; Ubiquitin-Protein Ligases; Ubiquitination; Writing; Xenograft Model Antitumor Assays</t>
+          <t>AMP-Activated Protein Kinases; Acetylation; Adaptor Proteins, Signal Transducing; Adenocarcinoma of Lung; Adolescent; Antineoplastic Agents; Apoptosis; Autophagy; Autophagy-Related Protein 8 Family; B7-H1 Antigen; Blastocyst; Body Patterning; Brain; Breast Neoplasms; Calmodulin-Binding Proteins; Carcinogenesis; Cell Differentiation; Cell Line, Tumor; Cell Proliferation; Cell Survival; Cell Transformation, Neoplastic; Child; Chromatin; Cues; DNA-Binding Proteins; Drosophila Proteins; Drug Resistance, Neoplasm; Dynactin Complex; Dyneins; Embryonic Development; Endoderm; Ependymoma; Fertilization; Florida; Gene Expression Regulation, Developmental; Gene Expression Regulation, Neoplastic; Gene Regulatory Networks; Genes, Neurofibromatosis 2; Genes, Regulator; Genetic Background; Glucose; Glycogen Synthase Kinase 3 beta; Glycosylation; Head and Neck Neoplasms; Hippo Signaling Pathway; Histone Deacetylase 1; Histone Deacetylase 2; Histone Deacetylases; Histones; Homeostasis; Immunity, Innate; Immunotherapy; Inflammation; Intercellular Signaling Peptides and Proteins; Interdisciplinary Research; Intracellular Signaling Peptides and Proteins; Kinesins; Lipids; Loss of Function Mutation; Lung Neoplasms; MAP Kinase Signaling System; Mass Spectrometry; Meningeal Neoplasms; Meningioma; Metabolic Networks and Pathways; Metals, Heavy; Microtubule-Associated Proteins; Microtubules; Morbidity; Mutation; Mutation, Missense; N-Myc Proto-Oncogene Protein; Neoplasms; Neurilemmoma; Neurofibromatosis 2; Neurofibromin 2; Organ Size; Organelles; Phosphoric Monoester Hydrolases; Phosphorylation; Physiological Phenomena; Platinum Compounds; Protein Interaction Mapping; Protein Interaction Maps; Protein Serine-Threonine Kinases; Proteins; Proteomics; Publishing; Pyridines; RNA, Long Noncoding; Receptor, Notch1; Regeneration; Sequence Deletion; Serine; Serine-Threonine Kinase 3; Signal Transduction; Stem Cells; TEA Domain Transcription Factors; Transcription Factor MTF-1; Transcription Factors; Tumor Escape; Tumor Suppressor Proteins; Ubiquitin-Protein Ligases; Ubiquitination; Writing; Xenograft Model Antitumor Assays; nan</t>
         </is>
       </c>
     </row>
@@ -1757,19 +1745,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Adjuvants, Immunologic; Adjuvants, Pharmaceutic; Aged; Aging; Alzheimer Disease; Ampicillin; Amyloid beta-Peptides; Angiotensin Receptor Antagonists; Angiotensin-Converting Enzyme Inhibitors; Anti-Bacterial Agents; Anti-Infective Agents; Antineoplastic Agents, Hormonal; Antioxidants; Appendectomy; Appendicitis; Autistic Disorder; Autoimmune Diseases; Bacteremia; Bacteria; Bacteria, Anaerobic; Bacterial Infections; Bacterial Physiological Phenomena; Bacteriophages; Benchmarking; Biodiversity; Biofilms; Biological Evolution; Biomarkers; Brain; Brain-Gut Axis; Breast Neoplasms; Bronchoalveolar Lavage Fluid; COVID-19; Caregivers; Case-Control Studies; Child; Chromatography, Gas; Clostridium Infections; Cohort Studies; Coliphages; Colon; Colonic Neoplasms; Colonoscopy; Communicable Diseases; Compassionate Use Trials; Complement C1q; Computational Biology; Critical Illness; Cross Infection; Cryopreservation; Culture Media; Cystic Fibrosis; DNA; Data Management; Dementia; Demography; Dendritic Cells; Diabetes Mellitus, Type 1; Diabetes Mellitus, Type 2; Diagnosis; Diet; Diet Therapy; Diet, Mediterranean; Dietary Fiber; Digestion; Drug Resistance, Bacterial; Drug Resistance, Microbial; Drug Resistance, Multiple, Bacterial; Dysbiosis; Ecology; Ecosystem; Ecuador; Endometriosis; Enterococcus; Enterococcus faecalis; Enterococcus faecium; Epithelium; Escherichia coli; Estonia; Ethics Committees, Research; Fatty Acids, Volatile; Feasibility Studies; Fecal Microbiota Transplantation; Fellowships and Scholarships; Fermentation; Freezing; Gas Chromatography-Mass Spectrometry; Gastroenterology; Gastrointestinal Microbiome; Gene Expression Profiling; Gene Knock-In Techniques; Genome Size; Genomics; Genotype; Germ-Free Life; Global Health; Glycoside Hydrolases; Gram-Negative Bacteria; Gram-Negative Bacterial Infections; Gram-Positive Bacterial Infections; Health; Healthy Volunteers; High-Throughput Nucleotide Sequencing; Hospitalization; Host Microbial Interactions; Host Specificity; Human Body; Hunting; Hydrogen-Ion Concentration; Hypersensitivity; Immunity; Immunocompromised Host; Immunosenescence; Immunotherapy; Incidence; Individuality; Inflammation; Inflammatory Bowel Diseases; Informed Consent; Inpatients; Interdisciplinary Research; Internship and Residency; Intestine, Small; Kinetics; Laboratories; Leadership; Life Cycle Stages; Linezolid; Longitudinal Studies; Lung; Macrophages; Mass Spectrometry; Melanoma; Metabolome; Metabolomics; Metagenome; Metagenomics; Methicillin-Resistant Staphylococcus aureus; Microbial Sensitivity Tests; Microbiology; Microbiota; Microscopy; Microscopy, Fluorescence; Molecular Biology; Molecular Sequence Annotation; Morocco; Mutation; Myeloproliferative Disorders; Neoplasms; Neurodegenerative Diseases; Neuroinflammatory Diseases; Nutrients; Obesity; Optical Imaging; Outcome Assessment, Health Care; Pandemics; Patient Discharge; Phage Therapy; Pilot Projects; Planets; Pneumonia; Premature Birth; Prevalence; Probiotics; Pseudomonas; Pseudomonas aeruginosa; Public Health; Pyocyanine; RNA; RNA, Ribosomal, 16S; Random Forest; Receptors, Complement; Recommended Dietary Allowances; Reproducibility of Results; Research Personnel; Resilience, Psychological; Respiration; Respiration Disorders; Respiratory Mucosa; Respiratory System; Respiratory Tract Infections; Sequence Analysis, DNA; Sequence Analysis, RNA; Sewage; Sex Characteristics; Societies, Scientific; Sputum; Staphylococcal Infections; Staphylococcus; Staphylococcus aureus; Stenotrophomonas; Stenotrophomonas maltophilia; Stomach; Streptococcus; Surface-Active Agents; Tamoxifen; Tetracycline; Tobacco Smoke Pollution; Transcriptome; Translational Science, Biomedical; Vaccine Efficacy; Vancomycin; Virome; Viruses; Volatile Organic Compounds; Volunteers; Wastewater; Wastewater-Based Epidemiological Monitoring; Western World; Young Adult</t>
+          <t>Adjuvants, Immunologic; Adjuvants, Pharmaceutic; Aged; Aging; Alzheimer Disease; Ampicillin; Amyloid beta-Peptides; Angiotensin Receptor Antagonists; Angiotensin-Converting Enzyme Inhibitors; Anti-Bacterial Agents; Anti-Infective Agents; Antineoplastic Agents, Hormonal; Antioxidants; Appendectomy; Appendicitis; Autistic Disorder; Autoimmune Diseases; Bacteremia; Bacteria; Bacteria, Anaerobic; Bacterial Infections; Bacterial Physiological Phenomena; Bacteriophages; Benchmarking; Biodiversity; Biofilms; Biological Evolution; Biomarkers; Brain; Brain-Gut Axis; Breast Neoplasms; Bronchoalveolar Lavage Fluid; COVID-19; Caregivers; Case-Control Studies; Child; Chromatography, Gas; Clostridioides difficile; Clostridium Infections; Cohort Studies; Coliphages; Colon; Colonic Neoplasms; Colonoscopy; Communicable Diseases; Compassionate Use Trials; Complement C1q; Computational Biology; Critical Illness; Cross Infection; Cryopreservation; Culture Media; Cystic Fibrosis; DNA; Data Management; Dementia; Demography; Dendritic Cells; Diabetes Mellitus, Type 1; Diabetes Mellitus, Type 2; Diagnosis; Diet; Diet Therapy; Diet, Mediterranean; Dietary Fiber; Digestion; Drug Resistance, Bacterial; Drug Resistance, Microbial; Drug Resistance, Multiple, Bacterial; Dysbiosis; Ecology; Ecosystem; Ecuador; Endometriosis; Enterococcus; Enterococcus faecalis; Enterococcus faecium; Epithelium; Escherichia coli; Estonia; Ethics Committees, Research; Fatty Acids, Volatile; Feasibility Studies; Fecal Microbiota Transplantation; Fellowships and Scholarships; Fermentation; Freezing; Gas Chromatography-Mass Spectrometry; Gastroenterology; Gastrointestinal Microbiome; Gene Expression Profiling; Gene Knock-In Techniques; Genome Size; Genomics; Genotype; Germ-Free Life; Global Health; Glycoside Hydrolases; Gram-Negative Bacteria; Gram-Negative Bacterial Infections; Gram-Positive Bacterial Infections; Health; Healthy Volunteers; High-Throughput Nucleotide Sequencing; Hospitalization; Host Microbial Interactions; Host Specificity; Human Body; Hunting; Hydrogen-Ion Concentration; Hypersensitivity; Immunity; Immunocompromised Host; Immunosenescence; Immunotherapy; Incidence; Individuality; Inflammation; Inflammatory Bowel Diseases; Informed Consent; Inpatients; Interdisciplinary Research; Internship and Residency; Intestine, Small; Kinetics; Laboratories; Leadership; Life Cycle Stages; Linezolid; Longitudinal Studies; Lung; Macrophages; Mass Spectrometry; Melanoma; Metabolome; Metabolomics; Metagenome; Metagenomics; Methicillin-Resistant Staphylococcus aureus; Microbial Sensitivity Tests; Microbiology; Microbiota; Microscopy; Microscopy, Fluorescence; Molecular Biology; Molecular Sequence Annotation; Morocco; Mutation; Myeloproliferative Disorders; Neoplasms; Neurodegenerative Diseases; Neuroinflammatory Diseases; Nutrients; Obesity; Optical Imaging; Outcome Assessment, Health Care; Pandemics; Patient Discharge; Phage Therapy; Pilot Projects; Planets; Pneumonia; Precision Medicine; Premature Birth; Prevalence; Probiotics; Pseudomonas; Pseudomonas aeruginosa; Public Health; Pyocyanine; RNA; RNA, Ribosomal, 16S; Random Forest; Receptors, Complement; Recommended Dietary Allowances; Reproducibility of Results; Research Personnel; Resilience, Psychological; Respiration; Respiration Disorders; Respiratory Mucosa; Respiratory System; Respiratory Tract Infections; Sequence Analysis, DNA; Sequence Analysis, RNA; Sewage; Sex Characteristics; Societies, Scientific; Sputum; Staphylococcal Infections; Staphylococcus; Staphylococcus aureus; Stenotrophomonas; Stenotrophomonas maltophilia; Stomach; Streptococcus; Surface-Active Agents; Tamoxifen; Tetracycline; Tobacco Smoke Pollution; Transcriptome; Translational Research, Biomedical; Translational Science, Biomedical; Vaccine Efficacy; Vancomycin; Virome; Viruses; Volatile Organic Compounds; Volunteers; Wastewater; Wastewater-Based Epidemiological Monitoring; Western World; Young Adult</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wiles, TJ </t>
+          <t>Wiles, Travis</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Animals, Genetically Modified; Bacteria; Bacterial Proteins; Bacteriophages; Biological Evolution; Chemotaxis; Diabetes Mellitus; Disease Transmission, Infectious; Drug Resistance, Microbial; Ecology; Evolution, Molecular; Gastrointestinal Microbiome; Gastrointestinal Motility; Genetics; Host Microbial Interactions; Hyperglycemia; Imaging, Three-Dimensional; Inflammation; Intestines; Locomotion; Macrophages; Metronidazole; Microbial Interactions; Microbiology; Microbiota; Mutation; Nitroreductases; Symbiosis; Synthetic Biology; Systems Biology; Tumor Necrosis Factor-alpha; Type VI Secretion Systems; Vibrio; Vibrio cholerae; Zebrafish</t>
+          <t>Animals, Genetically Modified; Animals, Wild; Anti-Bacterial Agents; Anti-Inflammatory Agents; Antioxidants; Bacteria; Bacterial Physiological Phenomena; Bacterial Proteins; Bacteriophages; Biological Evolution; Chromosomes; Climate Change; DNA Damage; Diabetes Mellitus; Disease Transmission, Infectious; Drug Resistance, Microbial; Ecology; Ecosystem; Escherichia coli; Evolution, Molecular; Feasibility Studies; Food Supply; Gastrointestinal Microbiome; Gastrointestinal Motility; Gene Flow; Gene Transfer, Horizontal; Genetic Engineering; Genetics; Homeostasis; Host Microbial Interactions; Hyperglycemia; Imaging, Three-Dimensional; Immune System; Inflammation; Intestines; Macrophages; Metronidazole; Microbial Consortia; Microbiology; Microbiota; Motivation; Nitroreductases; Oxidation-Reduction; Peptides; Planets; Predatory Behavior; Public Health; Reactive Oxygen Species; SOS Response, Genetics; Soil; Symbiosis; Synthetic Biology; Systems Biology; Type VI Secretion Systems; Vibrio cholerae; Zebrafish; nan</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1769,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Acetate-CoA Ligase; Acetyl Coenzyme A; Acetylation; Activin Receptors, Type I; Adverse Childhood Experiences; Aging; Alzheimer Disease; Amyloid beta-Peptides; Antibodies; Anxiety; Autism Spectrum Disorder; Blotting, Western; Brain; Brain Neoplasms; Brain-Derived Neurotrophic Factor; Calcium; Censuses; Child; Chin; Cholinergic Agents; Cholinergic Neurons; Chromatin; Chromatin Immunoprecipitation; Circadian Rhythm; Cocaine; Cognition; Color Vision Defects; Conditioning, Classical; Cues; Cuprizone; DNA; DNA Methylation; DNA-Binding Proteins; Demyelinating Diseases; Dopaminergic Neurons; Drug-Seeking Behavior; Entropy; Epigenesis, Genetic; Epigenetic Memory; Epigenomics; Fear; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genes, X-Linked; Genetic Variation; Genetics; Genomics; Habenula; High-Throughput Nucleotide Sequencing; Hippocampus; Histone Code; Histones; Immunohistochemistry; Intellectual Disability; Interneurons; Jumonji Domain-Containing Histone Demethylases; Leucine Zippers; Life Change Events; Long-Term Potentiation; Longevity; Mass Spectrometry; Medium Spiny Neurons; Membrane Glycoproteins; Memory; Memory Consolidation; Memory, Long-Term; Mental Disorders; Mental Health; Microglia; Mutation; N-nitrosoiminodiacetic acid; Neurodegenerative Diseases; Neurogenesis; Neuroglia; Neuroinflammatory Diseases; Neuronal Plasticity; Neurons; Neurosciences; Nicotine; Nucleosomes; Nucleus Accumbens; Occupations; Pharmaceutical Preparations; Physical Conditioning, Animal; Plaque, Amyloid; Polyadenylation; Polymerase Chain Reaction; Promoter Regions, Genetic; Proteomics; RNA Splicing; RNA, Catalytic; RNA, Messenger; RNA-Binding Proteins; Radiation Dose Hypofractionation; Radiation Exposure; Radiotherapy; Radiotherapy Dosage; Receptors, Immunologic; Recurrence; Reproducibility of Results; Resilience, Psychological; Reward; Sequence Analysis, RNA; Sleep; Spatial Memory; Substance-Related Disorders; Synapses; Synaptic Transmission; Trans-Activators; Transcription Factors; Transcriptome; Wood; X Chromosome; histone deacetylase 3</t>
+          <t>Acetate-CoA Ligase; Acetyl Coenzyme A; Acetylation; Activin Receptors, Type I; Adverse Childhood Experiences; Aging; Alzheimer Disease; Amyloid beta-Peptides; Antibodies; Anxiety; Autism Spectrum Disorder; Blotting, Western; Brain; Brain Neoplasms; Brain-Derived Neurotrophic Factor; Calcium; Censuses; Child; Chin; Cholinergic Agents; Cholinergic Neurons; Chromatin; Chromatin Immunoprecipitation; Circadian Rhythm; Cocaine; Cognition; Color Vision Defects; Conditioning, Classical; Cues; Cuprizone; DNA; DNA Methylation; DNA-Binding Proteins; Demyelinating Diseases; Dopaminergic Neurons; Drug-Seeking Behavior; Entropy; Epigenesis, Genetic; Epigenetic Memory; Epigenomics; Fear; Gene Expression; Gene Expression Profiling; Gene Expression Regulation; Gene Regulatory Networks; Genes, X-Linked; Genetic Variation; Genetics; Genomics; Habenula; High-Throughput Nucleotide Sequencing; Hippocampus; Histone Code; Histones; Immunohistochemistry; Intellectual Disability; Interneurons; Jumonji Domain-Containing Histone Demethylases; Leucine Zippers; Life Change Events; Long-Term Potentiation; Longevity; Mass Spectrometry; Medium Spiny Neurons; Membrane Glycoproteins; Memory; Memory Consolidation; Memory, Long-Term; Mental Disorders; Mental Health; Microglia; Mutation; N-nitrosoiminodiacetic acid; Neurodegenerative Diseases; Neurogenesis; Neuroglia; Neuroinflammatory Diseases; Neuronal Plasticity; Neurons; Neurosciences; Nicotine; Nucleosomes; Nucleus Accumbens; Occupations; Pharmaceutical Preparations; Physical Conditioning, Animal; Plaque, Amyloid; Polyadenylation; Polymerase Chain Reaction; Promoter Regions, Genetic; Proteomics; RNA Splicing; RNA, Catalytic; RNA, Messenger; RNA-Binding Proteins; Radiation Dose Hypofractionation; Radiation Exposure; Radiotherapy; Radiotherapy Dosage; Receptors, Immunologic; Recurrence; Reproducibility of Results; Resilience, Psychological; Reward; Sequence Analysis, RNA; Sleep; Spatial Memory; Substance-Related Disorders; Synapses; Synaptic Transmission; Trans-Activators; Transcription Factors; Transcriptome; Wood; X Chromosome; histone deacetylase 3; nan</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1793,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Adolescent; Adverse Childhood Experiences; Age Factors; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amygdala; Amyloid; Amyloid beta-Peptides; Anhedonia; Anniversaries and Special Events; Anxiety; Artificial Intelligence; Biological Specimen Banks; Biomarkers; Brain; Cerebrovascular Disorders; Child; Clinical Trials as Topic; Cognition; Cognitive Dysfunction; Cohort Studies; Community-Institutional Relations; Compulsive Behavior; Computational Biology; Computer Simulation; Consensus; Data Aggregation; Data Collection; Data Management; Data Science; Dementia; Depression; Discrimination, Psychological; Documentation; Down Syndrome; Drug Discovery; Ecosystem; Electrophysiological Phenomena; Emotions; Entorhinal Cortex; Exercise; Financial Management; Frontal Lobe; Gamma Rhythm; Head; Hippocampus; Infant, Newborn; Interdisciplinary Research; Interneurons; Learning; Longitudinal Studies; Machine Learning; Magnetic Resonance Imaging; Memory; Memory Consolidation; Memory Disorders; Memory, Episodic; Mental Disorders; Mental Recall; Metadata; Midline Thalamic Nuclei; Motivation; Neocortex; Nervous System Diseases; Neural Pathways; Neuroimaging; Neurophysiology; Neuropsychological Tests; Neuropsychology; Nucleus Accumbens; Oceans and Seas; Pattern Recognition, Physiological; Peptide Fragments; Phenotype; Physicians; Policy; Polyethylene Terephthalates; Polysomnography; Positron-Emission Tomography; Prefrontal Cortex; Premature Birth; Primates; Prospective Studies; Proteostasis Deficiencies; Psychiatry; Publishing; Quality of Life; Reward; Risk Factors; Saliva; Sleep; Software; Spectrum Analysis; Stress Disorders, Post-Traumatic; Surveys and Questionnaires; Temporal Lobe; Theta Rhythm; UK Biobank; Wakefulness; White Matter; Writing; Young Adult; tau Proteins</t>
+          <t>Adolescent; Adverse Childhood Experiences; Age Factors; Aged; Aged, 80 and over; Aging; Alzheimer Disease; Amygdala; Amyloid; Amyloid beta-Peptides; Anhedonia; Aniline Compounds; Anniversaries and Special Events; Anxiety; Artificial Intelligence; Biological Specimen Banks; Biomarkers; Brain; Cerebrovascular Disorders; Child; Clinical Trials as Topic; Cognition; Cognitive Dysfunction; Cohort Studies; Community-Institutional Relations; Compulsive Behavior; Computational Biology; Computer Simulation; Consensus; Data Aggregation; Data Collection; Data Management; Data Science; Dementia; Depression; Discrimination, Psychological; Documentation; Down Syndrome; Drug Discovery; Ecosystem; Electrophysiological Phenomena; Emotions; Entorhinal Cortex; Exercise; Financial Management; Frontal Lobe; Gamma Rhythm; Head; Hippocampus; Infant, Newborn; Interdisciplinary Research; Interneurons; Learning; Longitudinal Studies; Machine Learning; Magnetic Resonance Imaging; Memory; Memory Consolidation; Memory Disorders; Memory, Episodic; Mental Disorders; Mental Recall; Metadata; Midline Thalamic Nuclei; Motivation; Neocortex; Nervous System Diseases; Neural Pathways; Neuroimaging; Neurophysiology; Neuropsychological Tests; Neuropsychology; Nucleus Accumbens; Oceans and Seas; Pattern Recognition, Physiological; Peptide Fragments; Phenotype; Physicians; Policy; Polyethylene Terephthalates; Polysomnography; Positron-Emission Tomography; Prefrontal Cortex; Premature Birth; Primates; Prospective Studies; Proteostasis Deficiencies; Psychiatry; Publishing; Quality of Life; Reward; Risk Factors; Saliva; Sleep; Software; Spectrum Analysis; Stress Disorders, Post-Traumatic; Surveys and Questionnaires; Temporal Lobe; Theta Rhythm; UK Biobank; Wakefulness; White Matter; Writing; Young Adult; tau Proteins</t>
         </is>
       </c>
     </row>
@@ -2100,8 +2088,8 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <ProjectRole xmlns="b238fc39-fcbb-4f8c-bfd3-e3a789f7784e" xsi:nil="true"/>
     <Notes xmlns="b238fc39-fcbb-4f8c-bfd3-e3a789f7784e" xsi:nil="true"/>
-    <ProjectRole xmlns="b238fc39-fcbb-4f8c-bfd3-e3a789f7784e" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b238fc39-fcbb-4f8c-bfd3-e3a789f7784e">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
@@ -2111,13 +2099,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38D3310D-E532-4A76-9F0E-17F7AF9383B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E84BF1-5F9B-4096-B936-0D48D7C5F545}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206CD4E4-D48B-40BD-8331-A0BF004A3AB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7E850-9D4D-44B4-8B9C-953269D84094}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9130958A-D148-4EFC-9569-F391F12D7B84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1332A14B-ECB0-424C-8FEF-A4568240472F}"/>
 </file>